--- a/TEST_INSTANCE/50M_50N_10T.xlsx
+++ b/TEST_INSTANCE/50M_50N_10T.xlsx
@@ -462,231 +462,231 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[1, 2, 8, 1, 3, 3, 7, 8, 6, 8, 9, 9, 7, 10, 10, 2, 1, 1, 2, 2, 6, 8, 1, 7, 2, 7, 7, 6, 6, 9]</t>
+          <t>[9, 10, 5, 4, 5, 3, 1, 3, 8, 6, 10, 9, 1, 5, 1, 8, 10, 1, 4, 8, 8, 9, 10, 3, 9, 9, 4, 4, 2, 10, 4, 8, 8, 4, 4, 2, 10, 10, 2, 7]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[0.5484, 0.4736, 0.6294, 0.5946, 0.2419, 0.3909, 0.5977, 0.6514, 0.6793, 0.4529, 0.6523, 0.252, 0.4542, 0.6869, 0.3311, 0.5453, 0.5675, 0.3292, 0.5165, 0.5024, 0.3853, 0.447, 0.2755, 0.5847, 0.582, 0.4383, 0.2222, 0.6806, 0.2691, 0.506], [0.258, 0.5811, 0.4136, 0.3953, 0.3984, 0.6219, 0.3958, 0.614, 0.5113, 0.2125, 0.2717, 0.2418, 0.5109, 0.3043, 0.6445, 0.48, 0.6431, 0.3535, 0.5363, 0.407, 0.5943, 0.3931, 0.3875, 0.3513, 0.6763, 0.3969, 0.2523, 0.2713, 0.4829, 0.3232], [0.6826, 0.3102, 0.5162, 0.2953, 0.2178, 0.6831, 0.2388, 0.5317, 0.4722, 0.4485, 0.5586, 0.5278, 0.4284, 0.5099, 0.4156, 0.4339, 0.6232, 0.3327, 0.5922, 0.3876, 0.4087, 0.6752, 0.2396, 0.585, 0.2085, 0.598, 0.6191, 0.3719, 0.3227, 0.5735], [0.4259, 0.6424, 0.6282, 0.5373, 0.3954, 0.209, 0.2572, 0.6739, 0.3369, 0.5145, 0.4593, 0.6536, 0.3121, 0.2157, 0.4377, 0.6426, 0.2807, 0.2039, 0.252, 0.3831, 0.2829, 0.5228, 0.4192, 0.4477, 0.3677, 0.2149, 0.6583, 0.5909, 0.5643, 0.5071], [0.2749, 0.2214, 0.3792, 0.3725, 0.3818, 0.6553, 0.4989, 0.3652, 0.6178, 0.2046, 0.2332, 0.6424, 0.2385, 0.3283, 0.434, 0.5646, 0.2443, 0.6337, 0.3417, 0.2465, 0.46, 0.4497, 0.3823, 0.2005, 0.3971, 0.6002, 0.3234, 0.4052, 0.3868, 0.2372], [0.4424, 0.4065, 0.5845, 0.276, 0.4395, 0.4055, 0.2416, 0.5142, 0.5734, 0.4064, 0.4021, 0.3216, 0.2282, 0.4719, 0.5861, 0.6369, 0.3658, 0.2831, 0.4542, 0.5657, 0.3663, 0.6561, 0.3087, 0.5168, 0.5502, 0.4183, 0.2752, 0.4225, 0.5419, 0.5966], [0.6675, 0.2059, 0.5365, 0.2306, 0.6517, 0.2608, 0.2616, 0.4084, 0.2761, 0.6784, 0.3923, 0.269, 0.2206, 0.2247, 0.3363, 0.4711, 0.3239, 0.3337, 0.5214, 0.4497, 0.6757, 0.2652, 0.5039, 0.629, 0.5214, 0.3926, 0.2164, 0.5288, 0.2701, 0.278], [0.2838, 0.4703, 0.283, 0.4463, 0.2491, 0.3299, 0.6439, 0.2811, 0.6388, 0.2542, 0.6325, 0.6815, 0.4797, 0.2151, 0.3795, 0.2821, 0.5176, 0.214, 0.5658, 0.3536, 0.246, 0.5977, 0.5701, 0.6465, 0.5772, 0.3624, 0.5187, 0.3554, 0.3295, 0.4967], [0.6195, 0.6859, 0.6322, 0.3684, 0.51, 0.2239, 0.2077, 0.524, 0.5735, 0.2061, 0.3612, 0.2288, 0.6082, 0.5957, 0.4559, 0.3289, 0.4199, 0.4608, 0.2198, 0.4576, 0.5316, 0.5503, 0.2899, 0.442, 0.5943, 0.6981, 0.3386, 0.6483, 0.2831, 0.385], [0.6343, 0.5947, 0.4724, 0.3777, 0.3951, 0.2553, 0.5673, 0.6255, 0.3972, 0.455, 0.6167, 0.2323, 0.5793, 0.2197, 0.5327, 0.4155, 0.3618, 0.4315, 0.4888, 0.352, 0.5691, 0.5222, 0.5946, 0.2789, 0.4991, 0.4863, 0.696, 0.3296, 0.403, 0.5727], [0.4731, 0.551, 0.3596, 0.6572, 0.5133, 0.5071, 0.6603, 0.2817, 0.3644, 0.2983, 0.2792, 0.3293, 0.3423, 0.4811, 0.2338, 0.6474, 0.272, 0.6924, 0.3542, 0.5662, 0.2544, 0.4793, 0.4385, 0.2636, 0.5981, 0.2099, 0.6853, 0.261, 0.2098, 0.5437], [0.6365, 0.6613, 0.2458, 0.4687, 0.2101, 0.5842, 0.3063, 0.6798, 0.6089, 0.269, 0.6957, 0.6145, 0.4127, 0.3482, 0.658, 0.5561, 0.2186, 0.6721, 0.482, 0.4679, 0.4303, 0.5318, 0.3953, 0.2404, 0.2059, 0.2014, 0.2383, 0.2339, 0.2349, 0.5729], [0.4046, 0.5884, 0.3207, 0.4222, 0.2901, 0.2931, 0.5745, 0.3785, 0.6418, 0.3643, 0.5763, 0.4717, 0.4529, 0.5721, 0.289, 0.3115, 0.4407, 0.3968, 0.3706, 0.6362, 0.2877, 0.2391, 0.3037, 0.6947, 0.3338, 0.6542, 0.4143, 0.481, 0.6739, 0.5752], [0.551, 0.3837, 0.5872, 0.4693, 0.548, 0.3983, 0.2751, 0.4925, 0.677, 0.5292, 0.5059, 0.5989, 0.2232, 0.3098, 0.388, 0.3964, 0.4897, 0.456, 0.318, 0.3765, 0.2835, 0.2114, 0.2494, 0.4077, 0.5297, 0.5938, 0.2566, 0.5138, 0.5241, 0.2911], [0.5515, 0.6246, 0.2763, 0.3208, 0.6938, 0.3391, 0.5624, 0.6569, 0.5264, 0.3759, 0.5103, 0.4987, 0.6939, 0.2046, 0.6038, 0.3652, 0.5634, 0.2762, 0.2661, 0.2357, 0.3083, 0.4042, 0.3432, 0.5807, 0.2614, 0.2265, 0.6438, 0.5723, 0.3345, 0.3367], [0.5214, 0.3297, 0.4263, 0.3129, 0.6749, 0.4031, 0.587, 0.5128, 0.4634, 0.5688, 0.2273, 0.5285, 0.5522, 0.6386, 0.3767, 0.262, 0.2761, 0.2672, 0.2784, 0.4314, 0.588, 0.5041, 0.511, 0.3291, 0.5459, 0.2447, 0.472, 0.3952, 0.6669, 0.5336], [0.6699, 0.6659, 0.4308, 0.2346, 0.6996, 0.4282, 0.4049, 0.6603, 0.3262, 0.5235, 0.2873, 0.3125, 0.5518, 0.3136, 0.5879, 0.2632, 0.4234, 0.6582, 0.3675, 0.5234, 0.4423, 0.6114, 0.2688, 0.2742, 0.6676, 0.6976, 0.5694, 0.2744, 0.6977, 0.4482], [0.4564, 0.4155, 0.4328, 0.4333, 0.5832, 0.3979, 0.3434, 0.6391, 0.6095, 0.5546, 0.3848, 0.4422, 0.482, 0.2553, 0.4409, 0.5965, 0.6939, 0.4332, 0.4846, 0.4124, 0.3376, 0.2773, 0.5979, 0.3601, 0.5555, 0.4764, 0.2664, 0.2539, 0.4094, 0.6298], [0.3981, 0.4623, 0.2031, 0.32, 0.4941, 0.5256, 0.4155, 0.2036, 0.4331, 0.2846, 0.3845, 0.5124, 0.6325, 0.4942, 0.348, 0.2118, 0.2194, 0.2567, 0.305, 0.4975, 0.5969, 0.2562, 0.2027, 0.2336, 0.4435, 0.4316, 0.2511, 0.605, 0.3493, 0.3264], [0.5358, 0.4941, 0.5594, 0.3188, 0.567, 0.4184, 0.6719, 0.531, 0.3764, 0.3992, 0.6233, 0.413, 0.6137, 0.5531, 0.4056, 0.2528, 0.6058, 0.3386, 0.513, 0.3384, 0.2904, 0.5899, 0.6077, 0.6904, 0.2112, 0.6875, 0.3865, 0.2791, 0.4933, 0.2426], [0.6753, 0.6798, 0.6063, 0.3332, 0.4884, 0.6809, 0.4607, 0.2348, 0.4388, 0.2545, 0.5208, 0.2137, 0.527, 0.4996, 0.4593, 0.2524, 0.3192, 0.2996, 0.5898, 0.6893, 0.6701, 0.6996, 0.2581, 0.2699, 0.3954, 0.2843, 0.4263, 0.6982, 0.399, 0.2292], [0.5473, 0.6451, 0.3484, 0.5795, 0.6229, 0.3836, 0.2525, 0.6066, 0.2295, 0.2246, 0.6405, 0.4208, 0.4422, 0.2321, 0.652, 0.594, 0.2044, 0.6721, 0.2153, 0.4059, 0.2921, 0.3314, 0.4454, 0.6506, 0.345, 0.2266, 0.4908, 0.3059, 0.3429, 0.5879], [0.373, 0.5446, 0.3768, 0.3485, 0.5725, 0.3456, 0.6497, 0.3929, 0.6294, 0.4969, 0.5798, 0.6661, 0.586, 0.6431, 0.3534, 0.5627, 0.2886, 0.6671, 0.3083, 0.4241, 0.3656, 0.5334, 0.2005, 0.4338, 0.2441, 0.4891, 0.4354, 0.5255, 0.3481, 0.4838], [0.624, 0.5684, 0.5742, 0.2556, 0.2141, 0.3341, 0.6553, 0.6964, 0.238, 0.6737, 0.2714, 0.5441, 0.5045, 0.5179, 0.4506, 0.4169, 0.2068, 0.2734, 0.3059, 0.2436, 0.3478, 0.3185, 0.6124, 0.4296, 0.2962, 0.6651, 0.6725, 0.6152, 0.604, 0.3677], [0.2214, 0.5348, 0.4998, 0.5218, 0.2119, 0.6707, 0.6215, 0.278, 0.4357, 0.496, 0.4563, 0.3045, 0.5166, 0.3922, 0.5578, 0.4738, 0.4833, 0.3869, 0.6236, 0.4748, 0.501, 0.4001, 0.2001, 0.6886, 0.2064, 0.2377, 0.534, 0.3198, 0.398, 0.4481], [0.3114, 0.3885, 0.6851, 0.6394, 0.2231, 0.3918, 0.2664, 0.4809, 0.626, 0.6199, 0.4123, 0.2498, 0.2533, 0.5112, 0.3146, 0.6658, 0.3555, 0.5493, 0.2234, 0.5443, 0.3561, 0.4159, 0.5418, 0.6907, 0.5175, 0.6777, 0.3081, 0.4692, 0.2981, 0.2813], [0.4924, 0.6778, 0.6032, 0.5686, 0.2452, 0.499, 0.554, 0.4424, 0.5409, 0.6637, 0.6115, 0.3224, 0.4741, 0.5274, 0.3316, 0.583, 0.4104, 0.6914, 0.3966, 0.5512, 0.2602, 0.2207, 0.307, 0.5441, 0.4672, 0.4589, 0.4408, 0.3556, 0.5777, 0.6278], [0.2144, 0.6541, 0.602, 0.3459, 0.6855, 0.5087, 0.5773, 0.6492, 0.5707, 0.5666, 0.4776, 0.6688, 0.2186, 0.3836, 0.375, 0.6358, 0.2166, 0.5379, 0.5728, 0.3176, 0.2095, 0.5621, 0.2047, 0.554, 0.6716, 0.3486, 0.497, 0.4936, 0.4967, 0.363], [0.3038, 0.5751, 0.2482, 0.4024, 0.6622, 0.4597, 0.6199, 0.2555, 0.5146, 0.5013, 0.6468, 0.6671, 0.5709, 0.2143, 0.4184, 0.4017, 0.5361, 0.363, 0.5213, 0.2678, 0.5198, 0.3694, 0.2632, 0.2001, 0.2348, 0.3649, 0.2406, 0.3397, 0.3328, 0.4699], [0.4144, 0.4923, 0.6754, 0.4456, 0.5281, 0.571, 0.223, 0.3655, 0.6934, 0.5292, 0.4474, 0.2516, 0.4225, 0.6986, 0.296, 0.6858, 0.2006, 0.2417, 0.6322, 0.4616, 0.5143, 0.2589, 0.5845, 0.3051, 0.3111, 0.5565, 0.4955, 0.6787, 0.4349, 0.3542]]</t>
+          <t>[[0.6131, 0.3608, 0.4325, 0.5651, 0.3929, 0.3819, 0.3442, 0.3094, 0.5833, 0.2591, 0.4832, 0.2524, 0.5629, 0.5183, 0.2944, 0.2549, 0.2897, 0.4622, 0.2857, 0.2522, 0.2496, 0.3334, 0.3659, 0.5841, 0.464, 0.6277, 0.4588, 0.6332, 0.3044, 0.4507, 0.5785, 0.367, 0.5787, 0.5551, 0.455, 0.454, 0.6387, 0.207, 0.672, 0.4092], [0.5909, 0.3753, 0.4495, 0.476, 0.5078, 0.3718, 0.3765, 0.2616, 0.3529, 0.3516, 0.5924, 0.5201, 0.4868, 0.4548, 0.6146, 0.539, 0.3135, 0.2667, 0.2628, 0.6383, 0.357, 0.6405, 0.5608, 0.2662, 0.4267, 0.2756, 0.2308, 0.6525, 0.2115, 0.5018, 0.645, 0.3678, 0.4084, 0.5744, 0.5253, 0.409, 0.5873, 0.3453, 0.3088, 0.4954], [0.2422, 0.6367, 0.6456, 0.58, 0.5536, 0.4831, 0.4097, 0.6212, 0.5593, 0.4963, 0.3952, 0.5511, 0.4879, 0.5085, 0.3396, 0.5749, 0.5255, 0.2847, 0.4347, 0.5899, 0.4843, 0.5459, 0.6749, 0.2776, 0.5038, 0.6341, 0.2581, 0.2668, 0.3818, 0.6211, 0.2063, 0.4663, 0.2742, 0.3956, 0.2447, 0.6852, 0.3347, 0.6897, 0.3156, 0.4975], [0.3621, 0.6774, 0.3405, 0.6639, 0.3749, 0.4403, 0.5304, 0.6029, 0.4882, 0.6609, 0.3802, 0.4146, 0.3358, 0.4876, 0.4407, 0.4518, 0.2126, 0.2035, 0.2016, 0.2853, 0.5942, 0.211, 0.3774, 0.4375, 0.4193, 0.3367, 0.3768, 0.4809, 0.4996, 0.4644, 0.2256, 0.3308, 0.6572, 0.5035, 0.6791, 0.619, 0.2186, 0.5124, 0.5481, 0.3303], [0.2852, 0.5488, 0.6811, 0.3418, 0.3482, 0.4927, 0.5925, 0.2401, 0.4827, 0.3386, 0.2596, 0.216, 0.3671, 0.4242, 0.6906, 0.2705, 0.2154, 0.2627, 0.4836, 0.4581, 0.5124, 0.2657, 0.6949, 0.37, 0.679, 0.5534, 0.6335, 0.2329, 0.6225, 0.2393, 0.3148, 0.5982, 0.5812, 0.5237, 0.6602, 0.6471, 0.5293, 0.5043, 0.2062, 0.6651], [0.5212, 0.2636, 0.4847, 0.4576, 0.3212, 0.3294, 0.3875, 0.3994, 0.6514, 0.5285, 0.296, 0.523, 0.453, 0.4538, 0.2838, 0.2833, 0.4772, 0.542, 0.2624, 0.5517, 0.2581, 0.614, 0.6181, 0.6154, 0.3194, 0.5362, 0.5658, 0.4384, 0.6291, 0.5708, 0.5332, 0.6063, 0.2196, 0.3155, 0.4741, 0.4027, 0.696, 0.3694, 0.6408, 0.4952], [0.6239, 0.6006, 0.3176, 0.2519, 0.365, 0.5578, 0.54, 0.2926, 0.6077, 0.4907, 0.2095, 0.3441, 0.4571, 0.2743, 0.3599, 0.5252, 0.4463, 0.4979, 0.4776, 0.4344, 0.311, 0.3842, 0.5637, 0.4184, 0.6472, 0.2042, 0.6404, 0.3603, 0.4239, 0.5879, 0.3101, 0.5336, 0.5003, 0.3704, 0.5259, 0.487, 0.4985, 0.5714, 0.699, 0.5418], [0.3928, 0.6379, 0.6379, 0.6848, 0.3499, 0.514, 0.3255, 0.251, 0.4508, 0.3233, 0.5908, 0.4756, 0.3318, 0.3509, 0.5012, 0.2091, 0.2733, 0.4185, 0.3576, 0.4462, 0.534, 0.5647, 0.6386, 0.468, 0.5344, 0.5318, 0.6219, 0.5132, 0.3357, 0.3792, 0.255, 0.4143, 0.65, 0.3401, 0.5483, 0.3187, 0.5267, 0.6745, 0.2557, 0.2061], [0.5141, 0.2522, 0.6002, 0.5259, 0.4553, 0.5996, 0.3171, 0.3077, 0.5122, 0.4259, 0.5794, 0.2449, 0.6631, 0.2036, 0.4192, 0.3847, 0.4076, 0.6983, 0.2451, 0.4676, 0.3609, 0.5364, 0.2859, 0.4766, 0.6681, 0.2348, 0.6689, 0.4357, 0.5813, 0.4977, 0.3244, 0.4544, 0.4239, 0.2334, 0.3467, 0.3351, 0.5102, 0.3484, 0.6866, 0.3695], [0.2039, 0.4992, 0.2149, 0.2779, 0.4656, 0.4591, 0.2306, 0.5938, 0.5561, 0.5776, 0.4218, 0.2388, 0.4186, 0.2858, 0.5678, 0.5089, 0.5982, 0.4392, 0.2259, 0.323, 0.692, 0.4085, 0.6115, 0.657, 0.4989, 0.3573, 0.6666, 0.49, 0.2562, 0.6203, 0.4104, 0.4912, 0.2829, 0.669, 0.4369, 0.5458, 0.5333, 0.567, 0.6773, 0.2243], [0.2031, 0.6772, 0.3541, 0.4463, 0.3567, 0.2751, 0.5221, 0.562, 0.3772, 0.4035, 0.4813, 0.4223, 0.2143, 0.3193, 0.219, 0.4352, 0.3542, 0.372, 0.5872, 0.3744, 0.4497, 0.5063, 0.6271, 0.2305, 0.3975, 0.3024, 0.2248, 0.6265, 0.3452, 0.5708, 0.3697, 0.6104, 0.4833, 0.2408, 0.5452, 0.6395, 0.5219, 0.4988, 0.2355, 0.2247], [0.4961, 0.6665, 0.4141, 0.6764, 0.3675, 0.3843, 0.6183, 0.3089, 0.2959, 0.2756, 0.5606, 0.2856, 0.5739, 0.3335, 0.2177, 0.6224, 0.6884, 0.5159, 0.2048, 0.5406, 0.4654, 0.6668, 0.5538, 0.3504, 0.6389, 0.6579, 0.4002, 0.6006, 0.2699, 0.5985, 0.5161, 0.3339, 0.6071, 0.5474, 0.2234, 0.3273, 0.2989, 0.2056, 0.3961, 0.3005], [0.623, 0.5573, 0.527, 0.3068, 0.5167, 0.2983, 0.4464, 0.4034, 0.2365, 0.2177, 0.6485, 0.3557, 0.2206, 0.377, 0.5833, 0.5195, 0.3589, 0.4815, 0.603, 0.6768, 0.3522, 0.4148, 0.6009, 0.2259, 0.6293, 0.5314, 0.4669, 0.4281, 0.342, 0.4959, 0.2864, 0.3274, 0.6202, 0.5118, 0.4613, 0.2668, 0.208, 0.3133, 0.2068, 0.5718], [0.6071, 0.2279, 0.6614, 0.6658, 0.4917, 0.6387, 0.5969, 0.3426, 0.2758, 0.362, 0.6542, 0.3549, 0.6542, 0.2983, 0.3842, 0.547, 0.3114, 0.476, 0.2676, 0.6653, 0.4872, 0.4667, 0.3943, 0.2381, 0.4616, 0.5421, 0.3111, 0.3475, 0.2982, 0.6364, 0.3869, 0.6481, 0.2499, 0.4809, 0.4412, 0.4791, 0.599, 0.273, 0.3165, 0.3029], [0.4563, 0.4311, 0.616, 0.5262, 0.359, 0.4791, 0.6061, 0.4696, 0.5292, 0.2449, 0.5452, 0.6531, 0.4426, 0.3298, 0.6685, 0.4215, 0.5561, 0.2753, 0.5639, 0.5207, 0.6348, 0.3572, 0.4187, 0.4344, 0.249, 0.2556, 0.6995, 0.3528, 0.2733, 0.4532, 0.5484, 0.2911, 0.6057, 0.422, 0.285, 0.2082, 0.3377, 0.4612, 0.6959, 0.2907], [0.6714, 0.4198, 0.2589, 0.3285, 0.6794, 0.4753, 0.2887, 0.6637, 0.2375, 0.4021, 0.4585, 0.4987, 0.624, 0.6084, 0.4081, 0.2472, 0.3725, 0.279, 0.2201, 0.2341, 0.4086, 0.6884, 0.6538, 0.2816, 0.4185, 0.2231, 0.317, 0.4699, 0.6659, 0.3979, 0.6746, 0.633, 0.5661, 0.3872, 0.3599, 0.2099, 0.6913, 0.2631, 0.2885, 0.5459], [0.5385, 0.2542, 0.4824, 0.4558, 0.6942, 0.5535, 0.4134, 0.5804, 0.4714, 0.4926, 0.5834, 0.6039, 0.314, 0.5264, 0.2092, 0.3428, 0.2601, 0.6074, 0.5062, 0.3131, 0.51, 0.3808, 0.2356, 0.3736, 0.3411, 0.5557, 0.2535, 0.4468, 0.547, 0.503, 0.3477, 0.6354, 0.4489, 0.548, 0.4237, 0.2603, 0.2417, 0.2762, 0.574, 0.2392], [0.3377, 0.2357, 0.4911, 0.2942, 0.2022, 0.4409, 0.4984, 0.5357, 0.6875, 0.494, 0.4378, 0.3228, 0.3153, 0.3057, 0.6034, 0.6924, 0.3363, 0.3705, 0.6881, 0.6862, 0.5989, 0.5466, 0.5412, 0.2609, 0.2087, 0.2753, 0.3354, 0.4099, 0.6762, 0.5734, 0.4525, 0.4183, 0.5304, 0.6695, 0.5246, 0.6429, 0.2536, 0.344, 0.6748, 0.4581], [0.4425, 0.2089, 0.3645, 0.5666, 0.2561, 0.5215, 0.5567, 0.4614, 0.4079, 0.3157, 0.6885, 0.5571, 0.4208, 0.2272, 0.2118, 0.6678, 0.268, 0.4788, 0.3883, 0.2602, 0.5608, 0.4144, 0.2939, 0.5842, 0.4172, 0.2819, 0.6748, 0.3784, 0.3321, 0.3935, 0.2761, 0.2104, 0.2645, 0.2812, 0.439, 0.2215, 0.3042, 0.6604, 0.2102, 0.4306], [0.5675, 0.3692, 0.4403, 0.5602, 0.3099, 0.5505, 0.333, 0.5543, 0.2848, 0.345, 0.5491, 0.2944, 0.4809, 0.4364, 0.523, 0.3093, 0.4468, 0.4953, 0.4088, 0.254, 0.4283, 0.4117, 0.6689, 0.4058, 0.5221, 0.5645, 0.3753, 0.6554, 0.2802, 0.666, 0.355, 0.4214, 0.2715, 0.6007, 0.2751, 0.6399, 0.6923, 0.4181, 0.5381, 0.6672], [0.3512, 0.6232, 0.3178, 0.295, 0.6644, 0.2428, 0.6466, 0.6308, 0.2103, 0.2719, 0.4195, 0.3737, 0.3983, 0.3992, 0.5235, 0.3096, 0.6464, 0.3011, 0.2137, 0.2073, 0.3174, 0.2169, 0.6978, 0.5989, 0.4692, 0.5106, 0.5472, 0.5317, 0.6825, 0.6516, 0.4725, 0.6487, 0.2973, 0.3233, 0.686, 0.2972, 0.3519, 0.5342, 0.5726, 0.4731], [0.5337, 0.6261, 0.3952, 0.2258, 0.6914, 0.6615, 0.384, 0.4823, 0.5377, 0.2993, 0.3242, 0.3746, 0.6402, 0.3123, 0.4906, 0.5278, 0.6696, 0.3649, 0.3922, 0.4867, 0.5862, 0.268, 0.3055, 0.6353, 0.4328, 0.2563, 0.6704, 0.3609, 0.2515, 0.5008, 0.2397, 0.3517, 0.6557, 0.5399, 0.6424, 0.3866, 0.6626, 0.399, 0.2706, 0.3455], [0.5541, 0.4095, 0.2555, 0.3329, 0.6644, 0.4622, 0.4655, 0.5687, 0.389, 0.2633, 0.4248, 0.4407, 0.3863, 0.6395, 0.4645, 0.5696, 0.2521, 0.6556, 0.3617, 0.5354, 0.2693, 0.3653, 0.486, 0.5322, 0.2941, 0.2227, 0.5492, 0.5796, 0.24, 0.3118, 0.6108, 0.4591, 0.3088, 0.4066, 0.6474, 0.522, 0.2542, 0.515, 0.6554, 0.5849], [0.637, 0.5885, 0.2948, 0.6773, 0.646, 0.309, 0.4, 0.2691, 0.4188, 0.5795, 0.5059, 0.4861, 0.2305, 0.6954, 0.5581, 0.6056, 0.6726, 0.3882, 0.432, 0.6022, 0.6215, 0.4682, 0.5972, 0.2823, 0.6057, 0.6918, 0.6858, 0.3262, 0.3641, 0.682, 0.3952, 0.4792, 0.3445, 0.2253, 0.6745, 0.2136, 0.5829, 0.2557, 0.2412, 0.5815], [0.4997, 0.2374, 0.6996, 0.5141, 0.6012, 0.4674, 0.5523, 0.4118, 0.4465, 0.4206, 0.6185, 0.4627, 0.3322, 0.2837, 0.5167, 0.4838, 0.2114, 0.6778, 0.3209, 0.5401, 0.3442, 0.4026, 0.3192, 0.2041, 0.5354, 0.4098, 0.5289, 0.5726, 0.3917, 0.3264, 0.3219, 0.5996, 0.2924, 0.3806, 0.6513, 0.6558, 0.3582, 0.2638, 0.5341, 0.3337], [0.3238, 0.2082, 0.6907, 0.5679, 0.4778, 0.3514, 0.4564, 0.6739, 0.2991, 0.3046, 0.5455, 0.5546, 0.6214, 0.5049, 0.4734, 0.2394, 0.2784, 0.2949, 0.4672, 0.3089, 0.4547, 0.3427, 0.2548, 0.5122, 0.2214, 0.4802, 0.5362, 0.2116, 0.4988, 0.3551, 0.6721, 0.5515, 0.4075, 0.3245, 0.5588, 0.6225, 0.4548, 0.5215, 0.4611, 0.4424], [0.4733, 0.3033, 0.6766, 0.3818, 0.6604, 0.6892, 0.6962, 0.2139, 0.5019, 0.5583, 0.6041, 0.2152, 0.3705, 0.4965, 0.2485, 0.2372, 0.3891, 0.6803, 0.6917, 0.5465, 0.5345, 0.5751, 0.5039, 0.3436, 0.5517, 0.6984, 0.6118, 0.4859, 0.4096, 0.264, 0.3576, 0.5375, 0.6619, 0.6816, 0.3778, 0.4618, 0.4531, 0.3372, 0.3264, 0.2489], [0.5915, 0.5627, 0.6395, 0.6723, 0.3227, 0.2526, 0.3693, 0.5573, 0.5645, 0.3045, 0.4398, 0.5506, 0.5189, 0.4055, 0.5519, 0.5052, 0.5557, 0.2394, 0.4562, 0.3637, 0.5301, 0.4824, 0.4105, 0.6003, 0.4656, 0.32, 0.4026, 0.5973, 0.3222, 0.483, 0.2099, 0.4878, 0.2541, 0.5067, 0.3259, 0.4146, 0.2224, 0.6386, 0.3778, 0.2918], [0.4603, 0.6242, 0.2969, 0.5767, 0.2433, 0.6424, 0.5021, 0.6034, 0.2313, 0.3488, 0.2506, 0.5561, 0.5309, 0.2576, 0.2679, 0.5084, 0.4303, 0.4556, 0.3863, 0.2906, 0.6362, 0.6145, 0.6211, 0.232, 0.2657, 0.479, 0.4627, 0.2372, 0.5237, 0.3535, 0.5018, 0.3499, 0.2139, 0.3722, 0.6741, 0.2874, 0.401, 0.6491, 0.6672, 0.6225], [0.2579, 0.3084, 0.4842, 0.5886, 0.6458, 0.6544, 0.5848, 0.4445, 0.2553, 0.5207, 0.2465, 0.3116, 0.5869, 0.5311, 0.311, 0.6748, 0.201, 0.2532, 0.281, 0.6093, 0.2245, 0.4055, 0.6997, 0.5688, 0.3324, 0.6838, 0.5908, 0.639, 0.2369, 0.3921, 0.2547, 0.4097, 0.5679, 0.3604, 0.6842, 0.6963, 0.3174, 0.4582, 0.5574, 0.2864], [0.6814, 0.6453, 0.6698, 0.4296, 0.6947, 0.6213, 0.6056, 0.6584, 0.6143, 0.5315, 0.3291, 0.3999, 0.2775, 0.4805, 0.5876, 0.2304, 0.6599, 0.5575, 0.5758, 0.4103, 0.3842, 0.2855, 0.4144, 0.4503, 0.5144, 0.4994, 0.4095, 0.2693, 0.2756, 0.6187, 0.609, 0.679, 0.509, 0.6316, 0.6156, 0.6202, 0.5172, 0.3684, 0.4418, 0.5049], [0.5352, 0.2697, 0.5303, 0.2273, 0.2205, 0.3013, 0.6738, 0.5062, 0.4203, 0.3533, 0.4264, 0.2385, 0.3701, 0.3235, 0.4936, 0.2911, 0.3025, 0.3684, 0.3657, 0.6245, 0.6659, 0.589, 0.5118, 0.5999, 0.5564, 0.2996, 0.4038, 0.2937, 0.4352, 0.5263, 0.6938, 0.5834, 0.6717, 0.2718, 0.3127, 0.6625, 0.6312, 0.3892, 0.6257, 0.2312], [0.399, 0.3426, 0.4748, 0.5953, 0.6572, 0.3756, 0.4099, 0.2649, 0.3138, 0.2614, 0.6851, 0.4642, 0.4326, 0.4512, 0.5565, 0.4833, 0.5254, 0.6608, 0.5602, 0.3462, 0.4869, 0.4225, 0.4952, 0.6003, 0.4564, 0.3524, 0.6372, 0.3418, 0.5458, 0.4812, 0.4951, 0.2162, 0.6692, 0.4519, 0.3251, 0.6155, 0.5171, 0.3501, 0.2606, 0.4342], [0.2423, 0.4747, 0.5811, 0.6779, 0.3432, 0.3479, 0.3717, 0.4456, 0.464, 0.3682, 0.2308, 0.2295, 0.5079, 0.5933, 0.5122, 0.5807, 0.4056, 0.5238, 0.2973, 0.386, 0.502, 0.2145, 0.3661, 0.6792, 0.3608, 0.2518, 0.6064, 0.4945, 0.2792, 0.6372, 0.6213, 0.224, 0.3972, 0.4742, 0.3235, 0.5882, 0.3428, 0.2618, 0.311, 0.4977], [0.5304, 0.4624, 0.409, 0.6259, 0.6463, 0.6508, 0.6801, 0.2226, 0.5802, 0.309, 0.352, 0.2516, 0.6447, 0.5331, 0.3106, 0.5627, 0.5052, 0.6391, 0.2362, 0.2771, 0.3278, 0.4115, 0.4582, 0.5144, 0.4704, 0.255, 0.3694, 0.5841, 0.3677, 0.2605, 0.2194, 0.6795, 0.4666, 0.3463, 0.305, 0.3096, 0.4342, 0.4246, 0.2775, 0.258], [0.4717, 0.3735, 0.2375, 0.6152, 0.4628, 0.5252, 0.3308, 0.2123, 0.3443, 0.21, 0.3588, 0.6021, 0.3147, 0.6021, 0.6028, 0.5234, 0.411, 0.6195, 0.5352, 0.5957, 0.3237, 0.5426, 0.4491, 0.3868, 0.5593, 0.4719, 0.4769, 0.4672, 0.4361, 0.4474, 0.3076, 0.5191, 0.6144, 0.4506, 0.5849, 0.6707, 0.2933, 0.3946, 0.5632, 0.4392], [0.49, 0.2648, 0.3688, 0.2661, 0.532, 0.5115, 0.3001, 0.494, 0.5958, 0.3085, 0.5109, 0.6832, 0.3582, 0.3803, 0.4652, 0.4852, 0.2795, 0.4479, 0.2914, 0.5974, 0.6339, 0.5597, 0.6521, 0.6966, 0.3182, 0.2453, 0.3862, 0.6161, 0.4931, 0.4768, 0.6625, 0.4982, 0.5269, 0.556, 0.6465, 0.4853, 0.6276, 0.5405, 0.6801, 0.3004], [0.3946, 0.2617, 0.4007, 0.2424, 0.2473, 0.6265, 0.625, 0.3649, 0.4967, 0.5718, 0.369, 0.6574, 0.6411, 0.5484, 0.6259, 0.6882, 0.5577, 0.6664, 0.4857, 0.4088, 0.2007, 0.3353, 0.4439, 0.6698, 0.6543, 0.463, 0.619, 0.3865, 0.3532, 0.3182, 0.5302, 0.255, 0.251, 0.5561, 0.2466, 0.6009, 0.6104, 0.5834, 0.4389, 0.6469], [0.656, 0.4671, 0.3131, 0.3835, 0.6085, 0.2729, 0.6859, 0.333, 0.6512, 0.458, 0.3529, 0.3012, 0.5494, 0.3176, 0.2809, 0.2977, 0.6421, 0.6701, 0.3147, 0.4727, 0.2785, 0.4373, 0.3514, 0.5924, 0.6531, 0.6146, 0.5833, 0.2051, 0.6892, 0.2615, 0.4603, 0.5296, 0.2492, 0.452, 0.5559, 0.5643, 0.409, 0.4472, 0.6601, 0.5018], [0.4041, 0.598, 0.3843, 0.5297, 0.5488, 0.5838, 0.4793, 0.3054, 0.3403, 0.3386, 0.6632, 0.2208, 0.3208, 0.4984, 0.664, 0.4826, 0.3288, 0.531, 0.4218, 0.4312, 0.2819, 0.6137, 0.6445, 0.4053, 0.3357, 0.3751, 0.4343, 0.3824, 0.2836, 0.338, 0.2057, 0.6179, 0.4749, 0.2422, 0.4806, 0.2982, 0.6587, 0.6198, 0.5494, 0.2155]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[2, 10], [4, 10], [0, 10], [1, 10], [3, 10], [2, 10], [3, 10], [1, 10], [2, 10], [0, 10], [2, 10], [2, 10], [3, 10], [4, 10], [5, 10], [5, 10], [2, 10], [2, 10], [1, 10], [5, 10], [4, 10], [5, 10], [5, 10], [3, 10], [1, 10], [2, 10], [3, 10], [0, 10], [1, 10], [2, 10]]</t>
+          <t>[[3, 10], [5, 10], [0, 10], [4, 10], [5, 10], [4, 10], [3, 10], [4, 10], [5, 10], [5, 10], [2, 10], [5, 10], [1, 10], [5, 10], [4, 10], [3, 10], [1, 10], [4, 10], [0, 10], [3, 10], [2, 10], [1, 10], [1, 10], [2, 10], [2, 10], [3, 10], [3, 10], [4, 10], [5, 10], [0, 10], [4, 10], [0, 10], [3, 10], [3, 10], [3, 10], [5, 10], [0, 10], [1, 10], [5, 10], [0, 10]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[4, 10, 2, 3, 7, 10, 1, 2, 6, 4, 2, 6, 8, 6, 10, 6, 6, 7, 10, 9, 2, 4, 8, 4, 7, 6, 10, 10, 1, 10]</t>
+          <t>[4, 2, 4, 10, 4, 7, 8, 7, 5, 3, 5, 8, 7, 7, 5, 2, 3, 1, 5, 4, 1, 8, 1, 6, 1, 3, 9, 6, 10, 2, 4, 5, 7, 1, 9, 10, 3, 5, 1, 1]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[[0.2407, 0.3292, 0.609, 0.5034, 0.2693, 0.2952, 0.3576, 0.4876, 0.2501, 0.6815, 0.3173, 0.4624, 0.5521, 0.6469, 0.5879, 0.3942, 0.5973, 0.6421, 0.3465, 0.4334, 0.5996, 0.5592, 0.5573, 0.5465, 0.5412, 0.3664, 0.3284, 0.2743, 0.6249, 0.5455], [0.4906, 0.4932, 0.3757, 0.2546, 0.3974, 0.4656, 0.3629, 0.5426, 0.3962, 0.4566, 0.2499, 0.2435, 0.5275, 0.6262, 0.3304, 0.6608, 0.5688, 0.2881, 0.3608, 0.2909, 0.3336, 0.4889, 0.6599, 0.5127, 0.5258, 0.2206, 0.6505, 0.6983, 0.3298, 0.2636], [0.246, 0.4201, 0.4762, 0.6498, 0.5625, 0.366, 0.2585, 0.5374, 0.3536, 0.6861, 0.6066, 0.4542, 0.2753, 0.6862, 0.4929, 0.6582, 0.2121, 0.2024, 0.4807, 0.2199, 0.5916, 0.4928, 0.606, 0.6947, 0.5747, 0.6335, 0.5733, 0.3026, 0.2084, 0.2677], [0.6102, 0.3009, 0.3843, 0.2093, 0.3957, 0.6129, 0.446, 0.204, 0.487, 0.3948, 0.6985, 0.4707, 0.3647, 0.2414, 0.3766, 0.3554, 0.6313, 0.6462, 0.5259, 0.2842, 0.4935, 0.6613, 0.3435, 0.3868, 0.6313, 0.2499, 0.4602, 0.5364, 0.4623, 0.2136], [0.3243, 0.2025, 0.6951, 0.484, 0.2192, 0.3428, 0.6169, 0.4728, 0.247, 0.321, 0.3788, 0.6218, 0.3325, 0.3681, 0.5251, 0.6124, 0.3784, 0.4529, 0.6972, 0.2251, 0.4633, 0.2481, 0.292, 0.2883, 0.3569, 0.2163, 0.345, 0.5783, 0.6611, 0.4872], [0.2095, 0.6847, 0.6315, 0.4902, 0.3502, 0.2527, 0.5473, 0.6618, 0.2835, 0.4645, 0.6468, 0.2256, 0.4962, 0.2264, 0.4889, 0.2367, 0.6194, 0.4959, 0.3429, 0.4653, 0.3443, 0.3323, 0.2336, 0.6553, 0.4691, 0.3066, 0.6845, 0.3252, 0.2675, 0.6391], [0.4111, 0.3022, 0.254, 0.6215, 0.3635, 0.5552, 0.3246, 0.6973, 0.4767, 0.5991, 0.2605, 0.5211, 0.4179, 0.6395, 0.6767, 0.31, 0.6636, 0.6105, 0.2924, 0.6922, 0.4994, 0.2585, 0.4691, 0.2057, 0.3279, 0.5358, 0.5196, 0.4847, 0.6427, 0.3906], [0.6408, 0.358, 0.5975, 0.608, 0.3113, 0.2042, 0.4017, 0.5826, 0.5784, 0.4978, 0.2569, 0.6019, 0.2966, 0.5199, 0.4646, 0.4, 0.5362, 0.357, 0.3427, 0.5473, 0.3135, 0.6524, 0.3043, 0.43, 0.5346, 0.3763, 0.4498, 0.46, 0.3664, 0.3164], [0.5098, 0.4871, 0.6499, 0.5862, 0.2577, 0.6109, 0.6302, 0.6099, 0.6362, 0.2753, 0.3977, 0.3787, 0.6028, 0.2957, 0.6341, 0.4042, 0.2453, 0.4322, 0.4098, 0.2656, 0.6302, 0.5059, 0.272, 0.2634, 0.3359, 0.5204, 0.5035, 0.506, 0.4013, 0.3975], [0.389, 0.6505, 0.5872, 0.4325, 0.2316, 0.4567, 0.4509, 0.2797, 0.2058, 0.5424, 0.4267, 0.3498, 0.2414, 0.3622, 0.5089, 0.2713, 0.4603, 0.4823, 0.5655, 0.5026, 0.5375, 0.6793, 0.4329, 0.5631, 0.6163, 0.6846, 0.2436, 0.4635, 0.5866, 0.6396], [0.4288, 0.4937, 0.4935, 0.3565, 0.5371, 0.5122, 0.3466, 0.667, 0.3825, 0.5177, 0.6061, 0.6416, 0.2747, 0.5024, 0.594, 0.5408, 0.3768, 0.3373, 0.4863, 0.3193, 0.2719, 0.3014, 0.3716, 0.6282, 0.6115, 0.4705, 0.5625, 0.6107, 0.2375, 0.3859], [0.3334, 0.6098, 0.5642, 0.4161, 0.5104, 0.6987, 0.5408, 0.4441, 0.2319, 0.5306, 0.6412, 0.4921, 0.5761, 0.4943, 0.3531, 0.3931, 0.5359, 0.3108, 0.6261, 0.2653, 0.6531, 0.2623, 0.5267, 0.2905, 0.6997, 0.2506, 0.3537, 0.4211, 0.559, 0.5459], [0.5486, 0.3058, 0.3779, 0.5171, 0.3101, 0.2817, 0.4948, 0.6122, 0.2791, 0.5887, 0.3044, 0.5239, 0.3386, 0.329, 0.5906, 0.2692, 0.3808, 0.6488, 0.5713, 0.6311, 0.2219, 0.5633, 0.3256, 0.3132, 0.4243, 0.4806, 0.6382, 0.5093, 0.3085, 0.4843], [0.3995, 0.3749, 0.5492, 0.4471, 0.2577, 0.4706, 0.5533, 0.2999, 0.4434, 0.3944, 0.4309, 0.228, 0.5025, 0.5461, 0.4535, 0.4828, 0.6252, 0.6379, 0.3438, 0.2866, 0.2426, 0.2932, 0.6204, 0.6431, 0.4166, 0.2135, 0.3796, 0.4317, 0.466, 0.39], [0.2245, 0.4858, 0.4122, 0.466, 0.4299, 0.511, 0.4445, 0.3825, 0.4922, 0.3372, 0.4285, 0.5062, 0.6799, 0.3072, 0.4873, 0.6668, 0.4872, 0.6125, 0.5426, 0.3395, 0.281, 0.322, 0.3518, 0.6892, 0.3335, 0.3171, 0.2688, 0.6572, 0.2808, 0.3343], [0.3769, 0.4978, 0.6163, 0.2215, 0.435, 0.2243, 0.3108, 0.3118, 0.3895, 0.6392, 0.6365, 0.3225, 0.4356, 0.3499, 0.4803, 0.5551, 0.2649, 0.2521, 0.2027, 0.5691, 0.2226, 0.3184, 0.3616, 0.6613, 0.5981, 0.6669, 0.5641, 0.4917, 0.3569, 0.3083], [0.4703, 0.6196, 0.5497, 0.5271, 0.233, 0.5768, 0.569, 0.2114, 0.4858, 0.5786, 0.4833, 0.4528, 0.2195, 0.6705, 0.574, 0.45, 0.2883, 0.6184, 0.5663, 0.2405, 0.2493, 0.3376, 0.3518, 0.4701, 0.2206, 0.2902, 0.6954, 0.4307, 0.2866, 0.4838], [0.3986, 0.6027, 0.6432, 0.6404, 0.5306, 0.5609, 0.219, 0.5402, 0.3085, 0.636, 0.3668, 0.2714, 0.4771, 0.3887, 0.5928, 0.449, 0.2302, 0.5627, 0.6096, 0.22, 0.2624, 0.2428, 0.2086, 0.4484, 0.5958, 0.3287, 0.6917, 0.3297, 0.4031, 0.4907], [0.4406, 0.3306, 0.2082, 0.6305, 0.466, 0.5855, 0.4881, 0.3922, 0.2476, 0.5723, 0.5713, 0.4758, 0.4643, 0.213, 0.231, 0.4248, 0.2406, 0.5937, 0.5095, 0.635, 0.5925, 0.474, 0.5839, 0.2293, 0.5756, 0.533, 0.588, 0.5537, 0.524, 0.4598], [0.4618, 0.6958, 0.5279, 0.4461, 0.4856, 0.2457, 0.2867, 0.4717, 0.6141, 0.2751, 0.6677, 0.314, 0.2462, 0.6894, 0.5987, 0.608, 0.6839, 0.2734, 0.2272, 0.5453, 0.3227, 0.4941, 0.3327, 0.6957, 0.6562, 0.299, 0.5995, 0.5987, 0.604, 0.2722], [0.4046, 0.5679, 0.6156, 0.328, 0.6066, 0.5455, 0.2427, 0.6634, 0.3105, 0.3469, 0.3917, 0.3727, 0.3923, 0.2808, 0.2436, 0.5462, 0.292, 0.3608, 0.3165, 0.3597, 0.6303, 0.4525, 0.5408, 0.3752, 0.3343, 0.6813, 0.3247, 0.2839, 0.2232, 0.4139], [0.2685, 0.3137, 0.2702, 0.4354, 0.3953, 0.6277, 0.4328, 0.6437, 0.6532, 0.2913, 0.3674, 0.2959, 0.4356, 0.6374, 0.2575, 0.2819, 0.4694, 0.5519, 0.4763, 0.6374, 0.6874, 0.5224, 0.2616, 0.5087, 0.4551, 0.3967, 0.2769, 0.62, 0.3192, 0.4226], [0.3, 0.2108, 0.3644, 0.2069, 0.3584, 0.4227, 0.2624, 0.3913, 0.3744, 0.223, 0.4014, 0.2641, 0.4304, 0.6322, 0.5635, 0.6308, 0.2229, 0.247, 0.2347, 0.5345, 0.4167, 0.5794, 0.6288, 0.3277, 0.6368, 0.5784, 0.3999, 0.2086, 0.2643, 0.4053], [0.6917, 0.4917, 0.5948, 0.6905, 0.4919, 0.495, 0.2007, 0.2863, 0.3325, 0.2248, 0.4719, 0.5659, 0.2294, 0.4708, 0.2446, 0.5151, 0.496, 0.2984, 0.4021, 0.3801, 0.4719, 0.6792, 0.6592, 0.2523, 0.4342, 0.6143, 0.287, 0.3581, 0.4917, 0.3095], [0.467, 0.5583, 0.2066, 0.3969, 0.6918, 0.3298, 0.553, 0.2081, 0.4006, 0.5358, 0.6038, 0.3525, 0.4391, 0.2596, 0.2893, 0.4232, 0.219, 0.2397, 0.258, 0.3453, 0.3134, 0.2156, 0.5597, 0.4674, 0.4618, 0.6625, 0.3653, 0.5501, 0.3992, 0.3572], [0.3269, 0.2145, 0.4256, 0.623, 0.2667, 0.4558, 0.429, 0.524, 0.5844, 0.3845, 0.6249, 0.2147, 0.5902, 0.4812, 0.4291, 0.6875, 0.2416, 0.4764, 0.6777, 0.2181, 0.355, 0.6887, 0.5261, 0.4094, 0.2503, 0.2559, 0.4955, 0.5726, 0.2552, 0.3437], [0.2499, 0.6861, 0.5738, 0.2759, 0.4869, 0.5756, 0.37, 0.2167, 0.4362, 0.3133, 0.5843, 0.3956, 0.4248, 0.5845, 0.5622, 0.5088, 0.5645, 0.5167, 0.3386, 0.2109, 0.3616, 0.6412, 0.4524, 0.2868, 0.3468, 0.3016, 0.5498, 0.3135, 0.5034, 0.3517], [0.5664, 0.3448, 0.5592, 0.6295, 0.415, 0.3772, 0.2006, 0.3046, 0.5448, 0.6269, 0.2964, 0.4622, 0.4282, 0.5445, 0.6774, 0.6221, 0.2085, 0.5931, 0.2053, 0.5738, 0.2281, 0.3946, 0.6531, 0.2865, 0.3027, 0.46, 0.2692, 0.3796, 0.4228, 0.6407], [0.6938, 0.3978, 0.5976, 0.3115, 0.4779, 0.2413, 0.4571, 0.4385, 0.3269, 0.2566, 0.2566, 0.2093, 0.6758, 0.5867, 0.3352, 0.4235, 0.4483, 0.609, 0.3671, 0.5402, 0.252, 0.5265, 0.4735, 0.3352, 0.5076, 0.2645, 0.5149, 0.5803, 0.3197, 0.6009], [0.2822, 0.4468, 0.6987, 0.3609, 0.4692, 0.5368, 0.6773, 0.4296, 0.6013, 0.6308, 0.4688, 0.2968, 0.39, 0.6209, 0.4924, 0.4433, 0.4449, 0.2038, 0.6297, 0.5863, 0.5373, 0.275, 0.3609, 0.5229, 0.4461, 0.5524, 0.5263, 0.4437, 0.2811, 0.2508]]</t>
+          <t>[[0.2395, 0.4975, 0.4061, 0.4587, 0.3753, 0.2494, 0.2734, 0.5818, 0.6109, 0.4452, 0.5969, 0.2869, 0.4897, 0.5499, 0.3978, 0.2121, 0.5359, 0.2501, 0.2807, 0.2472, 0.537, 0.6736, 0.5453, 0.4447, 0.4906, 0.2889, 0.6487, 0.4826, 0.6906, 0.2853, 0.3215, 0.6322, 0.6466, 0.696, 0.2996, 0.2564, 0.4001, 0.5428, 0.5562, 0.6189], [0.6321, 0.3558, 0.6762, 0.6463, 0.212, 0.4977, 0.6035, 0.4232, 0.6247, 0.3208, 0.6148, 0.6398, 0.4112, 0.4499, 0.3079, 0.3532, 0.6447, 0.3107, 0.4776, 0.5692, 0.6247, 0.366, 0.4066, 0.5903, 0.2971, 0.4286, 0.4812, 0.2985, 0.3836, 0.5628, 0.3667, 0.4365, 0.5819, 0.5025, 0.2093, 0.6099, 0.5975, 0.4665, 0.656, 0.3631], [0.244, 0.4384, 0.6344, 0.3138, 0.5483, 0.5268, 0.2263, 0.5425, 0.4697, 0.503, 0.3921, 0.5332, 0.5402, 0.4357, 0.466, 0.6271, 0.283, 0.5175, 0.6034, 0.6551, 0.4095, 0.3623, 0.6799, 0.4691, 0.3293, 0.2392, 0.631, 0.5741, 0.36, 0.5629, 0.307, 0.3318, 0.2321, 0.4338, 0.3698, 0.6336, 0.4197, 0.2023, 0.6421, 0.3863], [0.4449, 0.6228, 0.5596, 0.2165, 0.3768, 0.6702, 0.4843, 0.5742, 0.5345, 0.3491, 0.2807, 0.4089, 0.2059, 0.6892, 0.3786, 0.4089, 0.3851, 0.3292, 0.4632, 0.4212, 0.3491, 0.426, 0.6698, 0.3647, 0.555, 0.6677, 0.4698, 0.5556, 0.5475, 0.2299, 0.5484, 0.2973, 0.4989, 0.6123, 0.4606, 0.6394, 0.5867, 0.3251, 0.5339, 0.3706], [0.6459, 0.3381, 0.4524, 0.4694, 0.2943, 0.3535, 0.2921, 0.2458, 0.69, 0.289, 0.6389, 0.2571, 0.3738, 0.5321, 0.63, 0.5381, 0.4733, 0.4526, 0.4539, 0.6218, 0.2818, 0.4848, 0.6596, 0.574, 0.3633, 0.3474, 0.329, 0.5282, 0.2061, 0.6587, 0.5718, 0.4677, 0.5564, 0.2144, 0.3652, 0.585, 0.3993, 0.5342, 0.6263, 0.6941], [0.5119, 0.2196, 0.3952, 0.2271, 0.285, 0.4719, 0.6796, 0.4243, 0.2129, 0.3434, 0.2991, 0.3156, 0.2359, 0.3775, 0.5069, 0.2215, 0.4607, 0.2186, 0.4871, 0.5945, 0.4974, 0.3117, 0.3086, 0.6955, 0.2443, 0.2499, 0.2626, 0.3185, 0.5074, 0.2892, 0.5112, 0.5038, 0.3723, 0.5387, 0.2043, 0.2262, 0.5614, 0.5802, 0.6921, 0.3234], [0.3662, 0.6252, 0.4546, 0.5265, 0.6373, 0.4751, 0.3416, 0.5748, 0.5469, 0.3599, 0.4317, 0.4737, 0.4553, 0.5297, 0.4451, 0.5931, 0.3756, 0.4807, 0.3461, 0.5757, 0.2498, 0.6148, 0.3564, 0.5011, 0.4822, 0.3105, 0.4473, 0.3527, 0.3802, 0.6685, 0.4969, 0.2904, 0.2641, 0.5694, 0.4919, 0.3664, 0.269, 0.2696, 0.3552, 0.5997], [0.499, 0.3487, 0.6186, 0.4779, 0.5705, 0.4507, 0.3409, 0.3077, 0.2508, 0.4595, 0.6242, 0.248, 0.2471, 0.6305, 0.54, 0.2696, 0.6038, 0.2498, 0.3807, 0.2777, 0.5437, 0.5923, 0.3556, 0.2155, 0.3741, 0.5785, 0.5132, 0.534, 0.6059, 0.5431, 0.6139, 0.2442, 0.4895, 0.6721, 0.3111, 0.3699, 0.2801, 0.2859, 0.5573, 0.5331], [0.6576, 0.5858, 0.5578, 0.5594, 0.333, 0.4169, 0.458, 0.6122, 0.6733, 0.3008, 0.6459, 0.6786, 0.5258, 0.6501, 0.5646, 0.6692, 0.3647, 0.3068, 0.3938, 0.5543, 0.6945, 0.3047, 0.672, 0.366, 0.2343, 0.5914, 0.5619, 0.2089, 0.4613, 0.3285, 0.5978, 0.2043, 0.5102, 0.5188, 0.4858, 0.2859, 0.5819, 0.4014, 0.4725, 0.4518], [0.2579, 0.3106, 0.5768, 0.4548, 0.64, 0.2287, 0.5135, 0.2072, 0.4367, 0.5005, 0.4511, 0.4964, 0.5637, 0.3674, 0.2692, 0.4645, 0.5389, 0.5658, 0.3501, 0.2792, 0.4888, 0.347, 0.6229, 0.5427, 0.2327, 0.4996, 0.6118, 0.2674, 0.2273, 0.5812, 0.2766, 0.2101, 0.4986, 0.6329, 0.5018, 0.3787, 0.321, 0.5184, 0.2383, 0.5086], [0.6554, 0.6072, 0.4023, 0.5522, 0.5531, 0.5282, 0.2037, 0.349, 0.4613, 0.5881, 0.5091, 0.394, 0.6611, 0.2872, 0.3091, 0.5124, 0.4865, 0.2181, 0.3126, 0.3316, 0.202, 0.4676, 0.3689, 0.4422, 0.5119, 0.6025, 0.5858, 0.6494, 0.4807, 0.287, 0.2839, 0.4905, 0.5842, 0.6192, 0.3911, 0.2271, 0.6756, 0.3061, 0.2896, 0.6839], [0.4343, 0.5069, 0.4871, 0.3473, 0.4402, 0.2571, 0.3964, 0.6456, 0.5177, 0.2828, 0.5732, 0.5803, 0.608, 0.5299, 0.3002, 0.4551, 0.4056, 0.4913, 0.6466, 0.4233, 0.5663, 0.3316, 0.4095, 0.4374, 0.5936, 0.3117, 0.5651, 0.5342, 0.6168, 0.5558, 0.4375, 0.3757, 0.2629, 0.3699, 0.2576, 0.5561, 0.3947, 0.2217, 0.2119, 0.2411], [0.3193, 0.5341, 0.4732, 0.4376, 0.2506, 0.327, 0.6099, 0.2325, 0.4206, 0.6078, 0.5741, 0.3656, 0.6277, 0.2454, 0.2983, 0.5862, 0.6851, 0.2059, 0.3569, 0.4137, 0.4928, 0.2962, 0.5902, 0.2643, 0.2713, 0.6517, 0.2796, 0.5378, 0.2356, 0.6371, 0.5503, 0.5524, 0.6398, 0.2392, 0.4227, 0.4416, 0.571, 0.2045, 0.5457, 0.5869], [0.2132, 0.266, 0.3722, 0.4271, 0.6324, 0.2045, 0.242, 0.2717, 0.3821, 0.4698, 0.2521, 0.3915, 0.6676, 0.6558, 0.4502, 0.4539, 0.473, 0.4731, 0.2885, 0.3152, 0.361, 0.6675, 0.2672, 0.4621, 0.3319, 0.5173, 0.4039, 0.5547, 0.5835, 0.2706, 0.2996, 0.4653, 0.4521, 0.4672, 0.5588, 0.2788, 0.5051, 0.432, 0.6516, 0.3417], [0.4235, 0.3273, 0.5722, 0.6623, 0.4892, 0.4402, 0.3072, 0.276, 0.6241, 0.2187, 0.4858, 0.4965, 0.3163, 0.6719, 0.2484, 0.4743, 0.4166, 0.3581, 0.2994, 0.2185, 0.3348, 0.3166, 0.241, 0.3738, 0.282, 0.3873, 0.6409, 0.2177, 0.2408, 0.3937, 0.2416, 0.6245, 0.3036, 0.3416, 0.6335, 0.469, 0.4404, 0.3232, 0.372, 0.2721], [0.3847, 0.3713, 0.2862, 0.47, 0.5993, 0.6808, 0.683, 0.4183, 0.2437, 0.2579, 0.5489, 0.6034, 0.5298, 0.3887, 0.5657, 0.4094, 0.6818, 0.3982, 0.6089, 0.591, 0.5166, 0.4719, 0.201, 0.3186, 0.6839, 0.3319, 0.5051, 0.6887, 0.6884, 0.4128, 0.5247, 0.5351, 0.2667, 0.2522, 0.4893, 0.341, 0.6745, 0.4949, 0.4589, 0.5937], [0.2639, 0.5156, 0.4964, 0.3381, 0.5386, 0.5285, 0.3269, 0.5046, 0.6142, 0.6328, 0.3707, 0.4284, 0.2904, 0.4907, 0.6368, 0.5907, 0.6274, 0.5718, 0.659, 0.6373, 0.3706, 0.5964, 0.3863, 0.4134, 0.5229, 0.2503, 0.5019, 0.4032, 0.6824, 0.4795, 0.5712, 0.62, 0.3533, 0.4007, 0.4035, 0.6396, 0.276, 0.3335, 0.3586, 0.2656], [0.4497, 0.2439, 0.6887, 0.5988, 0.377, 0.5357, 0.3286, 0.4124, 0.665, 0.2135, 0.5788, 0.3, 0.3524, 0.3898, 0.2842, 0.61, 0.5887, 0.623, 0.5839, 0.2378, 0.3012, 0.5087, 0.4875, 0.627, 0.3751, 0.5571, 0.2469, 0.2177, 0.2403, 0.2754, 0.2842, 0.6536, 0.3675, 0.465, 0.5458, 0.6302, 0.3562, 0.314, 0.2514, 0.3121], [0.56, 0.2929, 0.3621, 0.4359, 0.2813, 0.5477, 0.6044, 0.213, 0.5589, 0.579, 0.5379, 0.5277, 0.4186, 0.421, 0.5587, 0.3725, 0.4939, 0.5859, 0.493, 0.4044, 0.475, 0.5843, 0.3559, 0.4306, 0.3307, 0.4179, 0.618, 0.5721, 0.4878, 0.3362, 0.3854, 0.6557, 0.6636, 0.6611, 0.6857, 0.6429, 0.572, 0.6392, 0.6529, 0.3919], [0.6702, 0.6556, 0.5807, 0.669, 0.6689, 0.2786, 0.2656, 0.5177, 0.5432, 0.3557, 0.2213, 0.4284, 0.272, 0.6282, 0.2924, 0.6792, 0.605, 0.5096, 0.4793, 0.2173, 0.6389, 0.6335, 0.4528, 0.4636, 0.3581, 0.3308, 0.308, 0.3839, 0.384, 0.6921, 0.6257, 0.5863, 0.28, 0.4609, 0.6517, 0.5748, 0.5446, 0.2825, 0.6197, 0.6947], [0.3923, 0.3117, 0.6144, 0.4183, 0.6474, 0.5343, 0.2542, 0.4758, 0.2284, 0.5274, 0.204, 0.687, 0.2011, 0.5602, 0.2379, 0.301, 0.4259, 0.3183, 0.4281, 0.4594, 0.5822, 0.5696, 0.5089, 0.2901, 0.6553, 0.6335, 0.2413, 0.3089, 0.3298, 0.6292, 0.6251, 0.6874, 0.6631, 0.4972, 0.534, 0.2021, 0.412, 0.685, 0.5163, 0.487], [0.4611, 0.6231, 0.6884, 0.6514, 0.371, 0.3988, 0.2291, 0.3752, 0.2409, 0.5463, 0.4694, 0.6173, 0.5736, 0.3533, 0.3224, 0.5416, 0.4742, 0.208, 0.4419, 0.6034, 0.4018, 0.5593, 0.5094, 0.6954, 0.2516, 0.6591, 0.2645, 0.5406, 0.5394, 0.2497, 0.2704, 0.3011, 0.672, 0.5713, 0.4964, 0.2437, 0.2995, 0.3334, 0.2484, 0.2232], [0.5997, 0.4233, 0.216, 0.3258, 0.239, 0.3091, 0.5593, 0.4059, 0.6106, 0.5871, 0.6036, 0.6523, 0.2793, 0.4778, 0.3358, 0.558, 0.6612, 0.2709, 0.5829, 0.6465, 0.6913, 0.27, 0.3052, 0.3421, 0.3879, 0.6954, 0.3914, 0.2874, 0.6541, 0.511, 0.6557, 0.4547, 0.4829, 0.2729, 0.2333, 0.4131, 0.5388, 0.5212, 0.5688, 0.4141], [0.6211, 0.4565, 0.4009, 0.5268, 0.4456, 0.628, 0.5491, 0.3007, 0.3405, 0.4387, 0.4709, 0.2928, 0.5369, 0.3187, 0.6615, 0.6662, 0.6405, 0.571, 0.6091, 0.6986, 0.3358, 0.3318, 0.5056, 0.6756, 0.6588, 0.3757, 0.3832, 0.3837, 0.3845, 0.3408, 0.3517, 0.3069, 0.3074, 0.6372, 0.2284, 0.5831, 0.6752, 0.355, 0.3371, 0.6245], [0.4039, 0.3556, 0.3883, 0.2736, 0.3687, 0.5847, 0.2935, 0.3111, 0.6328, 0.4491, 0.318, 0.2258, 0.3806, 0.3177, 0.6594, 0.5678, 0.2645, 0.3195, 0.6815, 0.3225, 0.5178, 0.6586, 0.2813, 0.6565, 0.5434, 0.2777, 0.5978, 0.4514, 0.6632, 0.6792, 0.3473, 0.6215, 0.412, 0.4083, 0.2655, 0.6583, 0.5386, 0.6202, 0.3234, 0.5984], [0.2106, 0.514, 0.2211, 0.5749, 0.3484, 0.4958, 0.6776, 0.6421, 0.2005, 0.2161, 0.2105, 0.4904, 0.2208, 0.6642, 0.5268, 0.6567, 0.2539, 0.5255, 0.3725, 0.3071, 0.3356, 0.2226, 0.5818, 0.2256, 0.5668, 0.4087, 0.2815, 0.6483, 0.2688, 0.5163, 0.5997, 0.4939, 0.5372, 0.253, 0.6399, 0.3709, 0.6003, 0.3579, 0.498, 0.4424], [0.4932, 0.6484, 0.2908, 0.3721, 0.2842, 0.4317, 0.3004, 0.5678, 0.2023, 0.4176, 0.3391, 0.4308, 0.6937, 0.6514, 0.3106, 0.5854, 0.5654, 0.5152, 0.3022, 0.6299, 0.4545, 0.6945, 0.3118, 0.4115, 0.2702, 0.5439, 0.4211, 0.5056, 0.5139, 0.5391, 0.2136, 0.3308, 0.2592, 0.5494, 0.2436, 0.4914, 0.3649, 0.2265, 0.6967, 0.2059], [0.4177, 0.4789, 0.2362, 0.6313, 0.5346, 0.6465, 0.373, 0.2536, 0.2453, 0.4812, 0.2832, 0.5919, 0.3079, 0.5757, 0.3401, 0.3432, 0.593, 0.3792, 0.6943, 0.3441, 0.4274, 0.4551, 0.228, 0.6473, 0.2927, 0.3877, 0.5309, 0.2916, 0.5069, 0.631, 0.4744, 0.3031, 0.4469, 0.3477, 0.4076, 0.6989, 0.3276, 0.2652, 0.5743, 0.2732], [0.576, 0.5042, 0.4302, 0.4331, 0.5365, 0.2796, 0.2977, 0.2519, 0.522, 0.4714, 0.2457, 0.2203, 0.3096, 0.2442, 0.2192, 0.5527, 0.4058, 0.3229, 0.5884, 0.609, 0.4079, 0.2372, 0.4818, 0.4732, 0.5568, 0.2237, 0.4507, 0.2616, 0.4402, 0.4183, 0.3599, 0.5686, 0.2352, 0.2799, 0.4986, 0.2025, 0.542, 0.5112, 0.205, 0.6231], [0.2432, 0.6011, 0.3178, 0.4015, 0.4153, 0.5405, 0.4706, 0.4695, 0.4409, 0.5363, 0.4055, 0.3618, 0.3486, 0.5261, 0.3461, 0.6897, 0.5369, 0.4751, 0.3101, 0.3209, 0.6133, 0.6892, 0.5009, 0.4805, 0.6742, 0.3932, 0.6874, 0.2924, 0.5393, 0.568, 0.3312, 0.2234, 0.2112, 0.6382, 0.5636, 0.3252, 0.2057, 0.3954, 0.402, 0.3527], [0.3128, 0.6145, 0.3969, 0.3833, 0.6842, 0.254, 0.2122, 0.226, 0.6175, 0.3424, 0.3789, 0.4237, 0.5776, 0.56, 0.6227, 0.6355, 0.3572, 0.6103, 0.2564, 0.2768, 0.6767, 0.6722, 0.3845, 0.3698, 0.6105, 0.466, 0.235, 0.2361, 0.6312, 0.2752, 0.4123, 0.3667, 0.4776, 0.2471, 0.35, 0.2799, 0.3094, 0.6058, 0.5581, 0.4239], [0.2953, 0.5178, 0.2047, 0.5811, 0.2793, 0.2406, 0.3713, 0.4954, 0.3939, 0.3608, 0.3577, 0.6657, 0.3396, 0.6365, 0.4936, 0.3451, 0.6444, 0.5144, 0.6724, 0.464, 0.6174, 0.4811, 0.449, 0.2814, 0.3227, 0.4045, 0.3914, 0.3978, 0.2968, 0.6309, 0.421, 0.3614, 0.2704, 0.3565, 0.4378, 0.2314, 0.2404, 0.2699, 0.5133, 0.5179], [0.5341, 0.4872, 0.6182, 0.2994, 0.6152, 0.5532, 0.5505, 0.3803, 0.2974, 0.232, 0.6582, 0.3291, 0.3815, 0.3978, 0.5098, 0.316, 0.2483, 0.4714, 0.6897, 0.2987, 0.57, 0.2971, 0.4189, 0.2661, 0.436, 0.3094, 0.6727, 0.4099, 0.6919, 0.5734, 0.4075, 0.3798, 0.363, 0.5747, 0.3606, 0.4918, 0.5387, 0.6486, 0.5903, 0.5979], [0.583, 0.3716, 0.5114, 0.2426, 0.3905, 0.6931, 0.6135, 0.5524, 0.5491, 0.4103, 0.4559, 0.5437, 0.4, 0.4103, 0.558, 0.6147, 0.6033, 0.3586, 0.5587, 0.2184, 0.5389, 0.693, 0.6461, 0.2514, 0.2317, 0.3229, 0.6098, 0.2894, 0.3069, 0.2319, 0.4919, 0.2076, 0.3917, 0.397, 0.5856, 0.5084, 0.2973, 0.3666, 0.3949, 0.646], [0.4918, 0.444, 0.6194, 0.6896, 0.3914, 0.3183, 0.3276, 0.3359, 0.6571, 0.3957, 0.3565, 0.4807, 0.6749, 0.2152, 0.2499, 0.4559, 0.3801, 0.4526, 0.598, 0.6266, 0.2539, 0.5591, 0.5766, 0.4547, 0.3682, 0.3611, 0.5906, 0.4685, 0.2582, 0.4594, 0.4331, 0.6327, 0.6023, 0.4373, 0.6241, 0.3546, 0.4959, 0.4708, 0.6729, 0.5441], [0.5404, 0.2923, 0.2765, 0.5021, 0.5331, 0.2258, 0.6286, 0.2171, 0.2655, 0.41, 0.4191, 0.3985, 0.5585, 0.2429, 0.6801, 0.4769, 0.4437, 0.4564, 0.5973, 0.2738, 0.6388, 0.4117, 0.3377, 0.2523, 0.6984, 0.6827, 0.3683, 0.6997, 0.2977, 0.6097, 0.4492, 0.4552, 0.4752, 0.4821, 0.629, 0.4143, 0.4644, 0.2723, 0.2415, 0.2989], [0.3862, 0.4748, 0.6524, 0.5486, 0.3835, 0.4721, 0.255, 0.6101, 0.242, 0.4827, 0.5178, 0.6616, 0.2183, 0.2482, 0.4345, 0.6395, 0.2678, 0.3142, 0.6709, 0.3118, 0.5098, 0.4546, 0.3795, 0.3342, 0.3199, 0.4329, 0.3981, 0.2345, 0.374, 0.5516, 0.2427, 0.3879, 0.201, 0.5775, 0.3458, 0.28, 0.4412, 0.5354, 0.5749, 0.2918], [0.2146, 0.5438, 0.5449, 0.4039, 0.5617, 0.5929, 0.3062, 0.4524, 0.5725, 0.5052, 0.2886, 0.3768, 0.285, 0.5347, 0.699, 0.4641, 0.53, 0.3218, 0.4253, 0.5689, 0.3208, 0.2037, 0.4359, 0.5136, 0.295, 0.6028, 0.289, 0.5443, 0.3889, 0.2803, 0.2214, 0.313, 0.5726, 0.6029, 0.345, 0.3812, 0.6446, 0.3399, 0.4668, 0.2425], [0.5329, 0.2747, 0.2748, 0.397, 0.4516, 0.4268, 0.6045, 0.2038, 0.5737, 0.3768, 0.641, 0.5951, 0.6684, 0.5091, 0.5627, 0.3966, 0.5898, 0.4057, 0.2167, 0.6951, 0.6467, 0.4898, 0.5151, 0.3999, 0.4231, 0.4043, 0.5648, 0.2527, 0.4969, 0.6193, 0.5385, 0.5272, 0.2789, 0.2525, 0.6637, 0.3266, 0.6647, 0.3981, 0.3345, 0.6639], [0.2266, 0.2231, 0.4904, 0.3348, 0.3577, 0.3503, 0.5988, 0.6342, 0.2043, 0.3876, 0.3471, 0.2243, 0.41, 0.2932, 0.4057, 0.447, 0.5738, 0.4297, 0.4279, 0.4937, 0.5379, 0.6036, 0.6702, 0.5143, 0.539, 0.6744, 0.5595, 0.3157, 0.6175, 0.3855, 0.6106, 0.4846, 0.56, 0.3215, 0.6869, 0.6824, 0.533, 0.6357, 0.5428, 0.2996]]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[[4, 10], [2, 10], [5, 10], [2, 10], [1, 10], [2, 10], [4, 10], [2, 10], [3, 10], [3, 10], [0, 10], [5, 10], [1, 10], [2, 10], [4, 10], [5, 10], [0, 10], [5, 10], [0, 10], [1, 10], [1, 10], [4, 10], [3, 10], [2, 10], [2, 10], [1, 10], [3, 10], [3, 10], [0, 10], [3, 10]]</t>
+          <t>[[3, 10], [3, 10], [2, 10], [1, 10], [1, 10], [4, 10], [0, 10], [1, 10], [1, 10], [1, 10], [0, 10], [0, 10], [2, 10], [3, 10], [3, 10], [0, 10], [0, 10], [5, 10], [5, 10], [2, 10], [5, 10], [4, 10], [5, 10], [1, 10], [2, 10], [4, 10], [2, 10], [5, 10], [1, 10], [3, 10], [1, 10], [0, 10], [4, 10], [1, 10], [3, 10], [3, 10], [0, 10], [3, 10], [3, 10], [5, 10]]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[4, 8, 3, 8, 6, 2, 5, 8, 1, 3, 8, 10, 1, 6, 8, 8, 6, 2, 8, 9, 9, 3, 6, 6, 10, 4, 6, 8, 8, 4]</t>
+          <t>[2, 2, 2, 7, 5, 8, 4, 6, 9, 2, 5, 2, 7, 1, 4, 5, 4, 4, 5, 9, 5, 6, 4, 5, 9, 2, 2, 4, 2, 6, 2, 10, 3, 2, 7, 1, 5, 9, 6, 5]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[[0.2096, 0.6646, 0.6071, 0.4968, 0.2001, 0.4743, 0.3342, 0.4305, 0.2573, 0.4984, 0.217, 0.4033, 0.5478, 0.5143, 0.3998, 0.6275, 0.6386, 0.5698, 0.6707, 0.6628, 0.4846, 0.5561, 0.6232, 0.2348, 0.6525, 0.5556, 0.6549, 0.3138, 0.5177, 0.3972], [0.2576, 0.6945, 0.4239, 0.4058, 0.5106, 0.3159, 0.3387, 0.5203, 0.4904, 0.337, 0.3928, 0.418, 0.5502, 0.6463, 0.5432, 0.582, 0.3141, 0.6862, 0.4027, 0.6237, 0.519, 0.6809, 0.3619, 0.2412, 0.338, 0.4978, 0.4234, 0.6491, 0.4105, 0.3032], [0.3164, 0.5339, 0.3689, 0.6462, 0.6286, 0.4584, 0.6611, 0.4134, 0.3179, 0.2226, 0.3707, 0.4679, 0.4094, 0.5529, 0.2493, 0.6718, 0.6875, 0.5693, 0.483, 0.4454, 0.6597, 0.3423, 0.3044, 0.6542, 0.3416, 0.6665, 0.4984, 0.5191, 0.2717, 0.6054], [0.6374, 0.3671, 0.2953, 0.2575, 0.5225, 0.5016, 0.4124, 0.3817, 0.3571, 0.4628, 0.3586, 0.6348, 0.4159, 0.6338, 0.6742, 0.2986, 0.4895, 0.5105, 0.6129, 0.3934, 0.3773, 0.3788, 0.6028, 0.6521, 0.417, 0.3006, 0.5338, 0.6196, 0.34, 0.6217], [0.2107, 0.5789, 0.6652, 0.2047, 0.4222, 0.6386, 0.4632, 0.6165, 0.4103, 0.2331, 0.3488, 0.2232, 0.6676, 0.5551, 0.497, 0.3707, 0.6178, 0.2883, 0.5794, 0.681, 0.2987, 0.4611, 0.6044, 0.5762, 0.3382, 0.2119, 0.5603, 0.3993, 0.6676, 0.3215], [0.3841, 0.5128, 0.5657, 0.201, 0.3594, 0.2091, 0.5927, 0.384, 0.4931, 0.4347, 0.2241, 0.3055, 0.6811, 0.2255, 0.6786, 0.2756, 0.6236, 0.4068, 0.3384, 0.2431, 0.3271, 0.2241, 0.275, 0.4299, 0.4185, 0.3699, 0.6173, 0.3741, 0.6156, 0.3319], [0.5265, 0.3597, 0.5299, 0.4253, 0.4059, 0.4233, 0.5528, 0.4664, 0.2761, 0.3634, 0.6642, 0.464, 0.3977, 0.6664, 0.6233, 0.4444, 0.2418, 0.246, 0.4957, 0.5648, 0.342, 0.2723, 0.6327, 0.5817, 0.4647, 0.4895, 0.3845, 0.2396, 0.5539, 0.3313], [0.2232, 0.4652, 0.2396, 0.4957, 0.6539, 0.4001, 0.4437, 0.3069, 0.5734, 0.34, 0.5436, 0.4457, 0.3932, 0.6501, 0.3052, 0.5535, 0.4278, 0.549, 0.6305, 0.4469, 0.3888, 0.6879, 0.2698, 0.3513, 0.3612, 0.6344, 0.4611, 0.2105, 0.6467, 0.6919], [0.5644, 0.4377, 0.5956, 0.5156, 0.4556, 0.3725, 0.6417, 0.2951, 0.611, 0.5306, 0.5815, 0.218, 0.6542, 0.6014, 0.6399, 0.2005, 0.2003, 0.3976, 0.4991, 0.3264, 0.6823, 0.409, 0.4082, 0.3306, 0.2679, 0.5942, 0.6931, 0.582, 0.292, 0.3496], [0.622, 0.4102, 0.6948, 0.297, 0.3225, 0.5605, 0.4515, 0.5108, 0.2152, 0.3005, 0.443, 0.6832, 0.2315, 0.644, 0.2163, 0.646, 0.6266, 0.2081, 0.3507, 0.6402, 0.42, 0.6398, 0.2055, 0.4194, 0.6552, 0.3318, 0.5395, 0.2987, 0.2842, 0.2661], [0.6024, 0.4814, 0.4854, 0.2288, 0.4904, 0.4576, 0.3958, 0.6162, 0.2804, 0.2148, 0.2937, 0.262, 0.6502, 0.6392, 0.654, 0.6194, 0.492, 0.3925, 0.4828, 0.3784, 0.5914, 0.4382, 0.5829, 0.3521, 0.201, 0.4589, 0.4378, 0.6295, 0.5207, 0.3827], [0.441, 0.5445, 0.2623, 0.3043, 0.2207, 0.379, 0.6539, 0.4917, 0.2833, 0.2565, 0.3241, 0.6558, 0.5976, 0.211, 0.6271, 0.2417, 0.3779, 0.2976, 0.4698, 0.4193, 0.5653, 0.3764, 0.2815, 0.4932, 0.6857, 0.2953, 0.2331, 0.26, 0.3829, 0.3375], [0.4633, 0.4003, 0.5903, 0.3578, 0.5293, 0.6357, 0.264, 0.2244, 0.5483, 0.3596, 0.2982, 0.2854, 0.3934, 0.3199, 0.5473, 0.459, 0.392, 0.38, 0.6218, 0.3711, 0.5596, 0.3853, 0.2453, 0.3481, 0.4933, 0.5063, 0.2789, 0.2711, 0.2461, 0.5093], [0.6057, 0.291, 0.2899, 0.6902, 0.2587, 0.6687, 0.3018, 0.3833, 0.3124, 0.3254, 0.4572, 0.3563, 0.6476, 0.4529, 0.3541, 0.578, 0.664, 0.4342, 0.6095, 0.3246, 0.4895, 0.5562, 0.5059, 0.3122, 0.3261, 0.6891, 0.4035, 0.2516, 0.2396, 0.2828], [0.2352, 0.6052, 0.5336, 0.6146, 0.4465, 0.3838, 0.3238, 0.5036, 0.3114, 0.214, 0.3291, 0.5697, 0.3138, 0.5117, 0.3502, 0.4887, 0.241, 0.5909, 0.4921, 0.5104, 0.6848, 0.3342, 0.6587, 0.607, 0.6928, 0.2161, 0.4951, 0.4409, 0.2883, 0.4337], [0.4896, 0.6599, 0.3939, 0.3453, 0.352, 0.3759, 0.3094, 0.3422, 0.4397, 0.6075, 0.6529, 0.6125, 0.3284, 0.3226, 0.5292, 0.587, 0.5975, 0.3339, 0.3608, 0.6556, 0.308, 0.5994, 0.6311, 0.4584, 0.3403, 0.4786, 0.2572, 0.323, 0.3317, 0.6663], [0.6764, 0.6828, 0.5398, 0.4445, 0.5152, 0.5215, 0.58, 0.5392, 0.5262, 0.5233, 0.4959, 0.2095, 0.2336, 0.6551, 0.4025, 0.2372, 0.3943, 0.5156, 0.2854, 0.5689, 0.5268, 0.5563, 0.5592, 0.6274, 0.5536, 0.5082, 0.625, 0.397, 0.5432, 0.4387], [0.653, 0.419, 0.5457, 0.3893, 0.3189, 0.4062, 0.5091, 0.3572, 0.4165, 0.6064, 0.6502, 0.4055, 0.3096, 0.3104, 0.5719, 0.5744, 0.3007, 0.2203, 0.2036, 0.2548, 0.3022, 0.3708, 0.2597, 0.2499, 0.5195, 0.2724, 0.4491, 0.231, 0.4093, 0.5532], [0.6507, 0.2886, 0.2503, 0.2845, 0.3515, 0.6767, 0.6765, 0.4151, 0.449, 0.6567, 0.2192, 0.4242, 0.4793, 0.6246, 0.638, 0.4082, 0.6456, 0.5635, 0.6753, 0.2094, 0.2955, 0.6563, 0.5359, 0.3472, 0.2202, 0.4784, 0.4177, 0.5559, 0.2666, 0.545], [0.4407, 0.4888, 0.3099, 0.6488, 0.5488, 0.2515, 0.5957, 0.4208, 0.4351, 0.6496, 0.2322, 0.5335, 0.3769, 0.4392, 0.6196, 0.4343, 0.4654, 0.2977, 0.5538, 0.2638, 0.6624, 0.6907, 0.4785, 0.3904, 0.3571, 0.3073, 0.4905, 0.4342, 0.6236, 0.3276], [0.4941, 0.4771, 0.6246, 0.5448, 0.5255, 0.6055, 0.4584, 0.321, 0.2073, 0.5746, 0.4795, 0.5207, 0.5137, 0.4689, 0.5532, 0.298, 0.3675, 0.4336, 0.3537, 0.2475, 0.5595, 0.3557, 0.2325, 0.6578, 0.5965, 0.526, 0.4633, 0.6578, 0.3346, 0.5824], [0.5407, 0.4378, 0.3852, 0.4976, 0.5651, 0.5273, 0.6012, 0.22, 0.3467, 0.6441, 0.3632, 0.2183, 0.2423, 0.301, 0.2812, 0.6957, 0.4025, 0.6394, 0.4693, 0.4627, 0.3996, 0.6468, 0.3817, 0.3514, 0.2292, 0.4847, 0.544, 0.2114, 0.2983, 0.4742], [0.365, 0.6962, 0.2643, 0.4574, 0.3579, 0.4464, 0.2403, 0.4589, 0.3814, 0.6368, 0.4675, 0.3392, 0.3101, 0.6397, 0.35, 0.493, 0.5606, 0.4875, 0.6375, 0.6189, 0.2005, 0.5135, 0.2378, 0.2711, 0.5528, 0.6561, 0.4042, 0.5435, 0.2597, 0.39], [0.5293, 0.2824, 0.3776, 0.3725, 0.4743, 0.3058, 0.6325, 0.5531, 0.3569, 0.2361, 0.3, 0.5867, 0.5875, 0.6161, 0.3868, 0.3635, 0.3231, 0.452, 0.4421, 0.5844, 0.5436, 0.6319, 0.4123, 0.2791, 0.5421, 0.5429, 0.579, 0.5625, 0.6598, 0.5217], [0.6103, 0.3646, 0.2278, 0.2208, 0.3891, 0.4571, 0.5984, 0.6434, 0.5798, 0.6631, 0.3068, 0.4569, 0.4807, 0.3516, 0.2782, 0.6999, 0.3495, 0.4901, 0.4377, 0.5244, 0.5757, 0.4819, 0.2216, 0.3013, 0.3581, 0.2855, 0.2933, 0.2417, 0.6532, 0.6542], [0.685, 0.2995, 0.3224, 0.3813, 0.6373, 0.2502, 0.3915, 0.6621, 0.2395, 0.4077, 0.5989, 0.5926, 0.5749, 0.6718, 0.2317, 0.2371, 0.4278, 0.3921, 0.419, 0.6369, 0.5178, 0.5025, 0.206, 0.5754, 0.4062, 0.6276, 0.3106, 0.3885, 0.4217, 0.4087], [0.6, 0.3835, 0.4875, 0.2539, 0.6243, 0.2433, 0.6438, 0.5276, 0.5725, 0.2403, 0.3546, 0.6267, 0.257, 0.6105, 0.4954, 0.2692, 0.3541, 0.423, 0.5614, 0.2759, 0.6243, 0.4036, 0.3168, 0.4444, 0.5097, 0.4152, 0.557, 0.4627, 0.2298, 0.2629], [0.3966, 0.447, 0.4443, 0.4024, 0.6258, 0.5686, 0.3746, 0.2948, 0.2867, 0.3006, 0.4238, 0.2182, 0.5788, 0.3864, 0.6544, 0.5576, 0.23, 0.6345, 0.4831, 0.3625, 0.3808, 0.6377, 0.3031, 0.6191, 0.2054, 0.3842, 0.6808, 0.5228, 0.5817, 0.3744], [0.4272, 0.3302, 0.6632, 0.306, 0.514, 0.5262, 0.2516, 0.5681, 0.222, 0.6859, 0.5337, 0.4548, 0.5605, 0.3672, 0.4995, 0.4853, 0.2483, 0.4601, 0.5583, 0.4443, 0.4037, 0.401, 0.4, 0.4556, 0.6145, 0.6933, 0.4542, 0.4778, 0.6882, 0.5527], [0.6122, 0.3394, 0.3766, 0.4159, 0.6198, 0.5443, 0.4978, 0.3392, 0.6102, 0.5629, 0.3663, 0.4056, 0.2165, 0.2731, 0.4906, 0.5675, 0.4349, 0.6153, 0.3328, 0.4876, 0.2876, 0.6355, 0.5082, 0.5627, 0.2768, 0.4794, 0.5955, 0.3686, 0.6507, 0.4111]]</t>
+          <t>[[0.598, 0.4766, 0.4083, 0.5218, 0.6693, 0.2001, 0.4478, 0.4326, 0.2648, 0.2248, 0.517, 0.4165, 0.6068, 0.4054, 0.3944, 0.6633, 0.3192, 0.4959, 0.3159, 0.3015, 0.3819, 0.2349, 0.4502, 0.286, 0.5943, 0.2271, 0.4081, 0.6199, 0.689, 0.2582, 0.2055, 0.6365, 0.6018, 0.5724, 0.6784, 0.2871, 0.308, 0.6239, 0.5075, 0.3369], [0.5305, 0.3384, 0.6073, 0.4864, 0.2261, 0.6981, 0.6535, 0.6674, 0.4095, 0.3166, 0.6808, 0.3981, 0.397, 0.2051, 0.6747, 0.4417, 0.5817, 0.2326, 0.5221, 0.5993, 0.2343, 0.2405, 0.5597, 0.418, 0.2297, 0.2122, 0.539, 0.4922, 0.6615, 0.2136, 0.4286, 0.5585, 0.6944, 0.528, 0.6665, 0.6244, 0.3623, 0.6338, 0.3174, 0.2523], [0.5536, 0.2985, 0.4663, 0.2477, 0.3643, 0.2601, 0.4892, 0.4852, 0.3664, 0.261, 0.4701, 0.4766, 0.4398, 0.5778, 0.6129, 0.2892, 0.6828, 0.4934, 0.293, 0.6344, 0.2805, 0.5702, 0.6007, 0.5434, 0.3333, 0.6537, 0.3219, 0.4467, 0.3076, 0.3567, 0.5276, 0.3021, 0.6051, 0.3705, 0.4307, 0.2036, 0.2477, 0.3626, 0.2663, 0.6336], [0.2216, 0.5, 0.6051, 0.2143, 0.266, 0.372, 0.299, 0.3766, 0.6844, 0.2239, 0.6257, 0.3721, 0.2462, 0.6067, 0.208, 0.4638, 0.3194, 0.3383, 0.3538, 0.5301, 0.6502, 0.5614, 0.4346, 0.6618, 0.2989, 0.4432, 0.2818, 0.4761, 0.6787, 0.294, 0.3192, 0.3818, 0.3519, 0.4157, 0.4275, 0.2971, 0.2093, 0.2091, 0.3939, 0.4981], [0.3283, 0.2667, 0.6655, 0.2868, 0.2826, 0.4588, 0.642, 0.4229, 0.2603, 0.2722, 0.5402, 0.376, 0.2284, 0.3899, 0.2001, 0.6295, 0.6478, 0.5902, 0.262, 0.2492, 0.3731, 0.6428, 0.2937, 0.4034, 0.5453, 0.2239, 0.6509, 0.3488, 0.5082, 0.3395, 0.5312, 0.414, 0.5433, 0.6229, 0.2512, 0.6745, 0.4236, 0.3987, 0.4374, 0.6058], [0.3418, 0.5646, 0.5924, 0.6309, 0.423, 0.4785, 0.2208, 0.2858, 0.6115, 0.4745, 0.4819, 0.4034, 0.6021, 0.6525, 0.2653, 0.5174, 0.6755, 0.4167, 0.2073, 0.6714, 0.2068, 0.338, 0.5254, 0.2987, 0.2076, 0.6402, 0.3559, 0.5827, 0.6196, 0.6869, 0.3999, 0.4081, 0.3341, 0.2841, 0.4891, 0.3392, 0.456, 0.6427, 0.4892, 0.2956], [0.3371, 0.6695, 0.5328, 0.6665, 0.5656, 0.4572, 0.4761, 0.6615, 0.4588, 0.3564, 0.443, 0.6747, 0.5759, 0.2001, 0.3316, 0.5428, 0.5583, 0.3387, 0.5163, 0.4088, 0.5146, 0.5763, 0.6817, 0.6476, 0.6846, 0.618, 0.3296, 0.6552, 0.6768, 0.6181, 0.6714, 0.3797, 0.3618, 0.3065, 0.4353, 0.3267, 0.6719, 0.5568, 0.3191, 0.2671], [0.6888, 0.4801, 0.254, 0.6955, 0.649, 0.3106, 0.5862, 0.2771, 0.6907, 0.5301, 0.255, 0.6801, 0.6369, 0.5724, 0.5454, 0.447, 0.3708, 0.6403, 0.4759, 0.4667, 0.6057, 0.5392, 0.637, 0.3161, 0.3036, 0.525, 0.2335, 0.5754, 0.4182, 0.3194, 0.4246, 0.497, 0.2615, 0.6027, 0.3684, 0.4253, 0.4251, 0.5491, 0.6686, 0.4311], [0.6482, 0.6029, 0.6186, 0.3819, 0.2536, 0.6972, 0.2885, 0.2818, 0.4865, 0.3864, 0.3421, 0.2351, 0.2425, 0.5598, 0.4332, 0.3841, 0.6321, 0.4461, 0.4212, 0.3021, 0.428, 0.5771, 0.5793, 0.2806, 0.3582, 0.364, 0.4826, 0.4392, 0.222, 0.2281, 0.4545, 0.2597, 0.3456, 0.2937, 0.4082, 0.5508, 0.41, 0.3099, 0.5744, 0.653], [0.394, 0.4853, 0.5499, 0.431, 0.6702, 0.5651, 0.4781, 0.2246, 0.3621, 0.6361, 0.6614, 0.3231, 0.2439, 0.4164, 0.6783, 0.2601, 0.5293, 0.2709, 0.4706, 0.3469, 0.3566, 0.6284, 0.4041, 0.4313, 0.6235, 0.5971, 0.2132, 0.289, 0.4136, 0.2844, 0.3309, 0.671, 0.2576, 0.2133, 0.6827, 0.6526, 0.6012, 0.3955, 0.2861, 0.5149], [0.5879, 0.4984, 0.5266, 0.5897, 0.6192, 0.4295, 0.5214, 0.5381, 0.2363, 0.2588, 0.6491, 0.596, 0.2638, 0.3623, 0.3579, 0.2427, 0.57, 0.5137, 0.4554, 0.387, 0.5115, 0.356, 0.3867, 0.453, 0.2481, 0.3775, 0.6958, 0.2331, 0.5606, 0.4164, 0.4164, 0.6447, 0.6435, 0.6073, 0.5459, 0.5358, 0.3346, 0.5512, 0.4851, 0.595], [0.5405, 0.2707, 0.5752, 0.3958, 0.2909, 0.2759, 0.5672, 0.4562, 0.253, 0.4631, 0.2165, 0.6859, 0.5044, 0.2133, 0.4977, 0.4824, 0.6106, 0.4496, 0.3049, 0.5208, 0.2439, 0.5632, 0.6509, 0.2679, 0.3759, 0.2826, 0.5884, 0.6765, 0.6936, 0.4223, 0.5003, 0.2167, 0.4353, 0.2118, 0.4503, 0.469, 0.6132, 0.4632, 0.4192, 0.5076], [0.4885, 0.2753, 0.6296, 0.2343, 0.5374, 0.3094, 0.3918, 0.6885, 0.4008, 0.51, 0.3596, 0.5341, 0.2001, 0.5818, 0.2318, 0.571, 0.5405, 0.3674, 0.5359, 0.3818, 0.6307, 0.4054, 0.4757, 0.2309, 0.4932, 0.3334, 0.4824, 0.6178, 0.2789, 0.6501, 0.3221, 0.2858, 0.4379, 0.2239, 0.5545, 0.5392, 0.6202, 0.5942, 0.5526, 0.2763], [0.3103, 0.2526, 0.4875, 0.3402, 0.3407, 0.2532, 0.5727, 0.3896, 0.3611, 0.4241, 0.5087, 0.5468, 0.615, 0.288, 0.3796, 0.382, 0.3214, 0.5392, 0.592, 0.5054, 0.4748, 0.6951, 0.4124, 0.4339, 0.4765, 0.408, 0.4358, 0.518, 0.6117, 0.3902, 0.4923, 0.6188, 0.5755, 0.6118, 0.3049, 0.245, 0.6965, 0.2718, 0.3531, 0.5856], [0.3776, 0.4205, 0.3609, 0.6556, 0.5588, 0.4607, 0.5966, 0.3986, 0.3439, 0.2767, 0.4986, 0.5147, 0.5382, 0.6489, 0.614, 0.6548, 0.6945, 0.4292, 0.3921, 0.4581, 0.6521, 0.5228, 0.6981, 0.6457, 0.6415, 0.3568, 0.4414, 0.5329, 0.637, 0.2428, 0.4075, 0.631, 0.4036, 0.3006, 0.5541, 0.201, 0.6992, 0.6109, 0.4608, 0.2426], [0.5017, 0.35, 0.6568, 0.5013, 0.5244, 0.3097, 0.5712, 0.2577, 0.6348, 0.6954, 0.6524, 0.5672, 0.4676, 0.4655, 0.4842, 0.6133, 0.4267, 0.2712, 0.5321, 0.4401, 0.5267, 0.4137, 0.42, 0.3635, 0.5065, 0.6455, 0.4227, 0.6801, 0.559, 0.212, 0.3197, 0.6176, 0.5634, 0.2036, 0.6369, 0.52, 0.3206, 0.4975, 0.4025, 0.5237], [0.6298, 0.3312, 0.6444, 0.5729, 0.2294, 0.6062, 0.5135, 0.3861, 0.2575, 0.6454, 0.4567, 0.6383, 0.6497, 0.4003, 0.3419, 0.3611, 0.6407, 0.4613, 0.3605, 0.5587, 0.5196, 0.5249, 0.2835, 0.2141, 0.5632, 0.5834, 0.2938, 0.6435, 0.3797, 0.6529, 0.6746, 0.5432, 0.3909, 0.451, 0.3776, 0.262, 0.5891, 0.2937, 0.3779, 0.4813], [0.5068, 0.2966, 0.2892, 0.2484, 0.6389, 0.5329, 0.5266, 0.5304, 0.667, 0.3061, 0.6391, 0.5428, 0.38, 0.3838, 0.454, 0.2658, 0.273, 0.2863, 0.5961, 0.6124, 0.2628, 0.3197, 0.6833, 0.3825, 0.6816, 0.5651, 0.4232, 0.2737, 0.4746, 0.4404, 0.2527, 0.4651, 0.5186, 0.5774, 0.4262, 0.3476, 0.2723, 0.507, 0.4745, 0.6175], [0.4134, 0.6923, 0.2698, 0.6206, 0.288, 0.6569, 0.3749, 0.5961, 0.6193, 0.6375, 0.6456, 0.5228, 0.6756, 0.667, 0.4494, 0.2325, 0.5543, 0.4847, 0.4063, 0.473, 0.3354, 0.2045, 0.538, 0.6494, 0.6038, 0.3222, 0.6273, 0.5278, 0.4005, 0.5851, 0.3743, 0.328, 0.6074, 0.3075, 0.4265, 0.3722, 0.4413, 0.2708, 0.2984, 0.5531], [0.6682, 0.3024, 0.6473, 0.6995, 0.3169, 0.4011, 0.3368, 0.2138, 0.6584, 0.4222, 0.4952, 0.6868, 0.5185, 0.3676, 0.4963, 0.596, 0.2047, 0.3088, 0.6705, 0.6927, 0.2097, 0.3122, 0.2964, 0.5934, 0.467, 0.3499, 0.6034, 0.5496, 0.2765, 0.573, 0.2231, 0.3424, 0.6802, 0.2103, 0.654, 0.579, 0.2159, 0.3279, 0.2636, 0.2152], [0.3054, 0.5439, 0.5511, 0.5011, 0.6848, 0.4841, 0.5847, 0.5, 0.4751, 0.6708, 0.3919, 0.4934, 0.6793, 0.5561, 0.2628, 0.4425, 0.54, 0.2031, 0.5432, 0.577, 0.3688, 0.3204, 0.5491, 0.4168, 0.4352, 0.5458, 0.5492, 0.4925, 0.5729, 0.3443, 0.4497, 0.6213, 0.5576, 0.5302, 0.5961, 0.5486, 0.3626, 0.5654, 0.3353, 0.3227], [0.6958, 0.3148, 0.4349, 0.5823, 0.6401, 0.221, 0.3857, 0.3065, 0.4857, 0.621, 0.3134, 0.2683, 0.5241, 0.5139, 0.2594, 0.3091, 0.3052, 0.3446, 0.5792, 0.5585, 0.25, 0.2498, 0.6025, 0.6727, 0.6784, 0.2782, 0.4981, 0.6476, 0.2881, 0.588, 0.2891, 0.5667, 0.4138, 0.6089, 0.6412, 0.4892, 0.5682, 0.335, 0.5675, 0.4625], [0.5272, 0.591, 0.2094, 0.4253, 0.2951, 0.3364, 0.3776, 0.5532, 0.6019, 0.4171, 0.3316, 0.4749, 0.5158, 0.5001, 0.2858, 0.3903, 0.4095, 0.2736, 0.6461, 0.3631, 0.4347, 0.6716, 0.5949, 0.5189, 0.2743, 0.214, 0.2415, 0.6142, 0.2154, 0.5917, 0.4303, 0.2844, 0.2043, 0.475, 0.3018, 0.6393, 0.6947, 0.3977, 0.4967, 0.5729], [0.371, 0.4815, 0.6704, 0.3268, 0.4763, 0.3882, 0.4019, 0.6263, 0.576, 0.2905, 0.2248, 0.3191, 0.4729, 0.4058, 0.284, 0.6885, 0.4807, 0.5168, 0.3539, 0.5816, 0.479, 0.346, 0.2252, 0.3565, 0.6482, 0.4371, 0.2043, 0.6379, 0.5492, 0.2493, 0.2525, 0.5727, 0.4687, 0.2338, 0.2159, 0.3123, 0.5259, 0.3763, 0.359, 0.2172], [0.3194, 0.2905, 0.3063, 0.6743, 0.6095, 0.6921, 0.5583, 0.2106, 0.3872, 0.3786, 0.293, 0.5443, 0.6385, 0.6148, 0.4403, 0.5052, 0.3846, 0.6113, 0.6588, 0.6048, 0.4723, 0.2758, 0.5425, 0.25, 0.5001, 0.4523, 0.5579, 0.4192, 0.4323, 0.5215, 0.5274, 0.6769, 0.5551, 0.3406, 0.3457, 0.3095, 0.4059, 0.6051, 0.6802, 0.326], [0.639, 0.6467, 0.5284, 0.6119, 0.5828, 0.6917, 0.3144, 0.2446, 0.4252, 0.5765, 0.5461, 0.6557, 0.2823, 0.2693, 0.2308, 0.6675, 0.544, 0.519, 0.641, 0.5703, 0.3106, 0.6536, 0.4286, 0.5311, 0.4216, 0.5331, 0.656, 0.6509, 0.5174, 0.4294, 0.3723, 0.5461, 0.2084, 0.2483, 0.4056, 0.4851, 0.2305, 0.3042, 0.3414, 0.3221], [0.2531, 0.3452, 0.5781, 0.4208, 0.4173, 0.2108, 0.2455, 0.472, 0.4789, 0.6568, 0.43, 0.4136, 0.5429, 0.653, 0.3832, 0.4029, 0.6062, 0.4219, 0.2152, 0.5038, 0.2814, 0.252, 0.5053, 0.4061, 0.2715, 0.6696, 0.6475, 0.2877, 0.666, 0.6807, 0.2575, 0.4197, 0.2917, 0.3743, 0.2102, 0.5942, 0.5189, 0.6056, 0.5992, 0.2185], [0.216, 0.3018, 0.2185, 0.6184, 0.5804, 0.5364, 0.2933, 0.5777, 0.4107, 0.5179, 0.5058, 0.3103, 0.4167, 0.3427, 0.5895, 0.3635, 0.2, 0.6381, 0.3814, 0.6107, 0.2889, 0.5234, 0.599, 0.3615, 0.6377, 0.4806, 0.4237, 0.6738, 0.6964, 0.4219, 0.5913, 0.6411, 0.5316, 0.5508, 0.6319, 0.4762, 0.673, 0.666, 0.4427, 0.647], [0.6785, 0.6305, 0.3463, 0.5581, 0.505, 0.6231, 0.5907, 0.384, 0.2426, 0.2087, 0.3477, 0.3433, 0.2532, 0.3789, 0.3535, 0.5439, 0.6285, 0.677, 0.426, 0.4956, 0.6938, 0.4341, 0.5171, 0.5117, 0.5431, 0.6088, 0.5271, 0.6029, 0.2698, 0.6127, 0.4963, 0.4778, 0.4707, 0.2921, 0.3705, 0.4401, 0.2568, 0.562, 0.5671, 0.6932], [0.5115, 0.2671, 0.5856, 0.5657, 0.528, 0.4555, 0.209, 0.441, 0.396, 0.2495, 0.5037, 0.6637, 0.4547, 0.5993, 0.2023, 0.5402, 0.5705, 0.3202, 0.3508, 0.5171, 0.2652, 0.409, 0.429, 0.2892, 0.4498, 0.4853, 0.4544, 0.383, 0.6352, 0.5278, 0.4847, 0.2795, 0.3999, 0.6495, 0.5017, 0.6578, 0.3513, 0.5381, 0.287, 0.2007], [0.6875, 0.3632, 0.6422, 0.6417, 0.4389, 0.5647, 0.3192, 0.4446, 0.4803, 0.3414, 0.4437, 0.4949, 0.2817, 0.6575, 0.6772, 0.261, 0.3386, 0.6499, 0.2357, 0.2631, 0.5791, 0.5371, 0.4295, 0.6532, 0.2491, 0.2072, 0.512, 0.2017, 0.343, 0.3653, 0.5324, 0.4998, 0.5639, 0.5905, 0.3416, 0.25, 0.2305, 0.2727, 0.431, 0.6196], [0.2281, 0.2088, 0.4437, 0.3966, 0.5526, 0.3085, 0.3547, 0.2179, 0.2275, 0.6973, 0.3688, 0.3799, 0.5516, 0.5631, 0.644, 0.2814, 0.4401, 0.313, 0.3746, 0.3931, 0.5113, 0.4856, 0.6735, 0.2205, 0.3303, 0.2704, 0.6822, 0.2292, 0.3261, 0.3156, 0.5179, 0.3631, 0.52, 0.2243, 0.4218, 0.4695, 0.5407, 0.2267, 0.2599, 0.3149], [0.2555, 0.2467, 0.6113, 0.4464, 0.5897, 0.5939, 0.2806, 0.5412, 0.595, 0.2096, 0.3715, 0.3987, 0.5035, 0.358, 0.3993, 0.3466, 0.3815, 0.3598, 0.5409, 0.6889, 0.5035, 0.5559, 0.4814, 0.2677, 0.3171, 0.4741, 0.5936, 0.2041, 0.5941, 0.5158, 0.3031, 0.2326, 0.2662, 0.6718, 0.6542, 0.4757, 0.5539, 0.6762, 0.4354, 0.4049], [0.616, 0.2109, 0.4772, 0.399, 0.3792, 0.684, 0.4235, 0.2071, 0.5122, 0.3016, 0.4284, 0.6114, 0.2408, 0.3295, 0.6074, 0.3779, 0.3084, 0.2227, 0.6438, 0.6596, 0.6772, 0.3116, 0.4759, 0.2382, 0.2029, 0.5137, 0.563, 0.5669, 0.5928, 0.3606, 0.5685, 0.4486, 0.5056, 0.4441, 0.2218, 0.3056, 0.5816, 0.4804, 0.2781, 0.3375], [0.4843, 0.3526, 0.4886, 0.6074, 0.5796, 0.6408, 0.5659, 0.5287, 0.2738, 0.2092, 0.6416, 0.6985, 0.4688, 0.3537, 0.3157, 0.4104, 0.4435, 0.2721, 0.4468, 0.295, 0.4473, 0.5737, 0.3348, 0.6119, 0.4621, 0.6719, 0.3604, 0.3817, 0.543, 0.4479, 0.6452, 0.3119, 0.6162, 0.5772, 0.241, 0.3972, 0.307, 0.3273, 0.2812, 0.477], [0.6006, 0.6383, 0.2673, 0.502, 0.3277, 0.3657, 0.3037, 0.2195, 0.2647, 0.4637, 0.6718, 0.3313, 0.3551, 0.5448, 0.5361, 0.3195, 0.2078, 0.3342, 0.3487, 0.4403, 0.6376, 0.2249, 0.3022, 0.2574, 0.3873, 0.6228, 0.5107, 0.6191, 0.2343, 0.2054, 0.2098, 0.4905, 0.3256, 0.4692, 0.2286, 0.2035, 0.6565, 0.3796, 0.5584, 0.246], [0.6422, 0.5262, 0.4608, 0.3039, 0.5674, 0.3067, 0.4209, 0.3491, 0.2842, 0.5621, 0.3543, 0.4869, 0.2424, 0.5699, 0.3219, 0.3534, 0.421, 0.5908, 0.2522, 0.6107, 0.3486, 0.2845, 0.2841, 0.5798, 0.2015, 0.5893, 0.2993, 0.3187, 0.423, 0.3291, 0.6283, 0.4617, 0.5099, 0.5016, 0.6395, 0.6366, 0.4941, 0.6594, 0.6081, 0.4086], [0.5722, 0.4955, 0.2454, 0.4708, 0.5885, 0.5446, 0.6963, 0.5431, 0.318, 0.5083, 0.539, 0.3012, 0.2861, 0.2642, 0.5763, 0.6573, 0.2057, 0.3364, 0.6932, 0.5305, 0.4365, 0.59, 0.3731, 0.5693, 0.523, 0.2438, 0.5958, 0.3949, 0.4692, 0.3504, 0.544, 0.234, 0.2123, 0.4881, 0.5206, 0.6642, 0.2237, 0.5755, 0.3745, 0.5863], [0.3445, 0.4275, 0.3812, 0.2533, 0.4786, 0.2986, 0.5215, 0.2195, 0.3374, 0.6444, 0.2847, 0.5947, 0.3478, 0.2604, 0.3644, 0.4464, 0.3468, 0.5042, 0.3282, 0.6254, 0.513, 0.2747, 0.5234, 0.5073, 0.2071, 0.4652, 0.3055, 0.3861, 0.5734, 0.6457, 0.6111, 0.3582, 0.6961, 0.2236, 0.6726, 0.64, 0.6433, 0.3913, 0.4793, 0.5831], [0.6381, 0.5239, 0.5905, 0.6337, 0.5812, 0.2846, 0.299, 0.5766, 0.6216, 0.2388, 0.6692, 0.687, 0.5784, 0.4751, 0.4977, 0.5044, 0.3896, 0.5907, 0.4429, 0.4139, 0.2198, 0.6396, 0.2961, 0.4469, 0.3317, 0.2643, 0.6504, 0.6945, 0.5325, 0.3717, 0.2026, 0.6518, 0.4079, 0.5166, 0.2096, 0.4944, 0.2874, 0.4027, 0.2127, 0.464]]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[[4, 10], [4, 10], [1, 10], [4, 10], [5, 10], [3, 10], [3, 10], [2, 10], [3, 10], [4, 10], [3, 10], [4, 10], [2, 10], [5, 10], [0, 10], [5, 10], [1, 10], [3, 10], [4, 10], [5, 10], [1, 10], [2, 10], [0, 10], [3, 10], [5, 10], [5, 10], [4, 10], [1, 10], [5, 10], [1, 10]]</t>
+          <t>[[4, 10], [2, 10], [1, 10], [3, 10], [4, 10], [2, 10], [0, 10], [4, 10], [0, 10], [5, 10], [2, 10], [1, 10], [1, 10], [0, 10], [3, 10], [0, 10], [3, 10], [5, 10], [0, 10], [3, 10], [3, 10], [2, 10], [0, 10], [2, 10], [1, 10], [4, 10], [4, 10], [0, 10], [2, 10], [2, 10], [5, 10], [5, 10], [5, 10], [5, 10], [1, 10], [4, 10], [1, 10], [0, 10], [4, 10], [3, 10]]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[10, 10, 5, 10, 1, 8, 5, 1, 9, 10, 2, 1, 2, 6, 3, 8, 6, 3, 6, 1, 5, 9, 9, 3, 7, 6, 8, 3, 2, 7]</t>
+          <t>[4, 8, 7, 1, 1, 6, 8, 3, 5, 4, 4, 9, 5, 4, 9, 6, 10, 2, 4, 1, 10, 9, 8, 8, 2, 5, 2, 4, 8, 5, 4, 10, 3, 7, 6, 2, 6, 4, 1, 3]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[[0.437, 0.5053, 0.277, 0.4711, 0.6203, 0.2883, 0.6119, 0.5546, 0.656, 0.4118, 0.2074, 0.3777, 0.6893, 0.2859, 0.6649, 0.2813, 0.4098, 0.2201, 0.5996, 0.5857, 0.5313, 0.5933, 0.4922, 0.4013, 0.6302, 0.2031, 0.6981, 0.3857, 0.2503, 0.5004], [0.5068, 0.2019, 0.3308, 0.3309, 0.3478, 0.4221, 0.2436, 0.6962, 0.2259, 0.6106, 0.4167, 0.3775, 0.4165, 0.4896, 0.2274, 0.3303, 0.4379, 0.6293, 0.2335, 0.6902, 0.629, 0.3072, 0.5631, 0.2289, 0.6639, 0.2828, 0.6396, 0.3195, 0.6027, 0.4528], [0.3405, 0.3538, 0.2318, 0.5601, 0.4243, 0.4754, 0.2274, 0.5601, 0.6612, 0.6858, 0.2546, 0.5806, 0.3183, 0.4492, 0.3625, 0.2777, 0.3713, 0.3799, 0.2061, 0.6796, 0.202, 0.6229, 0.6734, 0.5162, 0.2503, 0.5256, 0.4793, 0.2451, 0.2909, 0.2571], [0.4545, 0.603, 0.6768, 0.6837, 0.5038, 0.6643, 0.6981, 0.3324, 0.6492, 0.2122, 0.3892, 0.2092, 0.6889, 0.3708, 0.6301, 0.6616, 0.214, 0.3536, 0.464, 0.3063, 0.4032, 0.5682, 0.5487, 0.2087, 0.3355, 0.6428, 0.4163, 0.3099, 0.5297, 0.2626], [0.451, 0.2864, 0.2691, 0.3776, 0.4801, 0.2045, 0.2656, 0.4487, 0.5604, 0.2439, 0.5753, 0.24, 0.5036, 0.6745, 0.237, 0.4556, 0.5613, 0.2162, 0.6874, 0.2598, 0.6416, 0.4695, 0.6806, 0.534, 0.4537, 0.5028, 0.5395, 0.6311, 0.6571, 0.2139], [0.3588, 0.3194, 0.5456, 0.4882, 0.5436, 0.6527, 0.6101, 0.4732, 0.5452, 0.4022, 0.5129, 0.4837, 0.2324, 0.2107, 0.3312, 0.2573, 0.35, 0.3133, 0.5717, 0.6607, 0.6696, 0.4466, 0.4422, 0.4521, 0.4643, 0.3065, 0.4657, 0.665, 0.2132, 0.463], [0.505, 0.3001, 0.5997, 0.6191, 0.4111, 0.4139, 0.4156, 0.6671, 0.6121, 0.6228, 0.6326, 0.5057, 0.4941, 0.5463, 0.3222, 0.3792, 0.3936, 0.6785, 0.5807, 0.6346, 0.2287, 0.5621, 0.5585, 0.3583, 0.6945, 0.6103, 0.6158, 0.5379, 0.4697, 0.5668], [0.3299, 0.3691, 0.3415, 0.6706, 0.6227, 0.4449, 0.5593, 0.4832, 0.4441, 0.2125, 0.3544, 0.6637, 0.6588, 0.6889, 0.4288, 0.253, 0.2574, 0.6903, 0.2402, 0.5486, 0.2229, 0.356, 0.5665, 0.5517, 0.6658, 0.3407, 0.4067, 0.4093, 0.321, 0.6167], [0.264, 0.5087, 0.4249, 0.683, 0.4259, 0.6437, 0.6912, 0.4818, 0.5555, 0.4414, 0.4342, 0.532, 0.293, 0.6514, 0.6861, 0.4993, 0.3419, 0.4717, 0.4574, 0.3671, 0.4382, 0.6809, 0.5565, 0.2435, 0.5764, 0.4498, 0.5029, 0.6125, 0.3284, 0.5655], [0.3219, 0.3758, 0.6324, 0.3567, 0.2614, 0.3784, 0.6594, 0.6679, 0.5195, 0.6723, 0.6604, 0.4193, 0.6647, 0.611, 0.364, 0.4274, 0.5429, 0.3523, 0.507, 0.3986, 0.2199, 0.503, 0.3579, 0.5579, 0.6935, 0.4057, 0.4654, 0.5636, 0.6918, 0.5051], [0.2087, 0.283, 0.23, 0.3948, 0.3719, 0.3817, 0.6452, 0.3237, 0.2874, 0.4009, 0.472, 0.4702, 0.4859, 0.363, 0.2994, 0.6141, 0.66, 0.667, 0.23, 0.3918, 0.3094, 0.5402, 0.6623, 0.6954, 0.4962, 0.3653, 0.6405, 0.3898, 0.2636, 0.4241], [0.588, 0.409, 0.3076, 0.5929, 0.3206, 0.2976, 0.3678, 0.5136, 0.526, 0.698, 0.4948, 0.6316, 0.2155, 0.2081, 0.692, 0.2272, 0.5244, 0.2278, 0.4395, 0.2783, 0.3036, 0.4343, 0.3543, 0.529, 0.6234, 0.3476, 0.2746, 0.5131, 0.6171, 0.3318], [0.3483, 0.5008, 0.5612, 0.6355, 0.211, 0.2923, 0.4671, 0.2866, 0.6864, 0.5034, 0.45, 0.5966, 0.6263, 0.4882, 0.208, 0.2033, 0.5378, 0.6794, 0.6817, 0.5538, 0.3556, 0.6207, 0.3735, 0.2717, 0.6566, 0.6062, 0.4952, 0.4172, 0.4084, 0.2848], [0.4521, 0.5221, 0.6044, 0.3795, 0.6015, 0.309, 0.2294, 0.284, 0.2486, 0.4193, 0.4676, 0.6589, 0.2406, 0.6283, 0.4039, 0.627, 0.2732, 0.6875, 0.6321, 0.3397, 0.5437, 0.525, 0.5777, 0.4717, 0.4218, 0.2509, 0.4654, 0.4716, 0.2345, 0.521], [0.4705, 0.357, 0.4104, 0.5902, 0.6299, 0.525, 0.6862, 0.4613, 0.6346, 0.5686, 0.5227, 0.4337, 0.6132, 0.2924, 0.4011, 0.2806, 0.3859, 0.6635, 0.4564, 0.2363, 0.2125, 0.2164, 0.2982, 0.5121, 0.492, 0.3575, 0.324, 0.6603, 0.6076, 0.5345], [0.3413, 0.6538, 0.2187, 0.4347, 0.5148, 0.2885, 0.2017, 0.4059, 0.2129, 0.5278, 0.2317, 0.2573, 0.5056, 0.3634, 0.5069, 0.6411, 0.4123, 0.5782, 0.3199, 0.6748, 0.2322, 0.4914, 0.4615, 0.6029, 0.5363, 0.3179, 0.5342, 0.3779, 0.3127, 0.623], [0.2237, 0.6108, 0.5391, 0.366, 0.2562, 0.2998, 0.2707, 0.2347, 0.4001, 0.4429, 0.4664, 0.2866, 0.2746, 0.6718, 0.5485, 0.3504, 0.4185, 0.4126, 0.229, 0.5463, 0.603, 0.392, 0.6675, 0.6538, 0.5308, 0.5956, 0.5693, 0.3929, 0.497, 0.2977], [0.6819, 0.6538, 0.3613, 0.4459, 0.6352, 0.2701, 0.273, 0.3761, 0.5623, 0.3902, 0.5474, 0.6403, 0.4442, 0.316, 0.299, 0.5344, 0.2577, 0.2705, 0.26, 0.5868, 0.2276, 0.6251, 0.3368, 0.216, 0.5867, 0.5746, 0.3606, 0.6866, 0.3089, 0.3356], [0.5179, 0.6477, 0.2977, 0.666, 0.291, 0.4654, 0.2167, 0.6437, 0.6593, 0.2677, 0.6542, 0.3149, 0.2551, 0.4554, 0.2373, 0.5635, 0.3236, 0.3842, 0.3063, 0.2852, 0.5718, 0.3075, 0.467, 0.6487, 0.2418, 0.6014, 0.2196, 0.6641, 0.3305, 0.5067], [0.4243, 0.5409, 0.6001, 0.571, 0.4488, 0.5587, 0.4293, 0.6567, 0.6081, 0.4891, 0.3055, 0.5143, 0.5829, 0.3827, 0.2486, 0.6379, 0.6796, 0.236, 0.4655, 0.435, 0.6846, 0.4517, 0.2652, 0.5042, 0.6044, 0.6024, 0.5195, 0.6224, 0.6125, 0.2073], [0.3887, 0.333, 0.3869, 0.352, 0.5267, 0.5954, 0.3379, 0.3326, 0.4568, 0.3291, 0.6381, 0.3246, 0.6771, 0.3192, 0.3928, 0.5997, 0.2318, 0.311, 0.5829, 0.5712, 0.6081, 0.4869, 0.26, 0.3578, 0.4265, 0.6565, 0.3992, 0.5318, 0.4648, 0.2512], [0.3876, 0.4067, 0.3666, 0.2553, 0.6983, 0.3507, 0.4519, 0.5037, 0.5156, 0.507, 0.6213, 0.2462, 0.6614, 0.5811, 0.5928, 0.6325, 0.649, 0.5401, 0.5538, 0.5367, 0.2741, 0.4182, 0.3478, 0.4754, 0.6978, 0.5857, 0.478, 0.6024, 0.2412, 0.5643], [0.4847, 0.6603, 0.4372, 0.5469, 0.6528, 0.2693, 0.6353, 0.5429, 0.6385, 0.4093, 0.5946, 0.488, 0.365, 0.3708, 0.5769, 0.667, 0.4246, 0.6896, 0.6849, 0.3831, 0.2593, 0.3221, 0.4943, 0.5891, 0.2436, 0.3879, 0.5516, 0.6572, 0.6585, 0.5875], [0.6176, 0.4091, 0.6557, 0.4933, 0.5145, 0.424, 0.5218, 0.2667, 0.2605, 0.4218, 0.4817, 0.6879, 0.4902, 0.6141, 0.4756, 0.2463, 0.6745, 0.3035, 0.6372, 0.228, 0.3945, 0.5556, 0.3406, 0.3946, 0.3272, 0.2631, 0.298, 0.222, 0.2563, 0.2037], [0.4056, 0.6254, 0.6863, 0.2321, 0.527, 0.6128, 0.4732, 0.5952, 0.4461, 0.5985, 0.4463, 0.4746, 0.6963, 0.6349, 0.4166, 0.429, 0.6744, 0.5699, 0.3865, 0.3974, 0.5815, 0.2451, 0.5116, 0.4437, 0.3334, 0.6965, 0.4558, 0.2031, 0.2294, 0.6529], [0.4874, 0.4637, 0.6213, 0.528, 0.6862, 0.6115, 0.2164, 0.6076, 0.6664, 0.2437, 0.568, 0.493, 0.5899, 0.3872, 0.4698, 0.3067, 0.5256, 0.3867, 0.4412, 0.6022, 0.2963, 0.271, 0.5564, 0.5016, 0.2484, 0.619, 0.5523, 0.5119, 0.2356, 0.2277], [0.2175, 0.447, 0.364, 0.2684, 0.577, 0.5727, 0.3191, 0.6509, 0.284, 0.3306, 0.6635, 0.4883, 0.6237, 0.2473, 0.3309, 0.4805, 0.4839, 0.6888, 0.2152, 0.3026, 0.2151, 0.653, 0.3661, 0.2643, 0.4192, 0.4753, 0.6478, 0.305, 0.5556, 0.2213], [0.493, 0.522, 0.6236, 0.4462, 0.2211, 0.2516, 0.3156, 0.2451, 0.5997, 0.2666, 0.5019, 0.5226, 0.516, 0.2261, 0.2771, 0.3022, 0.4496, 0.3108, 0.6972, 0.4825, 0.3327, 0.6209, 0.5372, 0.6537, 0.2234, 0.223, 0.5024, 0.4755, 0.2285, 0.3061], [0.613, 0.4955, 0.2572, 0.6696, 0.6999, 0.5025, 0.5632, 0.5962, 0.4096, 0.233, 0.6205, 0.6922, 0.2366, 0.356, 0.2332, 0.5905, 0.3982, 0.3183, 0.309, 0.4494, 0.4694, 0.5079, 0.2468, 0.5971, 0.4078, 0.6078, 0.4893, 0.4066, 0.3099, 0.3865], [0.2422, 0.5987, 0.6532, 0.3403, 0.3764, 0.6361, 0.419, 0.2133, 0.6057, 0.3087, 0.5197, 0.5277, 0.3921, 0.3621, 0.4755, 0.418, 0.6025, 0.511, 0.4821, 0.2172, 0.4647, 0.4639, 0.5241, 0.6971, 0.478, 0.5634, 0.2688, 0.6854, 0.4829, 0.6742]]</t>
+          <t>[[0.3316, 0.697, 0.5231, 0.6729, 0.6588, 0.6347, 0.5955, 0.2588, 0.6457, 0.4926, 0.4004, 0.4353, 0.3433, 0.6624, 0.4111, 0.4044, 0.406, 0.368, 0.592, 0.2566, 0.283, 0.5841, 0.4914, 0.4344, 0.4206, 0.3353, 0.5829, 0.4547, 0.5963, 0.3079, 0.3547, 0.2826, 0.4066, 0.6186, 0.5227, 0.5998, 0.2342, 0.515, 0.4196, 0.3578], [0.2319, 0.378, 0.2229, 0.5937, 0.6551, 0.2892, 0.4355, 0.5453, 0.6277, 0.455, 0.5189, 0.28, 0.533, 0.4755, 0.5693, 0.4592, 0.482, 0.6977, 0.2997, 0.4715, 0.3192, 0.2038, 0.4908, 0.2775, 0.3309, 0.6851, 0.6815, 0.427, 0.6761, 0.3287, 0.2535, 0.2315, 0.3535, 0.5017, 0.3999, 0.3282, 0.6271, 0.2076, 0.5411, 0.5715], [0.2313, 0.237, 0.2983, 0.4246, 0.2743, 0.3732, 0.6016, 0.3721, 0.3785, 0.6099, 0.2086, 0.4496, 0.2394, 0.6457, 0.6801, 0.2225, 0.5033, 0.27, 0.4967, 0.2475, 0.3097, 0.4923, 0.2778, 0.5988, 0.5493, 0.5474, 0.5666, 0.2058, 0.6488, 0.3849, 0.3748, 0.5444, 0.6483, 0.3833, 0.3685, 0.4698, 0.376, 0.2233, 0.5885, 0.4048], [0.6426, 0.3849, 0.3419, 0.5159, 0.6301, 0.2678, 0.4993, 0.5035, 0.6173, 0.5447, 0.5273, 0.3894, 0.6219, 0.3937, 0.5352, 0.2004, 0.5846, 0.6541, 0.3869, 0.2792, 0.4803, 0.4516, 0.6519, 0.4869, 0.6706, 0.4955, 0.6291, 0.4911, 0.6767, 0.2245, 0.4565, 0.3961, 0.5968, 0.3832, 0.5952, 0.5712, 0.3491, 0.596, 0.3214, 0.2796], [0.6829, 0.6191, 0.2899, 0.421, 0.4119, 0.4142, 0.2666, 0.3482, 0.3648, 0.2976, 0.28, 0.409, 0.4594, 0.4032, 0.2232, 0.5741, 0.554, 0.3315, 0.5336, 0.3448, 0.6878, 0.4225, 0.4994, 0.3873, 0.2975, 0.4085, 0.3558, 0.5514, 0.3851, 0.4749, 0.3961, 0.2433, 0.6838, 0.5279, 0.2092, 0.399, 0.5348, 0.5661, 0.3519, 0.4005], [0.613, 0.6824, 0.2666, 0.6963, 0.5073, 0.2346, 0.6161, 0.4372, 0.5564, 0.5164, 0.2438, 0.4556, 0.6622, 0.4539, 0.5486, 0.4767, 0.4725, 0.6719, 0.4783, 0.3031, 0.4564, 0.3389, 0.3524, 0.3587, 0.4007, 0.2297, 0.6796, 0.2406, 0.3202, 0.4356, 0.3341, 0.3681, 0.2081, 0.448, 0.2108, 0.4685, 0.6804, 0.3794, 0.3526, 0.2071], [0.6548, 0.2357, 0.562, 0.2493, 0.2627, 0.5473, 0.5325, 0.4278, 0.3671, 0.6899, 0.3195, 0.314, 0.4384, 0.3525, 0.2561, 0.6427, 0.4003, 0.5673, 0.4868, 0.5423, 0.5121, 0.2793, 0.5401, 0.2451, 0.3048, 0.2582, 0.2011, 0.4251, 0.6087, 0.602, 0.4871, 0.2605, 0.3137, 0.4658, 0.3626, 0.2806, 0.4154, 0.347, 0.4977, 0.3235], [0.602, 0.5656, 0.2521, 0.2258, 0.4132, 0.5893, 0.3662, 0.5121, 0.2092, 0.4285, 0.4259, 0.4188, 0.5256, 0.6736, 0.3414, 0.2146, 0.6918, 0.6454, 0.5842, 0.3502, 0.5478, 0.3818, 0.4534, 0.5598, 0.4779, 0.3088, 0.4201, 0.5187, 0.662, 0.5126, 0.359, 0.3664, 0.5935, 0.5975, 0.5783, 0.4312, 0.2462, 0.4016, 0.2501, 0.4503], [0.5153, 0.4545, 0.5695, 0.5142, 0.5844, 0.2322, 0.4816, 0.5657, 0.6749, 0.6256, 0.4435, 0.4717, 0.4608, 0.5655, 0.5796, 0.304, 0.3763, 0.2989, 0.3284, 0.223, 0.3633, 0.2117, 0.3496, 0.2118, 0.3337, 0.5204, 0.3546, 0.5327, 0.5913, 0.2716, 0.4078, 0.5921, 0.6267, 0.6644, 0.3873, 0.4155, 0.522, 0.6744, 0.2606, 0.3051], [0.2769, 0.613, 0.4099, 0.6041, 0.5202, 0.696, 0.6401, 0.4874, 0.2729, 0.6349, 0.4394, 0.2986, 0.5723, 0.3685, 0.6765, 0.4804, 0.2675, 0.5048, 0.222, 0.6718, 0.2833, 0.4866, 0.2327, 0.3835, 0.3501, 0.2991, 0.3395, 0.3909, 0.3017, 0.5671, 0.4447, 0.2213, 0.5532, 0.2234, 0.6462, 0.4125, 0.6019, 0.5224, 0.651, 0.3841], [0.3905, 0.3774, 0.6042, 0.4128, 0.4348, 0.6827, 0.5471, 0.3475, 0.2774, 0.2683, 0.5206, 0.6249, 0.2639, 0.4549, 0.4649, 0.6214, 0.5107, 0.6186, 0.2981, 0.6255, 0.2363, 0.5671, 0.5523, 0.2929, 0.5273, 0.5981, 0.2074, 0.3877, 0.2405, 0.2638, 0.6827, 0.6457, 0.5048, 0.3839, 0.571, 0.4924, 0.5012, 0.2534, 0.4221, 0.5685], [0.5921, 0.6614, 0.4547, 0.453, 0.6743, 0.5264, 0.2447, 0.6633, 0.6021, 0.4536, 0.2809, 0.3907, 0.4509, 0.474, 0.4874, 0.3343, 0.5981, 0.5923, 0.3052, 0.4247, 0.5763, 0.5611, 0.4237, 0.4559, 0.5994, 0.2175, 0.5385, 0.3022, 0.2895, 0.6642, 0.518, 0.4936, 0.2539, 0.2902, 0.3579, 0.6262, 0.2755, 0.4806, 0.5026, 0.2133], [0.2459, 0.3604, 0.672, 0.561, 0.3453, 0.6621, 0.2501, 0.6854, 0.3602, 0.4192, 0.2205, 0.4781, 0.5144, 0.5179, 0.6181, 0.2534, 0.3435, 0.3685, 0.2495, 0.5041, 0.279, 0.4195, 0.618, 0.6252, 0.4443, 0.6889, 0.3515, 0.4445, 0.2321, 0.679, 0.4118, 0.371, 0.2162, 0.2566, 0.4131, 0.4468, 0.5592, 0.527, 0.4969, 0.5619], [0.2698, 0.6456, 0.4395, 0.6241, 0.3874, 0.5959, 0.4087, 0.3928, 0.6027, 0.5662, 0.5723, 0.4895, 0.4929, 0.5976, 0.2643, 0.4161, 0.2719, 0.5905, 0.4556, 0.2416, 0.2519, 0.4938, 0.3771, 0.6195, 0.5712, 0.3734, 0.6045, 0.4583, 0.6476, 0.5806, 0.3067, 0.3936, 0.4943, 0.6921, 0.5407, 0.3658, 0.3866, 0.5878, 0.5957, 0.2295], [0.6319, 0.3514, 0.3754, 0.2449, 0.4071, 0.257, 0.6723, 0.2436, 0.5123, 0.2257, 0.3808, 0.2406, 0.3709, 0.4711, 0.543, 0.6433, 0.3617, 0.5358, 0.4074, 0.5843, 0.4475, 0.2422, 0.5459, 0.3661, 0.6641, 0.6043, 0.2401, 0.3551, 0.2515, 0.3141, 0.3931, 0.2424, 0.6316, 0.3031, 0.6981, 0.3858, 0.6187, 0.6006, 0.2191, 0.3965], [0.2856, 0.3423, 0.5507, 0.4356, 0.4845, 0.3605, 0.499, 0.4296, 0.2686, 0.4632, 0.6152, 0.2998, 0.4558, 0.643, 0.2967, 0.6374, 0.6421, 0.5448, 0.2923, 0.6901, 0.413, 0.5729, 0.535, 0.5053, 0.667, 0.2533, 0.2435, 0.6479, 0.5897, 0.2365, 0.3488, 0.685, 0.6447, 0.694, 0.6596, 0.6288, 0.3815, 0.5037, 0.2185, 0.506], [0.2343, 0.4878, 0.6209, 0.3328, 0.4896, 0.6712, 0.441, 0.2014, 0.5868, 0.4624, 0.4173, 0.2827, 0.2444, 0.5017, 0.5875, 0.664, 0.6217, 0.4653, 0.6209, 0.2376, 0.2115, 0.2743, 0.4662, 0.518, 0.641, 0.4488, 0.2926, 0.3186, 0.5787, 0.6494, 0.6834, 0.6794, 0.2481, 0.4379, 0.5614, 0.2906, 0.6359, 0.5964, 0.4582, 0.3522], [0.2723, 0.2996, 0.6903, 0.6837, 0.4783, 0.5891, 0.2858, 0.4438, 0.2497, 0.2109, 0.4908, 0.5206, 0.215, 0.3572, 0.5247, 0.378, 0.4803, 0.5094, 0.2387, 0.2171, 0.6336, 0.575, 0.2024, 0.4914, 0.6907, 0.5283, 0.3019, 0.6033, 0.2268, 0.4773, 0.2538, 0.3434, 0.3399, 0.3401, 0.4497, 0.4637, 0.6321, 0.5464, 0.3059, 0.326], [0.3045, 0.2728, 0.2428, 0.3492, 0.3199, 0.3741, 0.5267, 0.307, 0.2585, 0.6004, 0.3179, 0.5286, 0.3676, 0.33, 0.2652, 0.4208, 0.2883, 0.5584, 0.4121, 0.3303, 0.4153, 0.5826, 0.3001, 0.4893, 0.3895, 0.2616, 0.4552, 0.6239, 0.5062, 0.4441, 0.3689, 0.3747, 0.6421, 0.4411, 0.4528, 0.5287, 0.4652, 0.3528, 0.5678, 0.2998], [0.3097, 0.2802, 0.3191, 0.4559, 0.644, 0.6761, 0.6573, 0.2428, 0.2255, 0.5254, 0.2008, 0.3657, 0.3507, 0.4589, 0.3048, 0.3201, 0.4885, 0.4418, 0.3882, 0.6733, 0.3045, 0.5503, 0.5554, 0.6284, 0.4893, 0.6526, 0.2983, 0.209, 0.6193, 0.2204, 0.2377, 0.4139, 0.6501, 0.623, 0.6215, 0.3132, 0.2074, 0.671, 0.4626, 0.2531], [0.6874, 0.3996, 0.3407, 0.2506, 0.4954, 0.3942, 0.2712, 0.5585, 0.4739, 0.4084, 0.3524, 0.307, 0.4442, 0.3814, 0.443, 0.5635, 0.323, 0.6331, 0.3287, 0.365, 0.5641, 0.6917, 0.6441, 0.3482, 0.5921, 0.3046, 0.5432, 0.5051, 0.3053, 0.5079, 0.3566, 0.3608, 0.2722, 0.5248, 0.5232, 0.317, 0.2999, 0.3462, 0.5709, 0.3561], [0.5728, 0.6639, 0.2366, 0.3391, 0.4493, 0.4023, 0.3133, 0.5877, 0.4782, 0.5956, 0.3272, 0.5106, 0.211, 0.2295, 0.3882, 0.2709, 0.44, 0.3648, 0.3217, 0.6554, 0.4146, 0.4345, 0.6344, 0.2469, 0.6269, 0.3244, 0.3044, 0.5542, 0.204, 0.2617, 0.3312, 0.61, 0.4439, 0.3258, 0.5949, 0.5569, 0.554, 0.2417, 0.4664, 0.354], [0.5302, 0.5073, 0.5882, 0.3988, 0.312, 0.4143, 0.6702, 0.4314, 0.4493, 0.6735, 0.2606, 0.3476, 0.6125, 0.2588, 0.3641, 0.4866, 0.3205, 0.6506, 0.5039, 0.3995, 0.498, 0.6722, 0.3805, 0.2031, 0.3223, 0.6582, 0.6925, 0.4794, 0.2385, 0.2742, 0.4237, 0.6808, 0.3796, 0.6999, 0.3541, 0.5901, 0.4131, 0.6802, 0.3954, 0.3426], [0.3457, 0.2289, 0.4725, 0.447, 0.6935, 0.3961, 0.2242, 0.2157, 0.2165, 0.6653, 0.3345, 0.4582, 0.6944, 0.2815, 0.2052, 0.3959, 0.6112, 0.5812, 0.6131, 0.4899, 0.5267, 0.281, 0.4584, 0.6159, 0.4093, 0.6784, 0.3597, 0.4313, 0.5981, 0.4515, 0.2382, 0.6915, 0.5087, 0.2309, 0.297, 0.2997, 0.6104, 0.5766, 0.5121, 0.5336], [0.2291, 0.5436, 0.6296, 0.576, 0.5691, 0.2268, 0.6792, 0.6193, 0.2245, 0.6669, 0.341, 0.4418, 0.4441, 0.3797, 0.5391, 0.6426, 0.4779, 0.3046, 0.5755, 0.232, 0.4843, 0.6323, 0.479, 0.2823, 0.4544, 0.3213, 0.5101, 0.4704, 0.5287, 0.2029, 0.4913, 0.6088, 0.291, 0.3856, 0.2383, 0.2575, 0.4338, 0.2063, 0.598, 0.3767], [0.5716, 0.5768, 0.2649, 0.6604, 0.5973, 0.6898, 0.6356, 0.4084, 0.3501, 0.5147, 0.2759, 0.5165, 0.3631, 0.5042, 0.6567, 0.3406, 0.4889, 0.2454, 0.6073, 0.5966, 0.3527, 0.3202, 0.4956, 0.6628, 0.4876, 0.4234, 0.3874, 0.603, 0.6265, 0.2551, 0.6876, 0.3499, 0.6059, 0.6066, 0.6645, 0.2781, 0.6124, 0.2363, 0.4446, 0.4294], [0.6774, 0.2438, 0.3016, 0.5502, 0.6262, 0.3817, 0.4887, 0.3883, 0.5929, 0.2845, 0.5513, 0.6886, 0.6128, 0.2676, 0.6186, 0.514, 0.6049, 0.5638, 0.5493, 0.5396, 0.6446, 0.383, 0.5894, 0.5265, 0.2171, 0.2422, 0.3349, 0.3693, 0.2401, 0.6301, 0.6124, 0.3527, 0.5158, 0.331, 0.5247, 0.2904, 0.5049, 0.3953, 0.4381, 0.2763], [0.5873, 0.5608, 0.5903, 0.5796, 0.6891, 0.227, 0.3152, 0.2755, 0.2016, 0.5015, 0.5632, 0.4016, 0.2974, 0.5939, 0.3266, 0.2923, 0.2177, 0.5617, 0.4896, 0.6189, 0.6953, 0.4844, 0.5109, 0.6952, 0.2618, 0.229, 0.3829, 0.3495, 0.4171, 0.5656, 0.6954, 0.4114, 0.4791, 0.4495, 0.4674, 0.5006, 0.2194, 0.2414, 0.6517, 0.2332], [0.4951, 0.2625, 0.6399, 0.5904, 0.4087, 0.4508, 0.6381, 0.6781, 0.561, 0.2819, 0.5982, 0.5661, 0.4471, 0.6688, 0.6629, 0.3691, 0.3497, 0.69, 0.4946, 0.4631, 0.2548, 0.6995, 0.5126, 0.2208, 0.6176, 0.6363, 0.5331, 0.2881, 0.552, 0.5165, 0.4369, 0.4626, 0.528, 0.5622, 0.4214, 0.6208, 0.4075, 0.478, 0.5056, 0.3034], [0.6362, 0.6934, 0.398, 0.3242, 0.3772, 0.2195, 0.4099, 0.5609, 0.4583, 0.5236, 0.4334, 0.5093, 0.4603, 0.6113, 0.225, 0.3571, 0.518, 0.3642, 0.2015, 0.4123, 0.3921, 0.6417, 0.421, 0.2096, 0.64, 0.3567, 0.6357, 0.4591, 0.6188, 0.5018, 0.3393, 0.5037, 0.6254, 0.6459, 0.527, 0.5232, 0.675, 0.3941, 0.3221, 0.3804], [0.3585, 0.6279, 0.518, 0.3363, 0.3628, 0.478, 0.4756, 0.2572, 0.6161, 0.479, 0.4934, 0.6936, 0.6216, 0.688, 0.5945, 0.2118, 0.5747, 0.4728, 0.4264, 0.5125, 0.333, 0.2139, 0.2126, 0.5312, 0.5002, 0.4847, 0.3993, 0.265, 0.3429, 0.6344, 0.3601, 0.5046, 0.4929, 0.3551, 0.5116, 0.449, 0.3154, 0.602, 0.5859, 0.4287], [0.368, 0.6881, 0.6572, 0.4836, 0.3991, 0.3958, 0.4369, 0.3853, 0.6174, 0.4803, 0.5394, 0.6919, 0.6615, 0.4444, 0.3296, 0.4696, 0.6927, 0.5211, 0.431, 0.4491, 0.4756, 0.4771, 0.4366, 0.2343, 0.458, 0.6892, 0.2818, 0.3059, 0.5728, 0.2952, 0.3865, 0.6345, 0.5466, 0.4638, 0.2781, 0.6886, 0.2708, 0.553, 0.2607, 0.4956], [0.349, 0.3519, 0.5959, 0.3528, 0.3749, 0.4657, 0.6691, 0.2341, 0.5281, 0.491, 0.2348, 0.2632, 0.6509, 0.5984, 0.2417, 0.3757, 0.3686, 0.675, 0.2774, 0.3998, 0.2978, 0.3101, 0.6314, 0.4653, 0.4591, 0.3965, 0.4324, 0.5243, 0.478, 0.5122, 0.4208, 0.2686, 0.54, 0.5886, 0.246, 0.5356, 0.525, 0.303, 0.6926, 0.3336], [0.2931, 0.2634, 0.2263, 0.6912, 0.3276, 0.4581, 0.6699, 0.6956, 0.3928, 0.5722, 0.3361, 0.2466, 0.5357, 0.4713, 0.2061, 0.6923, 0.5304, 0.5855, 0.3464, 0.6794, 0.4734, 0.2703, 0.3694, 0.4563, 0.3443, 0.6939, 0.5103, 0.3166, 0.6097, 0.4773, 0.4792, 0.4324, 0.4315, 0.2823, 0.3638, 0.3073, 0.2343, 0.3027, 0.574, 0.5667], [0.4762, 0.5069, 0.3387, 0.3327, 0.4279, 0.4805, 0.6361, 0.5238, 0.4581, 0.6701, 0.6064, 0.3621, 0.3733, 0.301, 0.4417, 0.5676, 0.6718, 0.6208, 0.4325, 0.2499, 0.447, 0.4087, 0.5937, 0.5822, 0.5101, 0.55, 0.514, 0.3434, 0.3111, 0.27, 0.4387, 0.6611, 0.601, 0.479, 0.6984, 0.5189, 0.5933, 0.4532, 0.677, 0.25], [0.5814, 0.329, 0.2542, 0.3268, 0.5804, 0.6796, 0.3449, 0.3832, 0.4755, 0.3864, 0.4195, 0.3179, 0.6649, 0.6676, 0.6231, 0.4123, 0.6991, 0.5248, 0.4133, 0.4582, 0.2679, 0.2519, 0.6103, 0.4866, 0.213, 0.5126, 0.5651, 0.384, 0.5783, 0.4761, 0.2373, 0.3839, 0.3516, 0.6609, 0.6375, 0.4489, 0.2617, 0.53, 0.2853, 0.6473], [0.5024, 0.6151, 0.4834, 0.2395, 0.6528, 0.2885, 0.5634, 0.4949, 0.5804, 0.538, 0.4644, 0.3174, 0.3203, 0.492, 0.314, 0.2604, 0.501, 0.5315, 0.5879, 0.3268, 0.4137, 0.3532, 0.5039, 0.5289, 0.585, 0.2166, 0.6403, 0.5381, 0.6282, 0.3267, 0.2833, 0.2218, 0.6923, 0.3647, 0.2166, 0.2778, 0.5533, 0.3421, 0.46, 0.6696], [0.2153, 0.6463, 0.3404, 0.6209, 0.5217, 0.5892, 0.4072, 0.45, 0.4525, 0.5066, 0.2596, 0.6807, 0.5389, 0.6769, 0.5154, 0.5124, 0.6421, 0.3998, 0.4354, 0.2205, 0.6706, 0.3689, 0.4666, 0.6248, 0.4717, 0.2195, 0.5666, 0.6338, 0.3777, 0.2458, 0.2789, 0.3678, 0.236, 0.3469, 0.3928, 0.5496, 0.4699, 0.2942, 0.2385, 0.5111], [0.5403, 0.2269, 0.4479, 0.5321, 0.3513, 0.5366, 0.6521, 0.2856, 0.3491, 0.3589, 0.4142, 0.5119, 0.5903, 0.5499, 0.5567, 0.587, 0.2039, 0.6524, 0.2087, 0.4425, 0.636, 0.4339, 0.3215, 0.4247, 0.5707, 0.6536, 0.5791, 0.532, 0.4835, 0.4499, 0.2946, 0.2995, 0.5231, 0.4495, 0.2281, 0.3344, 0.3236, 0.2054, 0.6105, 0.6774], [0.6881, 0.6859, 0.6954, 0.4384, 0.4418, 0.2095, 0.4917, 0.5738, 0.6251, 0.6246, 0.2354, 0.4372, 0.5794, 0.2257, 0.4388, 0.2549, 0.3494, 0.6674, 0.3754, 0.6062, 0.4509, 0.3649, 0.2499, 0.5047, 0.3215, 0.6511, 0.6037, 0.6233, 0.5902, 0.6449, 0.475, 0.3042, 0.4602, 0.3056, 0.2769, 0.215, 0.2597, 0.5829, 0.5137, 0.6257]]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[[1, 10], [5, 10], [5, 10], [1, 10], [4, 10], [2, 10], [3, 10], [4, 10], [2, 10], [5, 10], [4, 10], [5, 10], [0, 10], [5, 10], [4, 10], [1, 10], [2, 10], [2, 10], [0, 10], [1, 10], [0, 10], [0, 10], [2, 10], [2, 10], [5, 10], [1, 10], [5, 10], [1, 10], [2, 10], [1, 10]]</t>
+          <t>[[0, 10], [5, 10], [3, 10], [3, 10], [2, 10], [4, 10], [1, 10], [2, 10], [0, 10], [5, 10], [3, 10], [3, 10], [3, 10], [3, 10], [3, 10], [4, 10], [5, 10], [0, 10], [0, 10], [5, 10], [3, 10], [3, 10], [4, 10], [3, 10], [0, 10], [3, 10], [2, 10], [0, 10], [0, 10], [0, 10], [2, 10], [0, 10], [0, 10], [2, 10], [3, 10], [5, 10], [1, 10], [0, 10], [5, 10], [2, 10]]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[10, 8, 10, 8, 4, 2, 3, 10, 8, 2, 2, 3, 4, 1, 4, 4, 9, 10, 9, 6, 5, 3, 1, 10, 6, 6, 5, 10, 8, 2]</t>
+          <t>[10, 4, 6, 2, 8, 3, 8, 6, 9, 7, 5, 8, 8, 3, 8, 1, 7, 5, 4, 5, 1, 4, 6, 1, 3, 4, 2, 4, 5, 7, 7, 2, 6, 6, 2, 6, 3, 2, 2, 9]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[[0.5928, 0.2241, 0.5537, 0.2073, 0.3862, 0.6801, 0.6873, 0.3544, 0.2336, 0.2682, 0.3398, 0.3293, 0.2105, 0.6182, 0.4024, 0.4091, 0.4403, 0.6658, 0.4941, 0.3957, 0.5067, 0.2678, 0.3506, 0.4113, 0.3206, 0.4424, 0.6807, 0.303, 0.5576, 0.6102], [0.2895, 0.2935, 0.6068, 0.4721, 0.6232, 0.2774, 0.4654, 0.4109, 0.23, 0.4413, 0.2426, 0.282, 0.3059, 0.6988, 0.5128, 0.5676, 0.6891, 0.4006, 0.2336, 0.6788, 0.4144, 0.2153, 0.5691, 0.4762, 0.2734, 0.338, 0.3037, 0.2579, 0.3933, 0.5285], [0.4962, 0.3804, 0.5012, 0.528, 0.6178, 0.4664, 0.2436, 0.5791, 0.5442, 0.4358, 0.3119, 0.5712, 0.5079, 0.3218, 0.4346, 0.3661, 0.4445, 0.2207, 0.5311, 0.4693, 0.5831, 0.3972, 0.3747, 0.5857, 0.633, 0.5435, 0.5501, 0.5537, 0.5556, 0.2043], [0.3729, 0.3457, 0.5376, 0.5508, 0.3213, 0.4984, 0.6201, 0.6061, 0.5296, 0.4668, 0.3747, 0.5534, 0.5168, 0.6863, 0.6062, 0.6145, 0.4989, 0.4331, 0.3496, 0.3005, 0.5794, 0.5995, 0.2666, 0.2115, 0.4661, 0.2248, 0.5454, 0.4085, 0.3633, 0.6961], [0.6436, 0.6035, 0.3812, 0.4728, 0.2382, 0.2003, 0.3532, 0.5002, 0.2814, 0.3536, 0.3626, 0.4499, 0.6309, 0.4858, 0.2583, 0.3, 0.6251, 0.5983, 0.6887, 0.4864, 0.4753, 0.3943, 0.2267, 0.4536, 0.3317, 0.2522, 0.5222, 0.2362, 0.4238, 0.5051], [0.3461, 0.2274, 0.5106, 0.3178, 0.5476, 0.235, 0.5129, 0.3833, 0.5055, 0.3973, 0.2326, 0.5746, 0.4876, 0.4761, 0.2683, 0.6851, 0.6836, 0.2392, 0.3512, 0.3745, 0.3305, 0.2037, 0.3127, 0.3623, 0.2872, 0.4258, 0.3414, 0.2296, 0.4319, 0.3692], [0.2582, 0.5208, 0.4083, 0.5859, 0.6885, 0.5758, 0.5905, 0.6426, 0.205, 0.3707, 0.379, 0.4578, 0.2661, 0.5755, 0.2172, 0.5229, 0.4885, 0.3651, 0.6909, 0.4327, 0.2035, 0.5269, 0.4173, 0.48, 0.4028, 0.5771, 0.3186, 0.3931, 0.6615, 0.3092], [0.3853, 0.2897, 0.4142, 0.6215, 0.3202, 0.226, 0.2224, 0.6888, 0.41, 0.3238, 0.3566, 0.2935, 0.3992, 0.5328, 0.4513, 0.3957, 0.5025, 0.508, 0.3665, 0.6675, 0.4772, 0.4367, 0.4844, 0.4017, 0.5586, 0.4547, 0.2671, 0.3325, 0.6715, 0.6303], [0.6271, 0.3907, 0.3687, 0.232, 0.5136, 0.6507, 0.3497, 0.3459, 0.5745, 0.4362, 0.4619, 0.6578, 0.6388, 0.5823, 0.4479, 0.6852, 0.3978, 0.3428, 0.656, 0.3725, 0.4596, 0.2996, 0.6905, 0.4888, 0.6652, 0.4364, 0.4797, 0.5684, 0.4926, 0.2344], [0.6463, 0.2412, 0.2167, 0.5871, 0.2362, 0.4646, 0.2275, 0.2296, 0.6171, 0.6913, 0.445, 0.6684, 0.4516, 0.3055, 0.5935, 0.4176, 0.3805, 0.3477, 0.5606, 0.2288, 0.2926, 0.6136, 0.6612, 0.5035, 0.7, 0.3399, 0.2522, 0.6679, 0.2637, 0.202], [0.5679, 0.6802, 0.4346, 0.2008, 0.2131, 0.6982, 0.5085, 0.681, 0.6635, 0.4788, 0.2126, 0.2326, 0.2998, 0.2871, 0.4282, 0.3799, 0.5249, 0.6423, 0.5083, 0.2821, 0.254, 0.3661, 0.2395, 0.2798, 0.4356, 0.3886, 0.233, 0.5315, 0.5309, 0.4291], [0.6832, 0.354, 0.5399, 0.3717, 0.3838, 0.2565, 0.3804, 0.5393, 0.6349, 0.3426, 0.6051, 0.3872, 0.3083, 0.4963, 0.6299, 0.2694, 0.3474, 0.5947, 0.4318, 0.3811, 0.3605, 0.4884, 0.4119, 0.3276, 0.5513, 0.2049, 0.3887, 0.3787, 0.6436, 0.3556], [0.6506, 0.6339, 0.6358, 0.5446, 0.2113, 0.52, 0.3736, 0.4519, 0.6279, 0.6759, 0.4852, 0.2125, 0.5069, 0.499, 0.2763, 0.3591, 0.5039, 0.5423, 0.5434, 0.6231, 0.5295, 0.2846, 0.3377, 0.2933, 0.528, 0.5565, 0.2259, 0.2962, 0.2075, 0.5123], [0.3536, 0.5053, 0.3285, 0.3589, 0.2248, 0.3041, 0.5187, 0.2269, 0.6333, 0.688, 0.2233, 0.5872, 0.5845, 0.6567, 0.4428, 0.4426, 0.3669, 0.3337, 0.5293, 0.7, 0.4483, 0.4167, 0.6919, 0.6423, 0.2966, 0.3807, 0.6483, 0.6593, 0.4447, 0.5221], [0.4936, 0.4001, 0.4237, 0.6962, 0.5208, 0.6233, 0.439, 0.3764, 0.5804, 0.4867, 0.4287, 0.2007, 0.5096, 0.332, 0.2973, 0.5914, 0.5028, 0.4848, 0.5076, 0.5592, 0.3998, 0.3356, 0.5076, 0.4464, 0.2174, 0.4385, 0.5656, 0.522, 0.3814, 0.2037], [0.4064, 0.6458, 0.4312, 0.4596, 0.3506, 0.5512, 0.6225, 0.5976, 0.2648, 0.5877, 0.5028, 0.3488, 0.6457, 0.466, 0.4914, 0.3882, 0.5175, 0.611, 0.293, 0.2427, 0.6362, 0.2303, 0.2606, 0.2336, 0.3784, 0.3828, 0.4159, 0.281, 0.2474, 0.266], [0.2715, 0.653, 0.3696, 0.4895, 0.2503, 0.4552, 0.5022, 0.406, 0.2906, 0.2261, 0.2635, 0.265, 0.5256, 0.5056, 0.5044, 0.2968, 0.5517, 0.4406, 0.6627, 0.4418, 0.2578, 0.3028, 0.6694, 0.4602, 0.263, 0.4043, 0.5797, 0.2909, 0.6726, 0.6164], [0.2308, 0.57, 0.6782, 0.6567, 0.3046, 0.6582, 0.5347, 0.2988, 0.633, 0.3672, 0.2563, 0.5753, 0.6304, 0.4604, 0.5178, 0.2076, 0.6402, 0.2834, 0.3132, 0.6387, 0.3261, 0.4768, 0.6164, 0.5071, 0.4046, 0.5821, 0.5863, 0.6201, 0.4359, 0.2307], [0.589, 0.3057, 0.2073, 0.3987, 0.3033, 0.2651, 0.299, 0.5768, 0.6676, 0.435, 0.5744, 0.5098, 0.3489, 0.6884, 0.6249, 0.4986, 0.326, 0.6515, 0.221, 0.5936, 0.4578, 0.3169, 0.3721, 0.2423, 0.4077, 0.5321, 0.5241, 0.3324, 0.589, 0.4598], [0.6273, 0.2935, 0.2391, 0.2807, 0.3475, 0.6138, 0.371, 0.2834, 0.228, 0.3812, 0.6124, 0.588, 0.3167, 0.629, 0.6983, 0.4196, 0.4328, 0.4498, 0.3134, 0.2501, 0.2074, 0.6647, 0.5379, 0.3989, 0.6211, 0.4612, 0.6301, 0.3321, 0.2493, 0.4429], [0.3852, 0.3822, 0.6951, 0.3558, 0.3813, 0.3368, 0.6297, 0.5179, 0.6122, 0.6448, 0.2991, 0.3677, 0.6262, 0.281, 0.2327, 0.6385, 0.4492, 0.4696, 0.2334, 0.6084, 0.5865, 0.5929, 0.5451, 0.3058, 0.5416, 0.2621, 0.4836, 0.3919, 0.6424, 0.2692], [0.6019, 0.2248, 0.6947, 0.4822, 0.2132, 0.6562, 0.5814, 0.6593, 0.6298, 0.5648, 0.5247, 0.598, 0.2733, 0.5642, 0.3385, 0.4722, 0.646, 0.4995, 0.3683, 0.4691, 0.431, 0.6059, 0.3363, 0.5009, 0.3055, 0.5816, 0.6257, 0.2141, 0.2025, 0.2014], [0.3257, 0.5496, 0.4729, 0.5082, 0.3594, 0.4381, 0.2102, 0.2653, 0.6444, 0.6331, 0.4516, 0.6458, 0.442, 0.5162, 0.2099, 0.6763, 0.3053, 0.462, 0.6089, 0.6556, 0.4605, 0.3364, 0.6837, 0.3159, 0.6902, 0.286, 0.3228, 0.3463, 0.4326, 0.4085], [0.6276, 0.5453, 0.4101, 0.236, 0.5912, 0.6476, 0.542, 0.2936, 0.6816, 0.4252, 0.3475, 0.2255, 0.4225, 0.6835, 0.5457, 0.2792, 0.4629, 0.6503, 0.4673, 0.4583, 0.4396, 0.423, 0.526, 0.3373, 0.6687, 0.205, 0.2203, 0.2682, 0.5305, 0.6046], [0.2118, 0.5431, 0.5623, 0.2766, 0.6869, 0.4771, 0.3362, 0.5778, 0.4368, 0.4599, 0.2915, 0.4783, 0.5638, 0.2861, 0.2239, 0.6243, 0.5475, 0.5932, 0.3841, 0.4234, 0.6574, 0.3014, 0.2257, 0.6872, 0.4927, 0.2416, 0.2845, 0.3489, 0.4937, 0.5978], [0.4282, 0.4783, 0.4586, 0.5192, 0.2607, 0.5026, 0.2196, 0.2787, 0.6556, 0.6814, 0.4071, 0.4942, 0.6552, 0.2522, 0.2699, 0.5948, 0.6972, 0.6661, 0.4506, 0.4092, 0.4136, 0.518, 0.3145, 0.2678, 0.3353, 0.2274, 0.6804, 0.6901, 0.5845, 0.201], [0.4119, 0.2454, 0.5738, 0.542, 0.2749, 0.3988, 0.6189, 0.2865, 0.4755, 0.271, 0.2648, 0.3469, 0.4498, 0.2706, 0.4773, 0.284, 0.6931, 0.3171, 0.6557, 0.2719, 0.3201, 0.418, 0.2446, 0.3893, 0.3117, 0.286, 0.55, 0.5931, 0.526, 0.6544], [0.6124, 0.4421, 0.4088, 0.6394, 0.6473, 0.2084, 0.6551, 0.342, 0.4055, 0.6537, 0.2981, 0.6756, 0.2689, 0.6404, 0.4282, 0.2356, 0.6777, 0.5837, 0.2306, 0.507, 0.3997, 0.5458, 0.4951, 0.3976, 0.5239, 0.3538, 0.298, 0.3009, 0.6079, 0.3245], [0.6823, 0.5362, 0.4304, 0.3103, 0.6742, 0.4535, 0.3809, 0.3415, 0.3206, 0.3246, 0.2563, 0.6506, 0.2835, 0.3706, 0.4422, 0.2774, 0.5837, 0.6332, 0.5823, 0.3253, 0.4396, 0.4574, 0.5138, 0.4382, 0.2941, 0.6272, 0.5268, 0.6402, 0.4746, 0.313], [0.654, 0.3581, 0.6519, 0.3952, 0.552, 0.4471, 0.6583, 0.5057, 0.2577, 0.2712, 0.5641, 0.5532, 0.5451, 0.2987, 0.5008, 0.2804, 0.3785, 0.5612, 0.4844, 0.3044, 0.392, 0.4141, 0.6147, 0.5019, 0.3257, 0.4012, 0.6453, 0.4162, 0.6736, 0.4008]]</t>
+          <t>[[0.3712, 0.372, 0.2943, 0.5227, 0.5215, 0.2972, 0.2283, 0.2803, 0.2339, 0.2522, 0.3899, 0.26, 0.2501, 0.6606, 0.4529, 0.5391, 0.6667, 0.2768, 0.2231, 0.4305, 0.6702, 0.4689, 0.5514, 0.5467, 0.4533, 0.4128, 0.6027, 0.369, 0.6957, 0.6125, 0.41, 0.5756, 0.512, 0.2852, 0.3885, 0.3441, 0.4754, 0.4233, 0.59, 0.3395], [0.5837, 0.613, 0.4702, 0.5152, 0.2516, 0.485, 0.4518, 0.6713, 0.5891, 0.2598, 0.3664, 0.6139, 0.3916, 0.6551, 0.227, 0.2048, 0.3806, 0.6656, 0.3002, 0.4321, 0.4726, 0.4211, 0.4315, 0.4344, 0.5494, 0.6687, 0.5202, 0.4242, 0.4697, 0.2787, 0.2522, 0.2662, 0.6662, 0.3548, 0.3075, 0.3293, 0.6853, 0.5712, 0.4474, 0.4692], [0.404, 0.4425, 0.5863, 0.2749, 0.6, 0.2703, 0.3422, 0.2456, 0.2239, 0.2595, 0.3559, 0.5796, 0.328, 0.3015, 0.4721, 0.6758, 0.2369, 0.3998, 0.5093, 0.3272, 0.3557, 0.2614, 0.6095, 0.2036, 0.2021, 0.4006, 0.3971, 0.3699, 0.2185, 0.5507, 0.5597, 0.2865, 0.2066, 0.6528, 0.55, 0.5707, 0.3437, 0.441, 0.3008, 0.3557], [0.3545, 0.5254, 0.3474, 0.212, 0.4182, 0.2026, 0.2434, 0.2742, 0.227, 0.4765, 0.488, 0.346, 0.6956, 0.271, 0.2707, 0.5112, 0.2927, 0.5153, 0.2991, 0.5136, 0.2753, 0.4429, 0.433, 0.4987, 0.3165, 0.3998, 0.3214, 0.4384, 0.664, 0.6505, 0.6852, 0.2833, 0.4461, 0.2813, 0.2444, 0.3035, 0.6549, 0.3859, 0.3831, 0.4936], [0.4178, 0.393, 0.6215, 0.2917, 0.4612, 0.3808, 0.4619, 0.4883, 0.672, 0.6554, 0.2724, 0.3557, 0.6284, 0.2047, 0.4045, 0.5899, 0.5757, 0.5388, 0.4681, 0.4931, 0.2949, 0.2953, 0.2939, 0.2351, 0.5393, 0.4451, 0.4255, 0.3429, 0.6457, 0.2123, 0.4919, 0.6232, 0.4135, 0.6107, 0.5981, 0.3817, 0.4415, 0.6715, 0.2733, 0.6481], [0.6828, 0.6706, 0.4689, 0.6253, 0.382, 0.5674, 0.2343, 0.4967, 0.2466, 0.5874, 0.6617, 0.2234, 0.4004, 0.5656, 0.2177, 0.572, 0.5367, 0.3403, 0.6892, 0.4511, 0.2743, 0.6198, 0.6789, 0.522, 0.6497, 0.4124, 0.6225, 0.3353, 0.2175, 0.6909, 0.442, 0.6918, 0.6407, 0.5448, 0.4272, 0.4969, 0.5414, 0.3446, 0.5646, 0.5654], [0.357, 0.5329, 0.4166, 0.5464, 0.2827, 0.3818, 0.2012, 0.6665, 0.3701, 0.3495, 0.3549, 0.6407, 0.2319, 0.4206, 0.5043, 0.4996, 0.4329, 0.2582, 0.2409, 0.6264, 0.2694, 0.6255, 0.3516, 0.6692, 0.543, 0.3192, 0.3938, 0.2834, 0.3712, 0.3259, 0.6623, 0.6219, 0.4487, 0.5155, 0.3123, 0.4433, 0.6414, 0.4864, 0.5157, 0.3503], [0.6309, 0.6551, 0.6151, 0.3161, 0.4535, 0.6401, 0.5052, 0.3452, 0.5474, 0.5571, 0.2617, 0.3441, 0.4728, 0.4157, 0.5727, 0.492, 0.4032, 0.4779, 0.3721, 0.4236, 0.2638, 0.3825, 0.5158, 0.2173, 0.4724, 0.6194, 0.4038, 0.6688, 0.4866, 0.2703, 0.4875, 0.2567, 0.4575, 0.2954, 0.5145, 0.333, 0.3486, 0.5597, 0.4294, 0.3499], [0.6026, 0.2742, 0.5876, 0.6233, 0.6659, 0.3423, 0.272, 0.4973, 0.4886, 0.3572, 0.4198, 0.4505, 0.6774, 0.6396, 0.2218, 0.6019, 0.238, 0.5774, 0.454, 0.6225, 0.4153, 0.6286, 0.3869, 0.4573, 0.6606, 0.4177, 0.2831, 0.6094, 0.4381, 0.2068, 0.4781, 0.2484, 0.6413, 0.3827, 0.5545, 0.483, 0.6344, 0.6261, 0.3791, 0.6636], [0.48, 0.5924, 0.6351, 0.2568, 0.3526, 0.5572, 0.4741, 0.6197, 0.6641, 0.4214, 0.4133, 0.6593, 0.2655, 0.2821, 0.2141, 0.6868, 0.223, 0.4227, 0.4394, 0.5357, 0.5807, 0.6749, 0.6432, 0.4107, 0.4975, 0.5749, 0.505, 0.5969, 0.4035, 0.6155, 0.5578, 0.6161, 0.2218, 0.2693, 0.2956, 0.4322, 0.2844, 0.3537, 0.6727, 0.6232], [0.5007, 0.3851, 0.3725, 0.2675, 0.4875, 0.2432, 0.4523, 0.3659, 0.3631, 0.5253, 0.5314, 0.2294, 0.2955, 0.2111, 0.2332, 0.6864, 0.5908, 0.2248, 0.226, 0.2174, 0.4611, 0.3348, 0.2104, 0.3758, 0.2677, 0.4458, 0.597, 0.333, 0.6209, 0.5472, 0.475, 0.2724, 0.5763, 0.5762, 0.3201, 0.5007, 0.5904, 0.2129, 0.2676, 0.2462], [0.5859, 0.4555, 0.6599, 0.2079, 0.3694, 0.3217, 0.4983, 0.4913, 0.4255, 0.4612, 0.5105, 0.6075, 0.593, 0.3124, 0.3348, 0.3595, 0.2852, 0.6187, 0.4768, 0.5255, 0.5557, 0.5824, 0.5943, 0.6188, 0.2083, 0.4722, 0.2035, 0.6303, 0.3581, 0.2086, 0.3527, 0.5388, 0.5611, 0.4641, 0.4346, 0.5403, 0.3778, 0.4185, 0.688, 0.5773], [0.5329, 0.5708, 0.6674, 0.5295, 0.4878, 0.3921, 0.6938, 0.4608, 0.3798, 0.2385, 0.4841, 0.5039, 0.632, 0.401, 0.3586, 0.3991, 0.5626, 0.3899, 0.5749, 0.5859, 0.3895, 0.6593, 0.6021, 0.3951, 0.6116, 0.219, 0.3919, 0.6203, 0.4968, 0.412, 0.3546, 0.4497, 0.626, 0.2942, 0.2964, 0.4299, 0.2687, 0.4309, 0.4083, 0.5357], [0.6349, 0.4797, 0.5975, 0.3745, 0.6843, 0.6176, 0.6377, 0.5279, 0.494, 0.6612, 0.547, 0.4503, 0.6224, 0.2075, 0.6609, 0.3574, 0.5825, 0.6805, 0.6387, 0.505, 0.4017, 0.4395, 0.302, 0.5169, 0.6226, 0.6584, 0.4037, 0.627, 0.3181, 0.2533, 0.2252, 0.4555, 0.5871, 0.469, 0.3968, 0.543, 0.3181, 0.6686, 0.4964, 0.3426], [0.6038, 0.5072, 0.6175, 0.5513, 0.2258, 0.3318, 0.5723, 0.2754, 0.3699, 0.2831, 0.3038, 0.3154, 0.2763, 0.4315, 0.5067, 0.5184, 0.5228, 0.2789, 0.6613, 0.5556, 0.5149, 0.6541, 0.6258, 0.4702, 0.6582, 0.4993, 0.5496, 0.4819, 0.5338, 0.6347, 0.6984, 0.4431, 0.3733, 0.2432, 0.3664, 0.5849, 0.4137, 0.6947, 0.5992, 0.3649], [0.2099, 0.3731, 0.3523, 0.2569, 0.2818, 0.6548, 0.5697, 0.4607, 0.2766, 0.2457, 0.2073, 0.4, 0.4796, 0.3468, 0.3073, 0.3145, 0.2461, 0.4326, 0.6869, 0.5599, 0.2479, 0.4878, 0.5961, 0.3499, 0.653, 0.6713, 0.4995, 0.4737, 0.4208, 0.3543, 0.5394, 0.4069, 0.6817, 0.2509, 0.4051, 0.5937, 0.2769, 0.2664, 0.3764, 0.3781], [0.6174, 0.5814, 0.4985, 0.6361, 0.2027, 0.2763, 0.3658, 0.6314, 0.4762, 0.5811, 0.3718, 0.3546, 0.5587, 0.6619, 0.2971, 0.4494, 0.6658, 0.3597, 0.6935, 0.4642, 0.4685, 0.4504, 0.6691, 0.6839, 0.2656, 0.2833, 0.5119, 0.2761, 0.6661, 0.563, 0.3141, 0.4539, 0.2443, 0.6813, 0.3147, 0.5135, 0.3312, 0.3685, 0.3289, 0.5817], [0.5274, 0.5241, 0.3642, 0.5154, 0.3329, 0.6857, 0.501, 0.5402, 0.4821, 0.4026, 0.6684, 0.3422, 0.5025, 0.2142, 0.4058, 0.5615, 0.3096, 0.4702, 0.6597, 0.2325, 0.3063, 0.5041, 0.484, 0.5566, 0.5693, 0.2505, 0.3572, 0.4813, 0.2092, 0.6477, 0.2532, 0.2172, 0.2249, 0.207, 0.5332, 0.5601, 0.6243, 0.3341, 0.2438, 0.2463], [0.3431, 0.4292, 0.5843, 0.6364, 0.5766, 0.2025, 0.3111, 0.2089, 0.5235, 0.5192, 0.4881, 0.5893, 0.4388, 0.5306, 0.6965, 0.6979, 0.307, 0.5182, 0.6526, 0.634, 0.6305, 0.6287, 0.5197, 0.2509, 0.6197, 0.5801, 0.328, 0.6374, 0.5292, 0.3711, 0.3856, 0.6457, 0.6222, 0.5614, 0.2438, 0.2181, 0.3321, 0.3608, 0.6608, 0.5622], [0.5081, 0.3805, 0.4508, 0.2263, 0.2734, 0.5426, 0.6281, 0.424, 0.4538, 0.5775, 0.2532, 0.25, 0.5217, 0.655, 0.5074, 0.301, 0.3523, 0.4644, 0.3013, 0.6859, 0.6143, 0.3397, 0.5368, 0.2919, 0.3821, 0.2929, 0.6517, 0.5827, 0.4784, 0.4655, 0.3143, 0.4401, 0.4035, 0.4376, 0.6326, 0.5554, 0.5111, 0.427, 0.4494, 0.3608], [0.4137, 0.2078, 0.2801, 0.6036, 0.2265, 0.2485, 0.5144, 0.6948, 0.5303, 0.6503, 0.2866, 0.5098, 0.583, 0.4499, 0.2325, 0.4043, 0.6174, 0.3512, 0.4416, 0.3598, 0.5677, 0.2957, 0.3553, 0.359, 0.2061, 0.5414, 0.3247, 0.3698, 0.4389, 0.5567, 0.2458, 0.205, 0.4816, 0.5315, 0.2879, 0.2948, 0.2944, 0.2708, 0.6681, 0.3566], [0.2424, 0.3378, 0.5975, 0.3023, 0.2496, 0.2231, 0.671, 0.4567, 0.6301, 0.4627, 0.3249, 0.6355, 0.2232, 0.5501, 0.6796, 0.4206, 0.651, 0.2453, 0.6389, 0.2423, 0.6751, 0.6257, 0.4979, 0.6032, 0.5365, 0.5556, 0.5495, 0.6522, 0.461, 0.3595, 0.5715, 0.4881, 0.4511, 0.2889, 0.3214, 0.3604, 0.4835, 0.2267, 0.5181, 0.3658], [0.6035, 0.6469, 0.5448, 0.2763, 0.2278, 0.2235, 0.3259, 0.2968, 0.6868, 0.3458, 0.4966, 0.6747, 0.3713, 0.6924, 0.3182, 0.233, 0.5567, 0.2037, 0.6594, 0.3473, 0.2134, 0.4994, 0.3953, 0.4659, 0.2598, 0.6567, 0.2922, 0.5537, 0.5977, 0.6356, 0.6179, 0.505, 0.4489, 0.5009, 0.6185, 0.2613, 0.5708, 0.5651, 0.4314, 0.4367], [0.6471, 0.511, 0.3576, 0.2109, 0.4635, 0.6472, 0.5795, 0.3314, 0.6286, 0.3197, 0.2916, 0.4337, 0.6332, 0.5249, 0.2566, 0.4236, 0.6303, 0.5682, 0.5559, 0.4139, 0.588, 0.6007, 0.424, 0.5105, 0.4086, 0.3183, 0.5646, 0.5964, 0.4205, 0.4921, 0.4047, 0.4122, 0.4999, 0.331, 0.3063, 0.3328, 0.6082, 0.6749, 0.461, 0.2329], [0.5325, 0.4295, 0.6278, 0.2448, 0.2347, 0.3231, 0.6399, 0.6838, 0.4093, 0.416, 0.5494, 0.6806, 0.2116, 0.4754, 0.2752, 0.5358, 0.2789, 0.5083, 0.5859, 0.5444, 0.6792, 0.6907, 0.2657, 0.547, 0.2006, 0.6332, 0.4036, 0.6015, 0.3489, 0.5711, 0.2204, 0.3976, 0.6498, 0.3017, 0.5129, 0.293, 0.3973, 0.4921, 0.425, 0.5183], [0.3443, 0.3348, 0.2592, 0.5354, 0.6068, 0.5528, 0.5544, 0.4241, 0.669, 0.274, 0.472, 0.2073, 0.2037, 0.2779, 0.5897, 0.3327, 0.2056, 0.2748, 0.496, 0.4989, 0.4966, 0.2566, 0.5704, 0.5008, 0.6545, 0.5405, 0.4631, 0.2289, 0.3347, 0.3974, 0.3313, 0.5395, 0.4701, 0.6413, 0.227, 0.3497, 0.4385, 0.2355, 0.6629, 0.2785], [0.3214, 0.5035, 0.3924, 0.5141, 0.3061, 0.3537, 0.4755, 0.484, 0.4311, 0.415, 0.2842, 0.3179, 0.2943, 0.6594, 0.4146, 0.5265, 0.5551, 0.3617, 0.6338, 0.42, 0.665, 0.5584, 0.3228, 0.4384, 0.2048, 0.4051, 0.3169, 0.6403, 0.683, 0.376, 0.265, 0.3203, 0.3809, 0.6685, 0.2886, 0.4033, 0.4814, 0.4022, 0.5662, 0.5167], [0.4829, 0.6408, 0.5148, 0.2211, 0.575, 0.6128, 0.5501, 0.6829, 0.5964, 0.2752, 0.5837, 0.3046, 0.6336, 0.3505, 0.2392, 0.2981, 0.6867, 0.2821, 0.5382, 0.6526, 0.5356, 0.3292, 0.3345, 0.2541, 0.4795, 0.6931, 0.5332, 0.3026, 0.5315, 0.5832, 0.4517, 0.6688, 0.6818, 0.397, 0.3271, 0.307, 0.6914, 0.4619, 0.3282, 0.384], [0.3406, 0.6625, 0.5366, 0.6867, 0.4474, 0.3988, 0.6971, 0.491, 0.4772, 0.5077, 0.3462, 0.6273, 0.6528, 0.5292, 0.4802, 0.5718, 0.5582, 0.3198, 0.5986, 0.3345, 0.5112, 0.3442, 0.4284, 0.322, 0.5101, 0.2153, 0.648, 0.3178, 0.3247, 0.201, 0.2556, 0.4458, 0.5337, 0.6218, 0.4205, 0.3111, 0.5907, 0.6355, 0.5846, 0.5153], [0.4062, 0.5275, 0.3955, 0.2741, 0.624, 0.573, 0.3259, 0.5962, 0.4465, 0.4507, 0.417, 0.4874, 0.3018, 0.6615, 0.4414, 0.2352, 0.662, 0.6115, 0.6486, 0.6583, 0.274, 0.6205, 0.4209, 0.5757, 0.6031, 0.4142, 0.5231, 0.5409, 0.6944, 0.3634, 0.2569, 0.4753, 0.3377, 0.2989, 0.547, 0.6688, 0.3587, 0.2758, 0.6655, 0.6461], [0.6935, 0.4015, 0.525, 0.211, 0.3691, 0.3533, 0.3146, 0.346, 0.3826, 0.4641, 0.6706, 0.5408, 0.4734, 0.4922, 0.3693, 0.4549, 0.3002, 0.5286, 0.2375, 0.364, 0.5205, 0.6703, 0.6476, 0.6222, 0.2093, 0.347, 0.2019, 0.6857, 0.4362, 0.4299, 0.2933, 0.5498, 0.4465, 0.4967, 0.3255, 0.552, 0.3464, 0.4289, 0.5545, 0.2724], [0.4121, 0.3793, 0.6231, 0.5363, 0.5048, 0.2638, 0.6797, 0.3983, 0.4747, 0.4156, 0.5048, 0.4635, 0.5584, 0.2332, 0.3527, 0.2421, 0.4772, 0.4748, 0.3552, 0.5398, 0.5964, 0.4426, 0.2608, 0.45, 0.5822, 0.6068, 0.6704, 0.5421, 0.2347, 0.4857, 0.3531, 0.4606, 0.3476, 0.5886, 0.3314, 0.5049, 0.4919, 0.6671, 0.6244, 0.4181], [0.5206, 0.3125, 0.423, 0.355, 0.3113, 0.3572, 0.2516, 0.5013, 0.5108, 0.3775, 0.4295, 0.4926, 0.6043, 0.5197, 0.5225, 0.5722, 0.5908, 0.4336, 0.2281, 0.2769, 0.5229, 0.6127, 0.5895, 0.6982, 0.2293, 0.4101, 0.2468, 0.5296, 0.4481, 0.4055, 0.3737, 0.3568, 0.4412, 0.4447, 0.5716, 0.4281, 0.5547, 0.6424, 0.3272, 0.6142], [0.6766, 0.3862, 0.3064, 0.4991, 0.3271, 0.6993, 0.3125, 0.3775, 0.6417, 0.6357, 0.4555, 0.4988, 0.6755, 0.2694, 0.2987, 0.5603, 0.5275, 0.2084, 0.3882, 0.6108, 0.536, 0.6588, 0.2315, 0.2763, 0.4172, 0.6778, 0.4494, 0.6915, 0.4461, 0.299, 0.4639, 0.3023, 0.2833, 0.4223, 0.5145, 0.454, 0.6929, 0.3516, 0.4654, 0.5148], [0.2219, 0.6436, 0.4898, 0.218, 0.4648, 0.63, 0.3313, 0.3944, 0.2629, 0.2842, 0.4222, 0.589, 0.2346, 0.6533, 0.6777, 0.5696, 0.5202, 0.4367, 0.5773, 0.2241, 0.4053, 0.6302, 0.2336, 0.6371, 0.5853, 0.6963, 0.5601, 0.2322, 0.4788, 0.2914, 0.6967, 0.5475, 0.4913, 0.6073, 0.5366, 0.2342, 0.3467, 0.3615, 0.377, 0.5825], [0.3736, 0.382, 0.5324, 0.2258, 0.5996, 0.3781, 0.4026, 0.3822, 0.6096, 0.5385, 0.2751, 0.3043, 0.3836, 0.2872, 0.2505, 0.2469, 0.2159, 0.3518, 0.4083, 0.4543, 0.5154, 0.4238, 0.5083, 0.6663, 0.3362, 0.2541, 0.6802, 0.5191, 0.641, 0.3578, 0.4466, 0.2836, 0.5783, 0.5102, 0.3413, 0.562, 0.5147, 0.4516, 0.5261, 0.2492], [0.6733, 0.2263, 0.3242, 0.4798, 0.6084, 0.3695, 0.3406, 0.6396, 0.2191, 0.5387, 0.3059, 0.3393, 0.6715, 0.4969, 0.6308, 0.2669, 0.5661, 0.458, 0.2478, 0.5231, 0.4893, 0.3297, 0.2045, 0.6717, 0.5657, 0.5267, 0.3616, 0.3683, 0.4422, 0.4769, 0.6106, 0.4729, 0.6894, 0.5332, 0.5131, 0.6658, 0.2421, 0.6299, 0.4226, 0.3689], [0.5013, 0.6706, 0.4111, 0.4299, 0.502, 0.4857, 0.4303, 0.2289, 0.3771, 0.2359, 0.4039, 0.6088, 0.5167, 0.2374, 0.2549, 0.5476, 0.2779, 0.5712, 0.4113, 0.4368, 0.216, 0.6702, 0.4878, 0.2752, 0.5836, 0.5095, 0.2507, 0.4014, 0.6696, 0.3891, 0.2027, 0.2107, 0.2339, 0.5609, 0.5349, 0.3953, 0.5997, 0.2811, 0.2834, 0.4041], [0.5835, 0.3021, 0.2114, 0.2969, 0.644, 0.4941, 0.2254, 0.2321, 0.3704, 0.2933, 0.3155, 0.382, 0.3634, 0.3544, 0.6913, 0.6527, 0.6141, 0.323, 0.6682, 0.2956, 0.5863, 0.3246, 0.4258, 0.635, 0.4632, 0.2976, 0.2043, 0.5984, 0.3104, 0.304, 0.2514, 0.2543, 0.2713, 0.2067, 0.2528, 0.2343, 0.2229, 0.6994, 0.6087, 0.6017], [0.5318, 0.5321, 0.3977, 0.5198, 0.2325, 0.5547, 0.4925, 0.5283, 0.2822, 0.2828, 0.4458, 0.6224, 0.6912, 0.3456, 0.313, 0.6749, 0.4425, 0.4263, 0.5379, 0.2107, 0.6767, 0.2118, 0.4165, 0.2126, 0.3299, 0.5267, 0.621, 0.23, 0.295, 0.6243, 0.6514, 0.4609, 0.6415, 0.6393, 0.6844, 0.4093, 0.6461, 0.2771, 0.4765, 0.6124]]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[[1, 10], [3, 10], [2, 10], [2, 10], [0, 10], [1, 10], [0, 10], [4, 10], [2, 10], [2, 10], [4, 10], [4, 10], [5, 10], [3, 10], [5, 10], [2, 10], [2, 10], [5, 10], [3, 10], [3, 10], [0, 10], [4, 10], [5, 10], [4, 10], [2, 10], [4, 10], [1, 10], [3, 10], [3, 10], [0, 10]]</t>
+          <t>[[0, 10], [0, 10], [3, 10], [4, 10], [3, 10], [1, 10], [1, 10], [4, 10], [4, 10], [3, 10], [1, 10], [4, 10], [3, 10], [5, 10], [3, 10], [2, 10], [5, 10], [3, 10], [5, 10], [4, 10], [5, 10], [5, 10], [0, 10], [1, 10], [0, 10], [2, 10], [0, 10], [5, 10], [5, 10], [1, 10], [5, 10], [0, 10], [2, 10], [2, 10], [2, 10], [0, 10], [5, 10], [0, 10], [2, 10], [2, 10]]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[5, 6, 6, 2, 8, 3, 4, 1, 2, 5, 3, 9, 1, 10, 3, 10, 3, 9, 1, 7, 10, 1, 9, 5, 9, 6, 6, 6, 7, 5]</t>
+          <t>[4, 2, 7, 3, 7, 3, 10, 1, 10, 8, 3, 7, 10, 9, 9, 1, 8, 5, 8, 9, 8, 3, 2, 9, 3, 1, 8, 9, 5, 7, 5, 2, 5, 4, 4, 8, 3, 1, 9, 10]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[[0.3112, 0.3652, 0.3408, 0.6373, 0.6218, 0.6832, 0.2432, 0.229, 0.4268, 0.4586, 0.315, 0.2054, 0.6657, 0.5093, 0.4754, 0.5076, 0.6881, 0.4072, 0.2625, 0.2626, 0.3181, 0.2399, 0.6065, 0.5328, 0.6781, 0.5348, 0.4948, 0.6814, 0.558, 0.687], [0.524, 0.2874, 0.2481, 0.2605, 0.6087, 0.5297, 0.6382, 0.5848, 0.6896, 0.287, 0.3672, 0.53, 0.4386, 0.3731, 0.6122, 0.5705, 0.5265, 0.636, 0.4172, 0.409, 0.4617, 0.2171, 0.3238, 0.2299, 0.2448, 0.2419, 0.3691, 0.2447, 0.4583, 0.4666], [0.4718, 0.5309, 0.4153, 0.2001, 0.518, 0.6062, 0.658, 0.5709, 0.3887, 0.3184, 0.2516, 0.3523, 0.5139, 0.6625, 0.3425, 0.2496, 0.6749, 0.3536, 0.6599, 0.5963, 0.5101, 0.6956, 0.5097, 0.5843, 0.4498, 0.4728, 0.4748, 0.4376, 0.4847, 0.5543], [0.2216, 0.6495, 0.4249, 0.507, 0.3413, 0.2101, 0.3294, 0.5839, 0.3345, 0.2407, 0.3799, 0.5055, 0.6999, 0.476, 0.6, 0.5033, 0.2599, 0.5745, 0.6648, 0.554, 0.4054, 0.2919, 0.4205, 0.225, 0.5791, 0.225, 0.5862, 0.2312, 0.3393, 0.4655], [0.4182, 0.339, 0.2108, 0.5671, 0.5088, 0.6311, 0.2771, 0.3824, 0.4801, 0.2498, 0.3712, 0.3688, 0.607, 0.2149, 0.5998, 0.2644, 0.5015, 0.6613, 0.2534, 0.6558, 0.4962, 0.5299, 0.2962, 0.3374, 0.2065, 0.3509, 0.6343, 0.2142, 0.2405, 0.2144], [0.3265, 0.2603, 0.4286, 0.4326, 0.2484, 0.3364, 0.5003, 0.5159, 0.3685, 0.4461, 0.4922, 0.5278, 0.6572, 0.4657, 0.5964, 0.5252, 0.309, 0.5648, 0.5377, 0.5509, 0.3763, 0.3249, 0.5405, 0.6426, 0.5512, 0.2904, 0.6566, 0.5911, 0.3164, 0.2566], [0.4172, 0.6301, 0.3553, 0.3097, 0.6827, 0.2269, 0.4401, 0.5436, 0.2811, 0.2281, 0.3875, 0.4459, 0.4657, 0.5944, 0.4154, 0.3176, 0.501, 0.6417, 0.3877, 0.4688, 0.3922, 0.6831, 0.4387, 0.4671, 0.3142, 0.6895, 0.4032, 0.2309, 0.2077, 0.4224], [0.6674, 0.3326, 0.2658, 0.2935, 0.2008, 0.3865, 0.4045, 0.2275, 0.6475, 0.2755, 0.3257, 0.2736, 0.5407, 0.6698, 0.5597, 0.6781, 0.5162, 0.6188, 0.5325, 0.6857, 0.5417, 0.354, 0.3549, 0.325, 0.2208, 0.2029, 0.3638, 0.4826, 0.6648, 0.3316], [0.3163, 0.6114, 0.2956, 0.2272, 0.4726, 0.4982, 0.5837, 0.5114, 0.6592, 0.3747, 0.3728, 0.207, 0.5008, 0.2854, 0.4993, 0.5792, 0.4232, 0.4117, 0.5059, 0.4614, 0.4908, 0.3043, 0.3874, 0.21, 0.2473, 0.4867, 0.639, 0.4023, 0.5343, 0.2374], [0.4399, 0.4737, 0.4395, 0.2729, 0.5343, 0.2508, 0.4045, 0.3416, 0.2438, 0.5152, 0.6929, 0.5415, 0.5333, 0.3588, 0.5808, 0.2607, 0.3659, 0.4023, 0.2234, 0.3911, 0.2539, 0.6801, 0.4542, 0.6444, 0.6662, 0.388, 0.5253, 0.5486, 0.2659, 0.6802], [0.3053, 0.2357, 0.2134, 0.6267, 0.6648, 0.394, 0.6701, 0.2622, 0.2648, 0.5741, 0.3664, 0.5146, 0.4086, 0.481, 0.4569, 0.5875, 0.3863, 0.541, 0.4977, 0.3484, 0.6267, 0.3479, 0.4765, 0.6754, 0.2217, 0.4967, 0.2833, 0.5688, 0.3647, 0.3409], [0.2104, 0.2983, 0.4409, 0.4789, 0.4328, 0.3105, 0.5231, 0.3564, 0.2886, 0.3151, 0.6551, 0.2257, 0.6015, 0.4354, 0.2297, 0.2918, 0.6334, 0.3345, 0.6977, 0.2961, 0.3826, 0.3589, 0.6585, 0.3613, 0.3403, 0.3428, 0.3749, 0.6463, 0.2579, 0.6926], [0.5682, 0.5332, 0.4539, 0.5055, 0.6266, 0.4115, 0.5234, 0.5082, 0.5825, 0.2054, 0.6731, 0.6044, 0.3443, 0.335, 0.5539, 0.3728, 0.6344, 0.4932, 0.5788, 0.2816, 0.2159, 0.6777, 0.2778, 0.2619, 0.345, 0.558, 0.3143, 0.3918, 0.4394, 0.2366], [0.6398, 0.2176, 0.3844, 0.2811, 0.327, 0.472, 0.6752, 0.2004, 0.4156, 0.5435, 0.3827, 0.6091, 0.6277, 0.5645, 0.5162, 0.2813, 0.4526, 0.468, 0.6617, 0.3179, 0.6239, 0.6285, 0.4665, 0.203, 0.4535, 0.4035, 0.2976, 0.3759, 0.6175, 0.5317], [0.3476, 0.3675, 0.3146, 0.2519, 0.4489, 0.462, 0.3432, 0.3175, 0.3905, 0.2795, 0.2629, 0.359, 0.6147, 0.6087, 0.2204, 0.2582, 0.3263, 0.3021, 0.6459, 0.6927, 0.3741, 0.6044, 0.6321, 0.525, 0.6927, 0.2653, 0.3763, 0.3172, 0.4801, 0.6147], [0.5912, 0.3477, 0.3004, 0.3055, 0.5621, 0.5254, 0.2004, 0.2438, 0.4229, 0.589, 0.4505, 0.5191, 0.2421, 0.2428, 0.3853, 0.6293, 0.2303, 0.2914, 0.614, 0.3694, 0.349, 0.2384, 0.6196, 0.3314, 0.517, 0.414, 0.64, 0.5489, 0.6098, 0.2471], [0.5348, 0.6132, 0.6608, 0.2785, 0.6032, 0.5816, 0.6971, 0.4265, 0.5763, 0.2031, 0.3116, 0.6378, 0.2054, 0.6369, 0.5833, 0.4598, 0.599, 0.4566, 0.5876, 0.6808, 0.4855, 0.2444, 0.5615, 0.5476, 0.4448, 0.6819, 0.4227, 0.6038, 0.4132, 0.3541], [0.4623, 0.441, 0.4754, 0.5312, 0.2925, 0.6339, 0.2474, 0.3159, 0.4116, 0.3272, 0.6229, 0.5096, 0.4084, 0.2173, 0.4396, 0.6987, 0.6434, 0.4376, 0.6014, 0.5482, 0.5534, 0.647, 0.6129, 0.3824, 0.2697, 0.5913, 0.2876, 0.6466, 0.6252, 0.4935], [0.6388, 0.2329, 0.4435, 0.3242, 0.4174, 0.6893, 0.2267, 0.3318, 0.6779, 0.5266, 0.6453, 0.4293, 0.3527, 0.5815, 0.6835, 0.5832, 0.5154, 0.6038, 0.2763, 0.4682, 0.4912, 0.6477, 0.4966, 0.2507, 0.6374, 0.508, 0.3331, 0.4995, 0.2311, 0.6181], [0.5556, 0.2133, 0.384, 0.5419, 0.3755, 0.5963, 0.5315, 0.251, 0.3188, 0.6844, 0.5663, 0.2442, 0.23, 0.5371, 0.5407, 0.6328, 0.348, 0.5625, 0.2938, 0.3318, 0.4316, 0.3473, 0.4859, 0.3019, 0.569, 0.4545, 0.216, 0.5313, 0.4346, 0.3255], [0.6363, 0.2972, 0.3012, 0.4188, 0.3392, 0.2236, 0.324, 0.3879, 0.4111, 0.6126, 0.4289, 0.324, 0.4579, 0.4152, 0.5863, 0.6119, 0.2943, 0.3852, 0.6028, 0.6197, 0.6119, 0.2821, 0.6312, 0.5755, 0.3672, 0.3199, 0.4834, 0.2373, 0.6805, 0.6316], [0.4927, 0.3294, 0.6748, 0.4097, 0.3251, 0.3647, 0.3389, 0.6828, 0.5478, 0.6659, 0.2083, 0.6709, 0.3877, 0.6205, 0.2677, 0.3029, 0.2129, 0.3941, 0.334, 0.3146, 0.6474, 0.3344, 0.4447, 0.3913, 0.5169, 0.6298, 0.2834, 0.4687, 0.2271, 0.2817], [0.5221, 0.615, 0.4989, 0.5568, 0.3384, 0.433, 0.286, 0.5111, 0.2999, 0.4202, 0.3346, 0.3169, 0.5468, 0.2114, 0.2248, 0.2399, 0.4811, 0.4495, 0.2574, 0.6529, 0.2834, 0.4299, 0.5767, 0.5224, 0.6056, 0.5176, 0.6114, 0.6738, 0.5645, 0.2243], [0.3068, 0.5481, 0.6934, 0.6723, 0.4396, 0.5069, 0.2162, 0.2646, 0.527, 0.5357, 0.2328, 0.3932, 0.5395, 0.3365, 0.6576, 0.3369, 0.3858, 0.3562, 0.3242, 0.5949, 0.6171, 0.3888, 0.4663, 0.2193, 0.3427, 0.6876, 0.4641, 0.423, 0.6504, 0.2764], [0.3027, 0.5261, 0.46, 0.4011, 0.4254, 0.3171, 0.22, 0.2844, 0.2373, 0.5068, 0.6335, 0.4345, 0.3971, 0.6074, 0.675, 0.3629, 0.579, 0.613, 0.4369, 0.3264, 0.404, 0.2381, 0.5323, 0.4882, 0.4409, 0.4557, 0.6667, 0.5408, 0.4383, 0.4044], [0.3396, 0.4864, 0.3459, 0.3193, 0.43, 0.5903, 0.4703, 0.4041, 0.5937, 0.5799, 0.3915, 0.6849, 0.4277, 0.2863, 0.5646, 0.6268, 0.4591, 0.2546, 0.2371, 0.5623, 0.6788, 0.5212, 0.626, 0.4467, 0.606, 0.5626, 0.4034, 0.4193, 0.5081, 0.3737], [0.3761, 0.2105, 0.2379, 0.5422, 0.6637, 0.3356, 0.3355, 0.4164, 0.636, 0.2413, 0.2878, 0.5665, 0.2275, 0.2408, 0.2808, 0.338, 0.6786, 0.48, 0.4778, 0.528, 0.4238, 0.2914, 0.441, 0.3255, 0.6203, 0.6529, 0.615, 0.4284, 0.5266, 0.5362], [0.6504, 0.5154, 0.608, 0.4915, 0.4653, 0.54, 0.621, 0.4102, 0.3063, 0.3641, 0.2828, 0.3138, 0.3992, 0.4622, 0.3013, 0.3734, 0.2895, 0.3865, 0.3054, 0.4915, 0.6823, 0.4334, 0.2405, 0.2596, 0.6622, 0.3091, 0.3552, 0.6107, 0.2161, 0.6284], [0.2836, 0.3793, 0.3694, 0.3798, 0.5743, 0.5106, 0.5968, 0.6428, 0.5806, 0.259, 0.525, 0.343, 0.5945, 0.648, 0.5094, 0.6931, 0.4514, 0.6802, 0.4987, 0.6777, 0.3132, 0.4483, 0.5996, 0.4395, 0.3107, 0.3272, 0.4216, 0.6945, 0.4046, 0.6108], [0.557, 0.3931, 0.6083, 0.4218, 0.4371, 0.4565, 0.328, 0.5721, 0.3462, 0.587, 0.4702, 0.4953, 0.6791, 0.5463, 0.4291, 0.222, 0.5235, 0.4232, 0.4339, 0.289, 0.5867, 0.4372, 0.5219, 0.5373, 0.2858, 0.692, 0.5897, 0.2825, 0.3961, 0.4345]]</t>
+          <t>[[0.3697, 0.281, 0.2575, 0.6601, 0.2434, 0.3097, 0.3379, 0.4852, 0.3616, 0.6415, 0.392, 0.2362, 0.5683, 0.6393, 0.2183, 0.4493, 0.5878, 0.644, 0.5386, 0.661, 0.4465, 0.5619, 0.6868, 0.3508, 0.2047, 0.4401, 0.5342, 0.2768, 0.571, 0.3888, 0.5142, 0.6208, 0.4142, 0.2129, 0.2653, 0.4534, 0.5286, 0.613, 0.3966, 0.6532], [0.5245, 0.2004, 0.3453, 0.5015, 0.6745, 0.6575, 0.4045, 0.343, 0.5853, 0.2028, 0.635, 0.543, 0.4153, 0.5952, 0.4195, 0.2285, 0.2134, 0.4539, 0.6006, 0.6602, 0.3607, 0.5239, 0.3119, 0.3653, 0.2483, 0.2583, 0.5544, 0.3939, 0.5577, 0.2638, 0.2748, 0.2474, 0.3739, 0.4429, 0.2903, 0.6931, 0.2173, 0.4045, 0.4013, 0.4636], [0.3771, 0.6616, 0.4102, 0.6787, 0.4205, 0.3492, 0.4549, 0.3832, 0.3057, 0.5957, 0.6153, 0.259, 0.5213, 0.5252, 0.6947, 0.6448, 0.5838, 0.6134, 0.5597, 0.4252, 0.3151, 0.5217, 0.5587, 0.398, 0.333, 0.5103, 0.4279, 0.3193, 0.5866, 0.4519, 0.4896, 0.3638, 0.5281, 0.6614, 0.3032, 0.4511, 0.5293, 0.3953, 0.2317, 0.4049], [0.3062, 0.3931, 0.283, 0.6923, 0.3765, 0.5459, 0.343, 0.6686, 0.5822, 0.585, 0.4495, 0.4474, 0.357, 0.3987, 0.6475, 0.3912, 0.4723, 0.6676, 0.6417, 0.4687, 0.5796, 0.5048, 0.2223, 0.5643, 0.6458, 0.5011, 0.5289, 0.3235, 0.5879, 0.5078, 0.6306, 0.4382, 0.3324, 0.5255, 0.6917, 0.261, 0.3958, 0.2436, 0.3958, 0.2831], [0.6112, 0.3183, 0.6542, 0.4373, 0.2297, 0.6789, 0.6624, 0.6897, 0.6648, 0.2493, 0.4256, 0.3716, 0.2642, 0.3947, 0.5484, 0.2728, 0.6845, 0.3882, 0.2714, 0.3827, 0.5284, 0.6514, 0.4885, 0.38, 0.2759, 0.6965, 0.2297, 0.6356, 0.3838, 0.6785, 0.6719, 0.2264, 0.5696, 0.5291, 0.4305, 0.2514, 0.399, 0.4774, 0.2911, 0.6023], [0.2004, 0.5299, 0.2928, 0.2689, 0.5658, 0.297, 0.2584, 0.346, 0.3231, 0.2153, 0.6515, 0.6675, 0.2323, 0.6141, 0.4378, 0.5836, 0.6008, 0.4145, 0.4879, 0.3678, 0.2501, 0.6335, 0.296, 0.441, 0.5042, 0.3862, 0.3321, 0.4628, 0.2248, 0.6842, 0.213, 0.2516, 0.4229, 0.4603, 0.423, 0.5893, 0.314, 0.5547, 0.5873, 0.47], [0.5807, 0.6238, 0.5036, 0.6891, 0.6689, 0.5793, 0.5392, 0.589, 0.2479, 0.3583, 0.5963, 0.2112, 0.6717, 0.6871, 0.3621, 0.4604, 0.6033, 0.3669, 0.5923, 0.4642, 0.5723, 0.4538, 0.3203, 0.4712, 0.4403, 0.4972, 0.5123, 0.2803, 0.2851, 0.5828, 0.5678, 0.24, 0.4457, 0.6097, 0.3083, 0.5581, 0.6691, 0.3508, 0.2394, 0.5632], [0.4438, 0.2426, 0.4567, 0.6574, 0.2013, 0.2432, 0.2871, 0.4193, 0.5365, 0.34, 0.6481, 0.5061, 0.5364, 0.6561, 0.6045, 0.3936, 0.2069, 0.6261, 0.2925, 0.3444, 0.4577, 0.319, 0.6337, 0.496, 0.6227, 0.2547, 0.654, 0.5488, 0.2655, 0.4967, 0.5197, 0.4831, 0.5748, 0.5213, 0.6413, 0.6055, 0.2623, 0.2208, 0.3227, 0.2096], [0.4253, 0.661, 0.2374, 0.2339, 0.6141, 0.2703, 0.5452, 0.5449, 0.431, 0.359, 0.6824, 0.6553, 0.2425, 0.3559, 0.2917, 0.4082, 0.5086, 0.4866, 0.3076, 0.5002, 0.613, 0.6578, 0.3381, 0.294, 0.6821, 0.6827, 0.2855, 0.5021, 0.5546, 0.476, 0.6911, 0.2657, 0.6269, 0.5133, 0.3436, 0.5335, 0.3925, 0.6101, 0.6262, 0.6154], [0.6424, 0.4377, 0.2629, 0.6589, 0.2593, 0.4339, 0.6221, 0.2937, 0.2181, 0.6727, 0.6192, 0.584, 0.2037, 0.5872, 0.6918, 0.6262, 0.3056, 0.6147, 0.6605, 0.3643, 0.5482, 0.4535, 0.3068, 0.2008, 0.3794, 0.3612, 0.4359, 0.5128, 0.2007, 0.4945, 0.5338, 0.6074, 0.5223, 0.5754, 0.2915, 0.2234, 0.6369, 0.5952, 0.6667, 0.5162], [0.3367, 0.4451, 0.5462, 0.4113, 0.5824, 0.4087, 0.6917, 0.3647, 0.3545, 0.6616, 0.5727, 0.6493, 0.5447, 0.5987, 0.3314, 0.5117, 0.2271, 0.2338, 0.6601, 0.4195, 0.4247, 0.6291, 0.4761, 0.475, 0.3104, 0.4994, 0.347, 0.6487, 0.2621, 0.5344, 0.3723, 0.4184, 0.3235, 0.4298, 0.6788, 0.272, 0.3547, 0.6347, 0.3553, 0.6023], [0.6019, 0.4496, 0.5792, 0.6276, 0.3422, 0.4751, 0.2066, 0.3963, 0.5435, 0.2909, 0.3808, 0.5794, 0.667, 0.2476, 0.306, 0.5196, 0.2403, 0.5737, 0.6569, 0.5871, 0.6973, 0.5576, 0.681, 0.5152, 0.5525, 0.5648, 0.2856, 0.4971, 0.5998, 0.5474, 0.2703, 0.4822, 0.4134, 0.6718, 0.4744, 0.3758, 0.4263, 0.4747, 0.6692, 0.5928], [0.6096, 0.4496, 0.4363, 0.5034, 0.4829, 0.5848, 0.6966, 0.4468, 0.6957, 0.3629, 0.498, 0.3088, 0.5356, 0.4079, 0.2077, 0.3665, 0.5621, 0.5946, 0.6639, 0.3771, 0.3875, 0.3818, 0.4524, 0.5315, 0.3405, 0.4186, 0.3357, 0.543, 0.2385, 0.6614, 0.5185, 0.5306, 0.4799, 0.4555, 0.3518, 0.574, 0.4505, 0.6989, 0.3882, 0.6492], [0.6149, 0.2254, 0.3257, 0.4138, 0.5918, 0.2354, 0.2161, 0.2623, 0.2195, 0.4693, 0.5455, 0.5265, 0.2932, 0.4488, 0.6897, 0.3862, 0.5629, 0.3903, 0.5595, 0.3541, 0.3758, 0.3186, 0.6391, 0.5217, 0.4609, 0.2571, 0.2498, 0.6855, 0.6934, 0.649, 0.5478, 0.2953, 0.367, 0.5424, 0.4349, 0.3816, 0.2457, 0.6187, 0.3095, 0.661], [0.5666, 0.4617, 0.5176, 0.6071, 0.5078, 0.2636, 0.2416, 0.5261, 0.3459, 0.5912, 0.5469, 0.651, 0.6232, 0.5411, 0.2537, 0.3707, 0.35, 0.2798, 0.5381, 0.3311, 0.6944, 0.3687, 0.4021, 0.3635, 0.6209, 0.4622, 0.5054, 0.5548, 0.5616, 0.3791, 0.52, 0.6634, 0.5673, 0.3587, 0.4802, 0.5705, 0.5989, 0.301, 0.4978, 0.3569], [0.6657, 0.6653, 0.5218, 0.4232, 0.2968, 0.3793, 0.6763, 0.4355, 0.4479, 0.2671, 0.3513, 0.6487, 0.2676, 0.2485, 0.3488, 0.6213, 0.55, 0.4955, 0.3423, 0.3412, 0.5993, 0.4976, 0.5274, 0.4134, 0.2778, 0.4717, 0.5921, 0.2429, 0.5988, 0.2728, 0.5, 0.2015, 0.3625, 0.2521, 0.6883, 0.255, 0.2547, 0.3994, 0.4115, 0.2782], [0.4196, 0.646, 0.3192, 0.4891, 0.2053, 0.5265, 0.3183, 0.5078, 0.4674, 0.4368, 0.6876, 0.4089, 0.2929, 0.5654, 0.2137, 0.4949, 0.688, 0.6724, 0.4943, 0.4791, 0.5474, 0.3407, 0.3036, 0.5254, 0.6517, 0.5975, 0.5625, 0.3507, 0.5248, 0.2781, 0.2702, 0.5898, 0.3531, 0.6801, 0.587, 0.4883, 0.2747, 0.2149, 0.6241, 0.6766], [0.2477, 0.5217, 0.6826, 0.682, 0.6067, 0.6632, 0.5691, 0.5169, 0.2899, 0.2064, 0.2786, 0.2844, 0.639, 0.2843, 0.5839, 0.6495, 0.3307, 0.467, 0.3882, 0.2797, 0.4627, 0.4319, 0.3437, 0.2849, 0.2394, 0.4251, 0.4215, 0.5822, 0.2714, 0.5224, 0.3683, 0.3914, 0.5029, 0.4226, 0.578, 0.5339, 0.6302, 0.6261, 0.6218, 0.6902], [0.6393, 0.239, 0.5733, 0.6463, 0.2566, 0.2187, 0.5856, 0.4113, 0.2402, 0.4055, 0.317, 0.5369, 0.2346, 0.6976, 0.4492, 0.649, 0.4074, 0.6692, 0.4809, 0.3153, 0.3851, 0.2783, 0.2121, 0.2757, 0.4814, 0.6097, 0.3087, 0.2217, 0.4711, 0.6216, 0.2136, 0.5347, 0.4298, 0.3401, 0.4881, 0.2335, 0.2517, 0.446, 0.6484, 0.2478], [0.4999, 0.628, 0.436, 0.52, 0.2421, 0.2555, 0.4466, 0.3001, 0.6314, 0.5367, 0.5482, 0.298, 0.202, 0.3512, 0.5421, 0.4718, 0.4583, 0.3872, 0.6965, 0.5641, 0.2687, 0.5915, 0.4078, 0.5405, 0.4253, 0.212, 0.575, 0.6951, 0.2529, 0.4448, 0.2408, 0.5409, 0.4707, 0.3556, 0.3928, 0.5803, 0.3488, 0.351, 0.3458, 0.5167], [0.5371, 0.6794, 0.5142, 0.5763, 0.4216, 0.5048, 0.4748, 0.3489, 0.5986, 0.3906, 0.6462, 0.689, 0.638, 0.6331, 0.4847, 0.5041, 0.6146, 0.3338, 0.255, 0.5313, 0.6963, 0.3322, 0.5937, 0.3775, 0.5502, 0.4435, 0.5773, 0.5195, 0.3134, 0.508, 0.4257, 0.3, 0.3582, 0.6672, 0.6949, 0.6905, 0.5532, 0.2799, 0.4999, 0.2664], [0.2026, 0.3215, 0.6449, 0.6568, 0.4549, 0.3099, 0.4677, 0.6762, 0.3498, 0.672, 0.3591, 0.2255, 0.6608, 0.2191, 0.5929, 0.2361, 0.2597, 0.3086, 0.2716, 0.5568, 0.3952, 0.6918, 0.599, 0.2641, 0.5668, 0.3406, 0.5315, 0.6676, 0.6623, 0.6646, 0.2154, 0.5299, 0.2697, 0.6279, 0.6732, 0.2318, 0.3263, 0.6583, 0.273, 0.253], [0.5213, 0.5461, 0.4131, 0.5545, 0.2441, 0.5279, 0.5397, 0.4207, 0.4416, 0.3882, 0.6599, 0.2973, 0.5613, 0.4439, 0.4181, 0.2718, 0.6726, 0.5392, 0.2933, 0.2296, 0.2377, 0.3048, 0.2173, 0.6742, 0.5891, 0.2151, 0.3788, 0.2746, 0.5712, 0.4877, 0.3965, 0.3007, 0.425, 0.3178, 0.4974, 0.4936, 0.6366, 0.343, 0.2441, 0.3309], [0.412, 0.2215, 0.2062, 0.3693, 0.6054, 0.2174, 0.3153, 0.2749, 0.6397, 0.5099, 0.2505, 0.4939, 0.6986, 0.3342, 0.4279, 0.3362, 0.3892, 0.4326, 0.4499, 0.4596, 0.6991, 0.4189, 0.3753, 0.6572, 0.4007, 0.2889, 0.6114, 0.2099, 0.4018, 0.345, 0.2519, 0.3974, 0.5794, 0.334, 0.2275, 0.2262, 0.4635, 0.2714, 0.6073, 0.2282], [0.3461, 0.2065, 0.2368, 0.3788, 0.2521, 0.2539, 0.3927, 0.6172, 0.5527, 0.4025, 0.5772, 0.4384, 0.6461, 0.2858, 0.2303, 0.307, 0.234, 0.2192, 0.5667, 0.3574, 0.6963, 0.4077, 0.2263, 0.5406, 0.6166, 0.4261, 0.6955, 0.3527, 0.4894, 0.638, 0.51, 0.4327, 0.3408, 0.5727, 0.4479, 0.5988, 0.3686, 0.6847, 0.5606, 0.6615], [0.2196, 0.2278, 0.5016, 0.6437, 0.2462, 0.318, 0.2813, 0.6022, 0.2026, 0.5236, 0.6244, 0.4047, 0.5113, 0.2422, 0.3105, 0.208, 0.6358, 0.3018, 0.5702, 0.5257, 0.2858, 0.3041, 0.5007, 0.6245, 0.27, 0.5267, 0.2824, 0.6818, 0.4189, 0.247, 0.5332, 0.4824, 0.5027, 0.497, 0.3864, 0.3677, 0.6659, 0.4494, 0.3103, 0.3693], [0.2242, 0.6211, 0.678, 0.2094, 0.4414, 0.3611, 0.4993, 0.2216, 0.3596, 0.544, 0.6694, 0.2626, 0.6931, 0.4942, 0.3365, 0.3654, 0.221, 0.5373, 0.5473, 0.3607, 0.5591, 0.5825, 0.4161, 0.2525, 0.2465, 0.2693, 0.2237, 0.5866, 0.5487, 0.5242, 0.6687, 0.3926, 0.3725, 0.3176, 0.3438, 0.3384, 0.3573, 0.5642, 0.3767, 0.2245], [0.5241, 0.6914, 0.5454, 0.6947, 0.4618, 0.2177, 0.4713, 0.2902, 0.219, 0.5514, 0.4723, 0.5923, 0.2165, 0.6588, 0.2281, 0.5206, 0.2289, 0.4746, 0.5411, 0.3417, 0.3803, 0.3493, 0.4179, 0.5604, 0.5734, 0.6431, 0.3877, 0.2951, 0.4756, 0.4199, 0.2428, 0.3457, 0.3009, 0.5244, 0.2575, 0.3045, 0.2201, 0.2578, 0.2222, 0.425], [0.6612, 0.4534, 0.2112, 0.4493, 0.45, 0.2207, 0.665, 0.4669, 0.2181, 0.268, 0.6751, 0.2963, 0.225, 0.3442, 0.234, 0.4014, 0.6496, 0.4093, 0.6709, 0.4427, 0.3459, 0.569, 0.49, 0.6359, 0.6235, 0.5907, 0.3017, 0.6641, 0.2664, 0.3688, 0.5383, 0.3245, 0.52, 0.6515, 0.5582, 0.6963, 0.397, 0.6407, 0.676, 0.3557], [0.5974, 0.3778, 0.2916, 0.5668, 0.2049, 0.6126, 0.615, 0.4878, 0.381, 0.5475, 0.3996, 0.2196, 0.384, 0.2785, 0.662, 0.4286, 0.2626, 0.6949, 0.3156, 0.5662, 0.6371, 0.6176, 0.4995, 0.6186, 0.3961, 0.4069, 0.5069, 0.4972, 0.3806, 0.3543, 0.2522, 0.2946, 0.6771, 0.5227, 0.376, 0.6409, 0.2685, 0.5077, 0.6688, 0.2039], [0.6451, 0.3355, 0.4268, 0.4255, 0.4769, 0.5725, 0.5483, 0.4498, 0.2711, 0.5782, 0.5737, 0.6947, 0.2145, 0.6215, 0.6841, 0.3169, 0.3811, 0.2593, 0.4313, 0.3887, 0.3748, 0.4104, 0.6476, 0.2229, 0.433, 0.3976, 0.6842, 0.3476, 0.6289, 0.3818, 0.6787, 0.2828, 0.4271, 0.3144, 0.2564, 0.6288, 0.5925, 0.2761, 0.5949, 0.5089], [0.3887, 0.5151, 0.5089, 0.5918, 0.4506, 0.3862, 0.6384, 0.3878, 0.418, 0.2345, 0.5317, 0.2012, 0.5949, 0.4482, 0.4065, 0.4257, 0.3165, 0.3492, 0.6676, 0.2835, 0.6516, 0.3835, 0.5175, 0.545, 0.3408, 0.2121, 0.3002, 0.3059, 0.3545, 0.2086, 0.6861, 0.2293, 0.2131, 0.6059, 0.589, 0.4694, 0.4466, 0.2338, 0.6948, 0.6726], [0.2754, 0.5656, 0.37, 0.3035, 0.4868, 0.6647, 0.2149, 0.5607, 0.418, 0.578, 0.6137, 0.3044, 0.3819, 0.2899, 0.3596, 0.2912, 0.4742, 0.3297, 0.5239, 0.2555, 0.5092, 0.6865, 0.3806, 0.2994, 0.221, 0.6225, 0.3486, 0.6912, 0.6893, 0.6842, 0.3723, 0.6024, 0.521, 0.4072, 0.3922, 0.5037, 0.3393, 0.6714, 0.321, 0.3959], [0.3083, 0.6921, 0.6051, 0.5596, 0.2959, 0.5983, 0.5122, 0.4227, 0.5585, 0.6568, 0.4222, 0.5506, 0.4523, 0.5016, 0.5414, 0.5845, 0.3123, 0.231, 0.3807, 0.3561, 0.2377, 0.5267, 0.6647, 0.5601, 0.3571, 0.4533, 0.5231, 0.6876, 0.5463, 0.5306, 0.3467, 0.3712, 0.3919, 0.6348, 0.6793, 0.3835, 0.6945, 0.2657, 0.2312, 0.2956], [0.2804, 0.2207, 0.523, 0.3022, 0.3356, 0.566, 0.4185, 0.6156, 0.2321, 0.6931, 0.3061, 0.3101, 0.4555, 0.2666, 0.2775, 0.3434, 0.2142, 0.2617, 0.3117, 0.5837, 0.6327, 0.5835, 0.2421, 0.6136, 0.3053, 0.2188, 0.6031, 0.2997, 0.5665, 0.4453, 0.532, 0.2415, 0.2965, 0.5432, 0.4878, 0.4892, 0.6909, 0.2263, 0.5535, 0.6473], [0.5461, 0.3789, 0.362, 0.6921, 0.3149, 0.5398, 0.4624, 0.5608, 0.4909, 0.4277, 0.2831, 0.6006, 0.4281, 0.3335, 0.6574, 0.2363, 0.693, 0.599, 0.3101, 0.6978, 0.209, 0.3337, 0.6069, 0.5236, 0.5878, 0.2901, 0.5155, 0.4059, 0.3971, 0.5785, 0.2402, 0.2373, 0.2931, 0.6252, 0.5766, 0.3454, 0.4877, 0.3162, 0.6943, 0.3206], [0.6974, 0.4639, 0.3258, 0.6208, 0.5887, 0.5529, 0.5081, 0.2078, 0.255, 0.2641, 0.3012, 0.461, 0.4928, 0.519, 0.4199, 0.2723, 0.3596, 0.4138, 0.2459, 0.5142, 0.5792, 0.3894, 0.2605, 0.2381, 0.2912, 0.3413, 0.3102, 0.5519, 0.2523, 0.3856, 0.5997, 0.2379, 0.2846, 0.2034, 0.2488, 0.3333, 0.4971, 0.5078, 0.5175, 0.4137], [0.2001, 0.6009, 0.5189, 0.5007, 0.4603, 0.2021, 0.6389, 0.2452, 0.3695, 0.3812, 0.5178, 0.2023, 0.6672, 0.6527, 0.431, 0.2749, 0.331, 0.5693, 0.5211, 0.4215, 0.4419, 0.6196, 0.4307, 0.2083, 0.6634, 0.2328, 0.2305, 0.2071, 0.3295, 0.5554, 0.5955, 0.564, 0.2009, 0.2357, 0.4389, 0.6025, 0.3756, 0.2687, 0.6088, 0.4478], [0.3198, 0.6018, 0.4976, 0.3832, 0.601, 0.5309, 0.5671, 0.339, 0.3213, 0.4731, 0.258, 0.4461, 0.3546, 0.334, 0.6711, 0.2652, 0.3047, 0.3675, 0.6403, 0.2216, 0.6318, 0.6973, 0.5862, 0.2566, 0.5302, 0.3622, 0.6169, 0.5538, 0.2747, 0.2764, 0.2082, 0.4035, 0.4324, 0.5713, 0.5395, 0.5097, 0.4178, 0.2745, 0.3201, 0.2594], [0.3592, 0.3848, 0.5963, 0.2073, 0.5879, 0.4467, 0.5462, 0.313, 0.5728, 0.5602, 0.3402, 0.4843, 0.491, 0.6226, 0.219, 0.2817, 0.2666, 0.652, 0.4616, 0.6905, 0.249, 0.4591, 0.4214, 0.5072, 0.6439, 0.5168, 0.4534, 0.6972, 0.4658, 0.6908, 0.6815, 0.2887, 0.657, 0.681, 0.4575, 0.5253, 0.5408, 0.4079, 0.3805, 0.6012]]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[[1, 10], [2, 10], [5, 10], [2, 10], [1, 10], [3, 10], [2, 10], [1, 10], [3, 10], [3, 10], [0, 10], [3, 10], [0, 10], [5, 10], [0, 10], [0, 10], [1, 10], [0, 10], [0, 10], [2, 10], [1, 10], [3, 10], [3, 10], [3, 10], [0, 10], [3, 10], [5, 10], [5, 10], [3, 10], [2, 10]]</t>
+          <t>[[4, 10], [0, 10], [4, 10], [2, 10], [2, 10], [3, 10], [0, 10], [2, 10], [0, 10], [1, 10], [1, 10], [1, 10], [3, 10], [1, 10], [2, 10], [4, 10], [0, 10], [4, 10], [4, 10], [1, 10], [3, 10], [1, 10], [1, 10], [5, 10], [1, 10], [4, 10], [2, 10], [2, 10], [3, 10], [0, 10], [0, 10], [3, 10], [5, 10], [5, 10], [0, 10], [2, 10], [3, 10], [5, 10], [2, 10], [1, 10]]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[2, 1, 4, 4, 8, 3, 9, 2, 10, 7, 2, 9, 6, 5, 6, 6, 10, 2, 1, 7, 1, 3, 3, 8, 9, 10, 10, 1, 10, 10]</t>
+          <t>[4, 3, 10, 5, 8, 4, 10, 5, 2, 5, 8, 9, 5, 6, 7, 10, 8, 2, 7, 9, 9, 10, 10, 9, 3, 7, 7, 2, 5, 8, 9, 7, 6, 10, 9, 4, 10, 3, 6, 9]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[[0.5269, 0.5974, 0.462, 0.4673, 0.4093, 0.4461, 0.4729, 0.327, 0.3654, 0.2611, 0.415, 0.5132, 0.6078, 0.4571, 0.4778, 0.5571, 0.6314, 0.5256, 0.4833, 0.5951, 0.5423, 0.6129, 0.4512, 0.4524, 0.6236, 0.4714, 0.3357, 0.6942, 0.4517, 0.6516], [0.2035, 0.3791, 0.6227, 0.3847, 0.258, 0.3374, 0.6562, 0.336, 0.2346, 0.4, 0.6488, 0.5865, 0.5028, 0.6634, 0.6178, 0.6829, 0.5795, 0.5471, 0.6086, 0.32, 0.6338, 0.5455, 0.6357, 0.5233, 0.6024, 0.2307, 0.6805, 0.4382, 0.4353, 0.5127], [0.4953, 0.201, 0.3858, 0.6631, 0.5526, 0.5006, 0.2403, 0.5897, 0.4066, 0.5372, 0.6159, 0.3846, 0.6227, 0.3275, 0.2299, 0.366, 0.6625, 0.5284, 0.4175, 0.619, 0.4624, 0.3792, 0.4952, 0.336, 0.4817, 0.3782, 0.6514, 0.6835, 0.657, 0.4978], [0.2408, 0.6806, 0.5869, 0.2926, 0.308, 0.3632, 0.6165, 0.4548, 0.2627, 0.4908, 0.5077, 0.3863, 0.6257, 0.5522, 0.5018, 0.5832, 0.6001, 0.2136, 0.3562, 0.6256, 0.4248, 0.5596, 0.2795, 0.5226, 0.6113, 0.6888, 0.3596, 0.2904, 0.6204, 0.2572], [0.2943, 0.4818, 0.4924, 0.4133, 0.5272, 0.3528, 0.5193, 0.2699, 0.4589, 0.661, 0.567, 0.4821, 0.3345, 0.4123, 0.2167, 0.2449, 0.6171, 0.585, 0.4382, 0.3638, 0.4579, 0.3066, 0.4343, 0.3279, 0.3016, 0.3724, 0.2825, 0.6718, 0.3566, 0.2546], [0.3359, 0.2978, 0.4317, 0.5926, 0.3759, 0.6945, 0.611, 0.4129, 0.3905, 0.3254, 0.4365, 0.3191, 0.3978, 0.4827, 0.423, 0.5049, 0.428, 0.2157, 0.2519, 0.3832, 0.6093, 0.3706, 0.4257, 0.3657, 0.472, 0.2193, 0.3395, 0.5789, 0.5842, 0.523], [0.4394, 0.2508, 0.5815, 0.5358, 0.4228, 0.3827, 0.2321, 0.5853, 0.5006, 0.6081, 0.4539, 0.3165, 0.3166, 0.2443, 0.4357, 0.4241, 0.3884, 0.6048, 0.597, 0.3007, 0.3324, 0.3093, 0.3257, 0.3476, 0.3119, 0.4104, 0.3212, 0.5598, 0.6742, 0.4045], [0.3318, 0.2485, 0.3196, 0.4367, 0.5242, 0.4634, 0.4061, 0.5246, 0.6673, 0.4816, 0.3349, 0.6399, 0.4055, 0.32, 0.4275, 0.4686, 0.6671, 0.4947, 0.6915, 0.651, 0.4293, 0.3045, 0.6191, 0.6931, 0.5101, 0.5754, 0.5024, 0.6051, 0.3907, 0.6752], [0.3965, 0.5479, 0.2051, 0.217, 0.4401, 0.6189, 0.3666, 0.2842, 0.3003, 0.4205, 0.2763, 0.626, 0.5301, 0.482, 0.2355, 0.2112, 0.4483, 0.4403, 0.3646, 0.6734, 0.2229, 0.35, 0.4457, 0.6507, 0.5664, 0.638, 0.5311, 0.6689, 0.5706, 0.5514], [0.6309, 0.5634, 0.678, 0.3638, 0.2297, 0.2308, 0.6792, 0.3211, 0.2927, 0.6516, 0.28, 0.2657, 0.6909, 0.2532, 0.4518, 0.6984, 0.3679, 0.5655, 0.6604, 0.286, 0.6596, 0.3803, 0.4115, 0.5108, 0.5529, 0.2909, 0.6382, 0.3572, 0.4699, 0.5778], [0.5267, 0.5908, 0.3543, 0.3227, 0.5256, 0.2815, 0.2243, 0.5136, 0.5946, 0.697, 0.4153, 0.3931, 0.4162, 0.4486, 0.4673, 0.5153, 0.4607, 0.6089, 0.6723, 0.6935, 0.2655, 0.4278, 0.3431, 0.3379, 0.274, 0.5652, 0.3273, 0.4994, 0.5087, 0.3536], [0.2475, 0.3523, 0.286, 0.2375, 0.3449, 0.4967, 0.5688, 0.5156, 0.6396, 0.6765, 0.2531, 0.6859, 0.3482, 0.473, 0.5344, 0.6841, 0.3042, 0.3029, 0.3384, 0.2481, 0.558, 0.638, 0.62, 0.2782, 0.4133, 0.6337, 0.209, 0.5451, 0.6998, 0.4352], [0.5331, 0.4638, 0.218, 0.4677, 0.4768, 0.6443, 0.4494, 0.2402, 0.4201, 0.2143, 0.2145, 0.4536, 0.2813, 0.4963, 0.3174, 0.4586, 0.272, 0.2372, 0.3895, 0.224, 0.6137, 0.3695, 0.2733, 0.6697, 0.2277, 0.6298, 0.6885, 0.5735, 0.2743, 0.6384], [0.2312, 0.2933, 0.4359, 0.4233, 0.3255, 0.6416, 0.2951, 0.641, 0.4056, 0.534, 0.3625, 0.6249, 0.3404, 0.5414, 0.4891, 0.4376, 0.5139, 0.4169, 0.4243, 0.3368, 0.6517, 0.4912, 0.6574, 0.5204, 0.6731, 0.2807, 0.3028, 0.3151, 0.2833, 0.2307], [0.29, 0.5443, 0.5324, 0.4132, 0.6244, 0.5289, 0.4917, 0.4614, 0.4929, 0.6425, 0.6356, 0.6286, 0.4758, 0.4861, 0.5031, 0.6093, 0.5811, 0.3241, 0.2715, 0.3446, 0.3232, 0.3983, 0.4249, 0.22, 0.2037, 0.4584, 0.4684, 0.6445, 0.2313, 0.2473], [0.6974, 0.5992, 0.3699, 0.5261, 0.4963, 0.5836, 0.5822, 0.4514, 0.3498, 0.5633, 0.3052, 0.5163, 0.5072, 0.2255, 0.5421, 0.5187, 0.3866, 0.3137, 0.2589, 0.4945, 0.4767, 0.4745, 0.3435, 0.5238, 0.2468, 0.3771, 0.3782, 0.3664, 0.472, 0.6632], [0.6096, 0.5773, 0.428, 0.5989, 0.5875, 0.3162, 0.3461, 0.4039, 0.3008, 0.6194, 0.5347, 0.5327, 0.4777, 0.3098, 0.5866, 0.2804, 0.3006, 0.5421, 0.3693, 0.5078, 0.532, 0.618, 0.4859, 0.6908, 0.5141, 0.5129, 0.366, 0.5084, 0.6837, 0.4151], [0.2031, 0.5327, 0.393, 0.3191, 0.5295, 0.6364, 0.6149, 0.4922, 0.2902, 0.6985, 0.4374, 0.6009, 0.3045, 0.2124, 0.6635, 0.4734, 0.3592, 0.2044, 0.356, 0.6637, 0.4858, 0.6301, 0.21, 0.5543, 0.4161, 0.5094, 0.6461, 0.5393, 0.4667, 0.4503], [0.5381, 0.2262, 0.6722, 0.2233, 0.6827, 0.6277, 0.5738, 0.3871, 0.5796, 0.3082, 0.3305, 0.4832, 0.4899, 0.3816, 0.5182, 0.3123, 0.361, 0.2694, 0.2781, 0.5419, 0.5154, 0.5204, 0.6463, 0.5607, 0.5709, 0.3862, 0.3081, 0.5173, 0.6049, 0.6921], [0.653, 0.6832, 0.4141, 0.3577, 0.522, 0.5009, 0.686, 0.4576, 0.2915, 0.5462, 0.3057, 0.2709, 0.4767, 0.6157, 0.6848, 0.5428, 0.335, 0.4012, 0.2211, 0.6721, 0.5784, 0.6706, 0.537, 0.433, 0.6599, 0.4942, 0.5655, 0.3461, 0.227, 0.2668], [0.5097, 0.2885, 0.401, 0.3403, 0.6742, 0.2036, 0.6675, 0.5792, 0.5656, 0.3729, 0.4155, 0.6861, 0.6364, 0.2233, 0.2498, 0.6228, 0.2665, 0.4511, 0.683, 0.6368, 0.2624, 0.6408, 0.219, 0.3895, 0.5612, 0.3618, 0.6676, 0.5756, 0.4273, 0.3319], [0.464, 0.5076, 0.394, 0.4697, 0.646, 0.4452, 0.2452, 0.5543, 0.356, 0.4556, 0.3035, 0.2061, 0.476, 0.4451, 0.3081, 0.6704, 0.3217, 0.5258, 0.2622, 0.495, 0.2045, 0.6204, 0.3021, 0.3793, 0.4218, 0.4092, 0.2215, 0.3838, 0.215, 0.4301], [0.5175, 0.3047, 0.4097, 0.5216, 0.3831, 0.2179, 0.422, 0.4511, 0.5351, 0.2074, 0.3998, 0.3395, 0.3559, 0.5282, 0.5303, 0.5172, 0.5505, 0.2442, 0.6236, 0.4145, 0.6258, 0.2476, 0.5912, 0.6066, 0.2637, 0.2962, 0.2192, 0.4931, 0.3272, 0.5314], [0.2754, 0.2414, 0.4511, 0.4217, 0.5667, 0.5855, 0.3435, 0.3586, 0.299, 0.4769, 0.2968, 0.2212, 0.4277, 0.4238, 0.2347, 0.5734, 0.3793, 0.3281, 0.2115, 0.4687, 0.3882, 0.5903, 0.5055, 0.3823, 0.5053, 0.5673, 0.3442, 0.6152, 0.6641, 0.6329], [0.2227, 0.3632, 0.2771, 0.2958, 0.5907, 0.2455, 0.5936, 0.5158, 0.5931, 0.6154, 0.2426, 0.392, 0.3225, 0.6647, 0.2879, 0.4194, 0.3165, 0.4206, 0.3529, 0.573, 0.534, 0.2964, 0.5608, 0.4187, 0.6285, 0.4857, 0.5618, 0.3368, 0.4847, 0.6315], [0.3115, 0.4916, 0.6121, 0.3357, 0.5036, 0.4898, 0.4694, 0.2412, 0.4812, 0.216, 0.5998, 0.4992, 0.6396, 0.3462, 0.6709, 0.5773, 0.2202, 0.2664, 0.4545, 0.2731, 0.5544, 0.4476, 0.5361, 0.6809, 0.6853, 0.4758, 0.4508, 0.6758, 0.6463, 0.2571], [0.2168, 0.3498, 0.4567, 0.4899, 0.223, 0.3085, 0.4496, 0.5497, 0.4962, 0.3008, 0.5075, 0.4585, 0.4872, 0.2096, 0.2071, 0.5482, 0.6417, 0.5163, 0.4988, 0.6927, 0.218, 0.3344, 0.6335, 0.3539, 0.6929, 0.4372, 0.5084, 0.2183, 0.6138, 0.6858], [0.4931, 0.2704, 0.4504, 0.4732, 0.599, 0.4029, 0.2272, 0.5358, 0.6073, 0.233, 0.4203, 0.2886, 0.4815, 0.217, 0.673, 0.2969, 0.4402, 0.3928, 0.6666, 0.4939, 0.592, 0.3104, 0.6867, 0.4593, 0.6631, 0.3466, 0.3781, 0.3345, 0.4166, 0.2359], [0.6143, 0.3139, 0.4828, 0.4787, 0.4438, 0.3111, 0.6956, 0.2865, 0.3938, 0.4943, 0.5983, 0.476, 0.5329, 0.3858, 0.4477, 0.3956, 0.3758, 0.6398, 0.5356, 0.4056, 0.638, 0.4508, 0.252, 0.3839, 0.3955, 0.6003, 0.3921, 0.2704, 0.3293, 0.4305], [0.2809, 0.2302, 0.4458, 0.287, 0.675, 0.4531, 0.6075, 0.6223, 0.2013, 0.2764, 0.6365, 0.3996, 0.4734, 0.2596, 0.2852, 0.6825, 0.374, 0.5761, 0.2925, 0.2767, 0.3416, 0.4427, 0.5693, 0.5453, 0.413, 0.4522, 0.4041, 0.4623, 0.3283, 0.3762]]</t>
+          <t>[[0.4808, 0.6952, 0.2856, 0.2668, 0.5127, 0.3525, 0.3787, 0.5815, 0.3508, 0.583, 0.3621, 0.4889, 0.5662, 0.5282, 0.4781, 0.4159, 0.5978, 0.4452, 0.6769, 0.4976, 0.3022, 0.5537, 0.4751, 0.3253, 0.465, 0.2754, 0.6888, 0.4529, 0.5224, 0.2369, 0.4084, 0.2803, 0.2233, 0.3478, 0.4088, 0.4795, 0.377, 0.2363, 0.2332, 0.2902], [0.6297, 0.6368, 0.5389, 0.5273, 0.5495, 0.2087, 0.3762, 0.699, 0.6489, 0.555, 0.2225, 0.2873, 0.3935, 0.599, 0.5312, 0.3995, 0.6628, 0.5946, 0.4922, 0.4787, 0.5043, 0.5667, 0.3429, 0.4899, 0.3082, 0.4988, 0.696, 0.3018, 0.3752, 0.276, 0.4738, 0.4429, 0.6628, 0.4781, 0.2172, 0.5606, 0.3978, 0.6989, 0.6901, 0.3568], [0.2526, 0.6398, 0.4205, 0.3714, 0.5046, 0.3187, 0.3388, 0.5856, 0.2288, 0.2033, 0.3587, 0.6072, 0.2603, 0.6896, 0.479, 0.3538, 0.5236, 0.2139, 0.4075, 0.2249, 0.6909, 0.6887, 0.5215, 0.4134, 0.4715, 0.6363, 0.267, 0.341, 0.4479, 0.5078, 0.6994, 0.5913, 0.6674, 0.6384, 0.5541, 0.2083, 0.5267, 0.2496, 0.3354, 0.5132], [0.2249, 0.3473, 0.3262, 0.4794, 0.3946, 0.2414, 0.3054, 0.3893, 0.5667, 0.6211, 0.5038, 0.6599, 0.2532, 0.4255, 0.4712, 0.3046, 0.6321, 0.5169, 0.2837, 0.3421, 0.2706, 0.3617, 0.568, 0.4461, 0.6926, 0.2282, 0.2264, 0.4312, 0.6631, 0.2277, 0.5936, 0.2899, 0.6151, 0.6637, 0.3451, 0.4172, 0.4932, 0.3458, 0.6544, 0.6604], [0.5846, 0.4293, 0.5156, 0.5353, 0.5151, 0.3027, 0.6632, 0.2862, 0.403, 0.4254, 0.2781, 0.3105, 0.3597, 0.3054, 0.3782, 0.2658, 0.4859, 0.6396, 0.4986, 0.4973, 0.6359, 0.4754, 0.3032, 0.3187, 0.2406, 0.4276, 0.608, 0.6774, 0.221, 0.2471, 0.22, 0.6256, 0.5247, 0.3154, 0.5925, 0.2523, 0.3127, 0.5788, 0.6272, 0.5507], [0.4688, 0.2924, 0.3751, 0.3477, 0.3749, 0.2999, 0.4703, 0.5352, 0.3238, 0.4009, 0.2766, 0.5819, 0.2728, 0.481, 0.4599, 0.6866, 0.6505, 0.3686, 0.6944, 0.5866, 0.5199, 0.2953, 0.2355, 0.2573, 0.6947, 0.2885, 0.4123, 0.24, 0.6197, 0.6113, 0.3888, 0.545, 0.2773, 0.294, 0.4985, 0.5277, 0.5542, 0.4629, 0.6571, 0.2881], [0.5333, 0.4257, 0.6442, 0.4275, 0.6215, 0.4415, 0.6259, 0.5322, 0.5307, 0.6982, 0.6395, 0.4883, 0.2494, 0.6909, 0.262, 0.337, 0.6925, 0.5027, 0.4421, 0.6741, 0.3828, 0.6251, 0.3378, 0.6608, 0.4368, 0.6353, 0.5715, 0.4097, 0.269, 0.3179, 0.4947, 0.6455, 0.2946, 0.5431, 0.6185, 0.2824, 0.6451, 0.6956, 0.4247, 0.6476], [0.5445, 0.4045, 0.6985, 0.3483, 0.3523, 0.277, 0.6681, 0.3279, 0.4209, 0.6311, 0.4437, 0.6063, 0.217, 0.6219, 0.4284, 0.2218, 0.6936, 0.6271, 0.232, 0.4944, 0.6302, 0.4775, 0.6251, 0.5136, 0.362, 0.5956, 0.6304, 0.336, 0.661, 0.4414, 0.3393, 0.5302, 0.3172, 0.6009, 0.3226, 0.4862, 0.6336, 0.4898, 0.6621, 0.5884], [0.4333, 0.6174, 0.2211, 0.341, 0.58, 0.305, 0.6773, 0.2999, 0.6519, 0.3, 0.4038, 0.6233, 0.4529, 0.3642, 0.6624, 0.6328, 0.4112, 0.3139, 0.6923, 0.3385, 0.5036, 0.5655, 0.4757, 0.4926, 0.5371, 0.2016, 0.2501, 0.4028, 0.6957, 0.2204, 0.5907, 0.2572, 0.407, 0.618, 0.6258, 0.6546, 0.4321, 0.276, 0.2447, 0.5234], [0.3649, 0.3273, 0.2142, 0.6151, 0.314, 0.2979, 0.4535, 0.3607, 0.6815, 0.292, 0.3369, 0.4998, 0.2751, 0.5856, 0.3873, 0.6801, 0.5239, 0.6899, 0.5569, 0.2466, 0.624, 0.4235, 0.2164, 0.5495, 0.3298, 0.2197, 0.5919, 0.2962, 0.5533, 0.2418, 0.3786, 0.2485, 0.2277, 0.5843, 0.6704, 0.3258, 0.4287, 0.6507, 0.6316, 0.2037], [0.2075, 0.295, 0.2143, 0.6259, 0.5454, 0.2506, 0.6296, 0.6941, 0.5934, 0.2926, 0.5078, 0.5301, 0.2693, 0.3884, 0.3045, 0.3167, 0.4901, 0.5826, 0.5154, 0.6767, 0.6987, 0.2606, 0.5197, 0.2928, 0.2317, 0.5917, 0.2619, 0.4369, 0.4685, 0.5658, 0.6882, 0.593, 0.2862, 0.2154, 0.582, 0.3767, 0.2426, 0.5058, 0.3392, 0.6766], [0.5139, 0.2552, 0.2312, 0.572, 0.2607, 0.2788, 0.2944, 0.44, 0.2198, 0.2119, 0.5525, 0.2251, 0.4744, 0.6395, 0.3918, 0.4504, 0.6747, 0.2295, 0.3455, 0.3413, 0.5582, 0.4661, 0.6646, 0.3399, 0.6686, 0.2031, 0.6569, 0.2703, 0.3251, 0.4138, 0.3548, 0.2357, 0.5169, 0.5264, 0.2881, 0.4478, 0.5136, 0.428, 0.5281, 0.6893], [0.6996, 0.3885, 0.5139, 0.2776, 0.2497, 0.2675, 0.3485, 0.6167, 0.2955, 0.2751, 0.3645, 0.5324, 0.2987, 0.6728, 0.3992, 0.345, 0.3784, 0.3619, 0.2196, 0.4154, 0.5791, 0.5023, 0.4339, 0.4306, 0.4937, 0.4068, 0.4772, 0.5113, 0.2927, 0.2206, 0.6176, 0.2373, 0.2591, 0.6616, 0.6053, 0.4618, 0.2397, 0.2596, 0.5549, 0.4458], [0.513, 0.5875, 0.3457, 0.2894, 0.2166, 0.5517, 0.6841, 0.4802, 0.5553, 0.2863, 0.6447, 0.6447, 0.2271, 0.4248, 0.6017, 0.5825, 0.3452, 0.6875, 0.3655, 0.444, 0.352, 0.6934, 0.3447, 0.5017, 0.6541, 0.322, 0.4357, 0.2196, 0.6398, 0.6667, 0.3004, 0.4091, 0.2173, 0.463, 0.6672, 0.689, 0.6156, 0.6081, 0.5205, 0.2115], [0.4485, 0.3172, 0.2137, 0.2039, 0.4988, 0.262, 0.6708, 0.4853, 0.6709, 0.2213, 0.6005, 0.5771, 0.5362, 0.3628, 0.4608, 0.5215, 0.2206, 0.3784, 0.4775, 0.3401, 0.3849, 0.6137, 0.6762, 0.4324, 0.3439, 0.4986, 0.3239, 0.6936, 0.4063, 0.6959, 0.2385, 0.2814, 0.5008, 0.5022, 0.3619, 0.5041, 0.6419, 0.5247, 0.4027, 0.3895], [0.5813, 0.2326, 0.6687, 0.3775, 0.5942, 0.3917, 0.3239, 0.3322, 0.5066, 0.5348, 0.6463, 0.2637, 0.4657, 0.5133, 0.3015, 0.4497, 0.6947, 0.5803, 0.4773, 0.5076, 0.3729, 0.6612, 0.3355, 0.3667, 0.3889, 0.4933, 0.5483, 0.4697, 0.6762, 0.6135, 0.4014, 0.4364, 0.2494, 0.4842, 0.4407, 0.367, 0.4823, 0.2726, 0.5434, 0.3359], [0.5623, 0.6128, 0.3481, 0.5237, 0.5448, 0.4352, 0.4843, 0.2674, 0.5699, 0.4502, 0.3567, 0.3477, 0.3066, 0.3802, 0.3855, 0.6444, 0.2828, 0.208, 0.5577, 0.3584, 0.6254, 0.5673, 0.4231, 0.5985, 0.374, 0.3586, 0.6842, 0.3287, 0.554, 0.4613, 0.4461, 0.4329, 0.5104, 0.6614, 0.6344, 0.47, 0.6285, 0.4394, 0.5416, 0.6136], [0.5376, 0.6503, 0.4422, 0.2549, 0.6826, 0.6178, 0.6008, 0.3957, 0.2528, 0.4368, 0.3677, 0.3223, 0.6744, 0.3347, 0.6791, 0.2933, 0.5627, 0.2294, 0.2136, 0.3056, 0.5881, 0.2998, 0.4906, 0.5058, 0.6729, 0.5152, 0.5104, 0.4391, 0.6288, 0.6691, 0.6986, 0.6486, 0.2057, 0.3999, 0.5483, 0.645, 0.4986, 0.6356, 0.3835, 0.302], [0.5799, 0.6058, 0.6095, 0.2587, 0.42, 0.383, 0.4852, 0.4273, 0.4491, 0.5581, 0.652, 0.6197, 0.553, 0.5743, 0.4851, 0.3759, 0.4917, 0.3784, 0.4873, 0.5867, 0.3038, 0.4132, 0.4764, 0.2872, 0.3341, 0.3076, 0.6328, 0.6707, 0.6288, 0.4013, 0.5562, 0.6732, 0.5888, 0.3732, 0.6602, 0.4147, 0.3673, 0.6091, 0.4643, 0.2591], [0.233, 0.3893, 0.508, 0.3946, 0.4281, 0.3348, 0.5465, 0.4285, 0.2054, 0.6597, 0.6181, 0.2092, 0.241, 0.4601, 0.2985, 0.3098, 0.3742, 0.5743, 0.3922, 0.4973, 0.2655, 0.2859, 0.3094, 0.4811, 0.5674, 0.5755, 0.2218, 0.4831, 0.205, 0.5517, 0.2275, 0.5352, 0.5144, 0.35, 0.3465, 0.6879, 0.3158, 0.267, 0.2551, 0.4934], [0.5064, 0.5042, 0.3178, 0.3753, 0.3024, 0.4455, 0.657, 0.5513, 0.2676, 0.3479, 0.4678, 0.4215, 0.5215, 0.6411, 0.5255, 0.5274, 0.2578, 0.6787, 0.5675, 0.2229, 0.3193, 0.2876, 0.2744, 0.5667, 0.2779, 0.2071, 0.4702, 0.6005, 0.3186, 0.4407, 0.4252, 0.4313, 0.3173, 0.5342, 0.2308, 0.3289, 0.3403, 0.3377, 0.6569, 0.6656], [0.4671, 0.6282, 0.2777, 0.293, 0.5356, 0.4489, 0.6982, 0.4683, 0.5855, 0.2211, 0.4031, 0.4054, 0.3497, 0.3393, 0.6141, 0.6856, 0.26, 0.3719, 0.5451, 0.5133, 0.373, 0.221, 0.6801, 0.6661, 0.278, 0.4145, 0.2566, 0.3833, 0.6355, 0.6123, 0.2699, 0.6557, 0.3402, 0.5671, 0.5629, 0.2043, 0.6405, 0.2981, 0.2566, 0.4575], [0.386, 0.6881, 0.2747, 0.4417, 0.272, 0.6417, 0.4775, 0.6101, 0.5889, 0.523, 0.3491, 0.3788, 0.4337, 0.3566, 0.2976, 0.3858, 0.4231, 0.5886, 0.5718, 0.6466, 0.4979, 0.6519, 0.3155, 0.5961, 0.5811, 0.5587, 0.41, 0.5398, 0.328, 0.2566, 0.6934, 0.3767, 0.5641, 0.636, 0.4865, 0.3175, 0.572, 0.346, 0.6061, 0.6633], [0.6305, 0.4758, 0.3828, 0.6376, 0.3312, 0.3342, 0.5143, 0.5654, 0.3441, 0.2602, 0.668, 0.5018, 0.5082, 0.6319, 0.2061, 0.2312, 0.2041, 0.3218, 0.4558, 0.3454, 0.4336, 0.3092, 0.3257, 0.4937, 0.2506, 0.2777, 0.6826, 0.5206, 0.3787, 0.2363, 0.3292, 0.5963, 0.3178, 0.2789, 0.3259, 0.2784, 0.2279, 0.6789, 0.4067, 0.6751], [0.2852, 0.2249, 0.2809, 0.3369, 0.6371, 0.3827, 0.6091, 0.5602, 0.6984, 0.2055, 0.5012, 0.5489, 0.4423, 0.657, 0.3097, 0.6179, 0.4219, 0.2772, 0.5803, 0.3452, 0.2047, 0.5934, 0.315, 0.5497, 0.2613, 0.551, 0.5046, 0.6916, 0.4144, 0.2287, 0.5929, 0.4994, 0.3577, 0.429, 0.5191, 0.2106, 0.6344, 0.5227, 0.5275, 0.2599], [0.2084, 0.2179, 0.2839, 0.4488, 0.6806, 0.526, 0.4587, 0.6471, 0.3605, 0.4046, 0.4588, 0.4774, 0.4428, 0.3776, 0.6824, 0.6021, 0.2045, 0.566, 0.3304, 0.2091, 0.2336, 0.6955, 0.6227, 0.2072, 0.5084, 0.2568, 0.4669, 0.6014, 0.4901, 0.5676, 0.6813, 0.3975, 0.3638, 0.6168, 0.4387, 0.4546, 0.4011, 0.5065, 0.2068, 0.4537], [0.2676, 0.4676, 0.3445, 0.568, 0.3836, 0.5777, 0.4356, 0.6468, 0.6897, 0.645, 0.5857, 0.4109, 0.5021, 0.6756, 0.5776, 0.6624, 0.4613, 0.4029, 0.6532, 0.4166, 0.4838, 0.3443, 0.3237, 0.512, 0.477, 0.6025, 0.6208, 0.2886, 0.3436, 0.2602, 0.442, 0.2282, 0.29, 0.305, 0.456, 0.6311, 0.2457, 0.2846, 0.6249, 0.5095], [0.432, 0.665, 0.6527, 0.2164, 0.3874, 0.4464, 0.3222, 0.5997, 0.2465, 0.4559, 0.4855, 0.5336, 0.6071, 0.6936, 0.5937, 0.2993, 0.5456, 0.6743, 0.5317, 0.6218, 0.3514, 0.6268, 0.505, 0.2776, 0.2999, 0.5517, 0.3265, 0.5087, 0.5733, 0.4667, 0.2242, 0.4284, 0.6972, 0.4736, 0.4759, 0.3764, 0.4776, 0.2291, 0.5284, 0.2767], [0.4082, 0.5772, 0.3347, 0.4784, 0.4179, 0.2469, 0.6241, 0.5452, 0.5818, 0.288, 0.3476, 0.2488, 0.6424, 0.3766, 0.515, 0.2272, 0.2434, 0.55, 0.3295, 0.2733, 0.6096, 0.2263, 0.5074, 0.6396, 0.3527, 0.2941, 0.544, 0.59, 0.606, 0.3407, 0.5029, 0.5039, 0.528, 0.534, 0.6546, 0.6232, 0.2942, 0.2074, 0.2319, 0.5871], [0.6832, 0.4363, 0.6559, 0.2582, 0.5764, 0.5806, 0.6319, 0.656, 0.5574, 0.2736, 0.6806, 0.4114, 0.2199, 0.5059, 0.3024, 0.5698, 0.3519, 0.2329, 0.2573, 0.6575, 0.5714, 0.4387, 0.6676, 0.3939, 0.4296, 0.4904, 0.5579, 0.3936, 0.6965, 0.6462, 0.5545, 0.4547, 0.2446, 0.3802, 0.6534, 0.2684, 0.3216, 0.3774, 0.4194, 0.4935], [0.622, 0.3094, 0.403, 0.6211, 0.462, 0.207, 0.4782, 0.3108, 0.2024, 0.5155, 0.5624, 0.3068, 0.4554, 0.6316, 0.2614, 0.5452, 0.2632, 0.2787, 0.685, 0.3014, 0.4877, 0.6618, 0.4226, 0.3235, 0.2116, 0.2033, 0.6036, 0.4342, 0.4262, 0.2006, 0.6322, 0.5909, 0.274, 0.6512, 0.6346, 0.5513, 0.3559, 0.4869, 0.6276, 0.2442], [0.5891, 0.2884, 0.4778, 0.3873, 0.2055, 0.5971, 0.4613, 0.3713, 0.6808, 0.2062, 0.3363, 0.2391, 0.5637, 0.443, 0.214, 0.4739, 0.5095, 0.4577, 0.3496, 0.5886, 0.2651, 0.4086, 0.5828, 0.2824, 0.6314, 0.6244, 0.3276, 0.6302, 0.4875, 0.423, 0.3331, 0.3732, 0.6772, 0.4297, 0.6953, 0.4061, 0.3703, 0.4016, 0.2681, 0.6762], [0.4667, 0.5605, 0.5047, 0.468, 0.6319, 0.5427, 0.5441, 0.371, 0.4258, 0.5205, 0.4487, 0.4277, 0.4608, 0.543, 0.6711, 0.5101, 0.6938, 0.5321, 0.5138, 0.2161, 0.549, 0.6809, 0.2179, 0.2477, 0.5928, 0.48, 0.6062, 0.6605, 0.2766, 0.2123, 0.5596, 0.2341, 0.2069, 0.6675, 0.3218, 0.3717, 0.2938, 0.535, 0.3052, 0.5751], [0.2118, 0.2034, 0.2551, 0.3951, 0.247, 0.4906, 0.3601, 0.6842, 0.6237, 0.434, 0.5283, 0.6835, 0.3349, 0.404, 0.3439, 0.5158, 0.293, 0.299, 0.2572, 0.3556, 0.4342, 0.4042, 0.6743, 0.464, 0.5549, 0.5778, 0.4126, 0.4248, 0.4064, 0.5796, 0.227, 0.558, 0.6104, 0.6326, 0.6477, 0.5499, 0.6414, 0.6895, 0.672, 0.5575], [0.6127, 0.6927, 0.234, 0.5601, 0.3683, 0.5448, 0.4286, 0.4152, 0.3097, 0.494, 0.5737, 0.3309, 0.2527, 0.6588, 0.2628, 0.4799, 0.2868, 0.3089, 0.5186, 0.6955, 0.4589, 0.4042, 0.3074, 0.3205, 0.5563, 0.4386, 0.3152, 0.4892, 0.3183, 0.6707, 0.3421, 0.2208, 0.277, 0.3782, 0.382, 0.6344, 0.2731, 0.2541, 0.6844, 0.2614], [0.2642, 0.4872, 0.4205, 0.5625, 0.3678, 0.6123, 0.6201, 0.6456, 0.2008, 0.345, 0.2008, 0.3586, 0.2576, 0.6102, 0.4253, 0.2301, 0.4299, 0.2614, 0.6184, 0.6486, 0.3484, 0.5232, 0.2507, 0.5988, 0.3716, 0.6041, 0.4427, 0.3918, 0.3886, 0.4568, 0.2539, 0.5023, 0.6102, 0.3584, 0.4014, 0.5453, 0.3613, 0.3359, 0.3746, 0.5615], [0.2274, 0.6579, 0.5183, 0.4632, 0.2785, 0.5455, 0.6232, 0.3651, 0.3976, 0.514, 0.668, 0.6178, 0.2731, 0.6715, 0.4484, 0.6089, 0.3496, 0.2395, 0.5583, 0.486, 0.2515, 0.3828, 0.3318, 0.3189, 0.4115, 0.5271, 0.5328, 0.5778, 0.6062, 0.4285, 0.5261, 0.3427, 0.6221, 0.4614, 0.4844, 0.3194, 0.4787, 0.4722, 0.6883, 0.2634], [0.6529, 0.3891, 0.3598, 0.2635, 0.4201, 0.3987, 0.3602, 0.6131, 0.5336, 0.349, 0.6717, 0.2742, 0.3008, 0.2411, 0.2979, 0.3774, 0.4595, 0.2456, 0.6299, 0.678, 0.3191, 0.4579, 0.4689, 0.5724, 0.6355, 0.4052, 0.3984, 0.3556, 0.6027, 0.2931, 0.4131, 0.6046, 0.5934, 0.535, 0.5395, 0.546, 0.4051, 0.6743, 0.5461, 0.5094], [0.6104, 0.5696, 0.5424, 0.4301, 0.4606, 0.2316, 0.2275, 0.4667, 0.3966, 0.2075, 0.45, 0.4762, 0.3813, 0.488, 0.4467, 0.682, 0.5761, 0.5296, 0.6591, 0.3236, 0.5715, 0.3508, 0.6993, 0.6602, 0.5246, 0.4099, 0.2361, 0.6955, 0.3471, 0.2444, 0.4643, 0.6243, 0.5096, 0.2769, 0.463, 0.2779, 0.3398, 0.431, 0.6833, 0.5242], [0.5115, 0.2824, 0.3875, 0.3569, 0.3669, 0.3284, 0.3132, 0.4353, 0.5038, 0.3467, 0.2867, 0.3451, 0.6697, 0.4488, 0.5075, 0.3634, 0.3883, 0.5972, 0.3955, 0.6987, 0.272, 0.6687, 0.4277, 0.351, 0.5761, 0.615, 0.572, 0.5365, 0.229, 0.2493, 0.2319, 0.5473, 0.6393, 0.5779, 0.5863, 0.4898, 0.6789, 0.2596, 0.3353, 0.4772]]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[[0, 10], [2, 10], [2, 10], [1, 10], [0, 10], [5, 10], [2, 10], [2, 10], [5, 10], [0, 10], [3, 10], [0, 10], [4, 10], [4, 10], [0, 10], [3, 10], [0, 10], [2, 10], [0, 10], [0, 10], [0, 10], [4, 10], [5, 10], [0, 10], [3, 10], [3, 10], [4, 10], [2, 10], [4, 10], [1, 10]]</t>
+          <t>[[5, 10], [3, 10], [0, 10], [2, 10], [3, 10], [3, 10], [5, 10], [1, 10], [2, 10], [5, 10], [5, 10], [5, 10], [5, 10], [1, 10], [3, 10], [5, 10], [5, 10], [4, 10], [2, 10], [3, 10], [2, 10], [3, 10], [3, 10], [0, 10], [3, 10], [2, 10], [5, 10], [0, 10], [4, 10], [3, 10], [5, 10], [5, 10], [2, 10], [3, 10], [5, 10], [1, 10], [1, 10], [4, 10], [0, 10], [2, 10]]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[7, 7, 4, 6, 2, 6, 9, 2, 9, 9, 1, 6, 10, 4, 6, 5, 2, 7, 8, 8, 8, 8, 1, 3, 7, 2, 7, 4, 6, 6]</t>
+          <t>[8, 9, 9, 7, 8, 5, 5, 7, 7, 3, 4, 1, 1, 8, 10, 6, 9, 1, 5, 4, 4, 7, 6, 10, 6, 5, 9, 1, 2, 7, 8, 1, 8, 7, 9, 2, 3, 1, 5, 8]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[[0.5203, 0.2606, 0.3686, 0.2161, 0.291, 0.6999, 0.5671, 0.5524, 0.521, 0.5609, 0.3546, 0.514, 0.6193, 0.2248, 0.6962, 0.3635, 0.3104, 0.569, 0.3955, 0.2413, 0.2526, 0.3125, 0.4578, 0.3586, 0.6285, 0.6612, 0.5669, 0.3819, 0.4733, 0.3018], [0.4444, 0.3334, 0.569, 0.6825, 0.5577, 0.6927, 0.2237, 0.3754, 0.6708, 0.6511, 0.5285, 0.5808, 0.575, 0.2821, 0.2101, 0.3053, 0.5149, 0.4473, 0.5964, 0.2349, 0.4793, 0.6552, 0.6535, 0.3179, 0.4138, 0.4519, 0.6036, 0.3282, 0.5333, 0.5769], [0.6741, 0.4427, 0.3072, 0.3109, 0.3872, 0.6838, 0.6684, 0.4373, 0.3524, 0.2535, 0.6349, 0.3853, 0.5457, 0.6635, 0.3972, 0.4063, 0.5689, 0.6639, 0.6387, 0.4214, 0.2997, 0.255, 0.3327, 0.3882, 0.4004, 0.2305, 0.5292, 0.4542, 0.4905, 0.6762], [0.6977, 0.6832, 0.4165, 0.3542, 0.4517, 0.3545, 0.2656, 0.6116, 0.5012, 0.5719, 0.2346, 0.4495, 0.423, 0.6899, 0.4885, 0.2717, 0.6034, 0.5937, 0.5567, 0.3631, 0.663, 0.4426, 0.4858, 0.4349, 0.2538, 0.4944, 0.3297, 0.3371, 0.4831, 0.5874], [0.5196, 0.6978, 0.6728, 0.5688, 0.6916, 0.3062, 0.235, 0.5063, 0.3165, 0.407, 0.4038, 0.3097, 0.5032, 0.265, 0.4152, 0.3359, 0.4905, 0.6682, 0.4899, 0.2573, 0.5783, 0.4804, 0.5194, 0.296, 0.6849, 0.5675, 0.4775, 0.531, 0.6229, 0.3834], [0.6842, 0.6868, 0.4886, 0.2703, 0.4875, 0.5787, 0.364, 0.6705, 0.3133, 0.3152, 0.2928, 0.6046, 0.5714, 0.648, 0.3225, 0.2831, 0.5148, 0.5193, 0.6444, 0.2312, 0.5761, 0.6404, 0.2969, 0.5884, 0.3724, 0.6227, 0.3467, 0.415, 0.429, 0.6603], [0.5494, 0.3631, 0.6453, 0.594, 0.5156, 0.3356, 0.5011, 0.4521, 0.3339, 0.2414, 0.3607, 0.6433, 0.5022, 0.5174, 0.3837, 0.383, 0.5496, 0.3081, 0.5474, 0.3656, 0.4565, 0.4783, 0.3242, 0.3705, 0.6279, 0.6002, 0.3524, 0.6417, 0.2871, 0.5612], [0.6562, 0.6156, 0.4648, 0.3003, 0.4917, 0.2487, 0.2998, 0.6337, 0.5817, 0.6494, 0.4969, 0.5614, 0.2992, 0.3416, 0.6538, 0.2253, 0.6794, 0.3118, 0.5312, 0.4221, 0.4426, 0.6649, 0.5149, 0.2933, 0.6943, 0.4866, 0.6609, 0.4542, 0.4684, 0.3534], [0.6649, 0.6823, 0.5911, 0.2711, 0.522, 0.305, 0.5659, 0.5729, 0.6557, 0.4454, 0.522, 0.5217, 0.2651, 0.6645, 0.2462, 0.3964, 0.3641, 0.6413, 0.5294, 0.4257, 0.4484, 0.3619, 0.5639, 0.3154, 0.471, 0.6829, 0.3037, 0.3901, 0.4035, 0.3088], [0.5485, 0.3213, 0.5372, 0.6229, 0.6889, 0.2265, 0.5806, 0.6312, 0.4005, 0.5875, 0.3317, 0.2824, 0.4139, 0.3341, 0.4419, 0.3294, 0.6224, 0.2427, 0.2799, 0.2228, 0.31, 0.2987, 0.668, 0.3775, 0.2046, 0.2937, 0.5296, 0.5649, 0.428, 0.2199], [0.5101, 0.5359, 0.3453, 0.5418, 0.3149, 0.2219, 0.2951, 0.2618, 0.4397, 0.5012, 0.464, 0.4526, 0.466, 0.3393, 0.4638, 0.4865, 0.5484, 0.2204, 0.5893, 0.5174, 0.3267, 0.564, 0.5239, 0.6612, 0.223, 0.2078, 0.2759, 0.2442, 0.2838, 0.644], [0.6956, 0.3639, 0.2208, 0.2024, 0.3022, 0.356, 0.6879, 0.3231, 0.2752, 0.5792, 0.5271, 0.559, 0.2789, 0.4224, 0.6931, 0.4733, 0.6141, 0.2328, 0.2619, 0.4163, 0.305, 0.3196, 0.5529, 0.3009, 0.5775, 0.2635, 0.58, 0.6791, 0.2302, 0.3547], [0.443, 0.5392, 0.4044, 0.2066, 0.3498, 0.6831, 0.5318, 0.225, 0.3542, 0.3909, 0.293, 0.2113, 0.6295, 0.3926, 0.4182, 0.2593, 0.4333, 0.695, 0.5648, 0.22, 0.6199, 0.3657, 0.2155, 0.2018, 0.6032, 0.2963, 0.4031, 0.6254, 0.5669, 0.25], [0.3628, 0.4032, 0.6752, 0.2719, 0.4863, 0.2086, 0.5755, 0.3537, 0.4366, 0.3432, 0.4457, 0.2957, 0.3365, 0.2432, 0.2013, 0.5402, 0.265, 0.6226, 0.3957, 0.6497, 0.6949, 0.2518, 0.2489, 0.248, 0.5362, 0.6725, 0.6871, 0.5188, 0.6925, 0.2483], [0.5752, 0.4841, 0.5035, 0.3169, 0.3273, 0.3104, 0.3923, 0.2058, 0.6019, 0.293, 0.2084, 0.2924, 0.2066, 0.4436, 0.4005, 0.3184, 0.3339, 0.3673, 0.5248, 0.2363, 0.32, 0.2478, 0.6892, 0.519, 0.6309, 0.2856, 0.3305, 0.5629, 0.6165, 0.2149], [0.3555, 0.4663, 0.3616, 0.6513, 0.4283, 0.6379, 0.2925, 0.6382, 0.4177, 0.4147, 0.5016, 0.3761, 0.3056, 0.5898, 0.4371, 0.6704, 0.5371, 0.6441, 0.3402, 0.564, 0.5937, 0.3712, 0.4949, 0.4899, 0.4787, 0.2221, 0.5392, 0.2996, 0.3497, 0.3159], [0.338, 0.4489, 0.5282, 0.6628, 0.5672, 0.509, 0.3764, 0.231, 0.2864, 0.2737, 0.4981, 0.4951, 0.4477, 0.5315, 0.6965, 0.5443, 0.2006, 0.2064, 0.5544, 0.4381, 0.5371, 0.6175, 0.2433, 0.2089, 0.5059, 0.2105, 0.6982, 0.6093, 0.3693, 0.4016], [0.5919, 0.4954, 0.4654, 0.4671, 0.3219, 0.6524, 0.4302, 0.4719, 0.5219, 0.348, 0.2504, 0.5079, 0.239, 0.5137, 0.2335, 0.3414, 0.4966, 0.3969, 0.6357, 0.3008, 0.519, 0.5042, 0.2387, 0.3264, 0.481, 0.2199, 0.3513, 0.2505, 0.6265, 0.6162], [0.3464, 0.2846, 0.4365, 0.228, 0.4875, 0.3417, 0.5397, 0.2892, 0.4446, 0.5056, 0.6759, 0.4065, 0.2789, 0.6868, 0.3429, 0.4867, 0.6939, 0.4715, 0.2813, 0.3121, 0.6705, 0.5992, 0.529, 0.265, 0.2558, 0.5236, 0.5439, 0.5749, 0.4585, 0.4143], [0.2863, 0.5101, 0.294, 0.6248, 0.5409, 0.2792, 0.6563, 0.2223, 0.5745, 0.6742, 0.2513, 0.5879, 0.2122, 0.2183, 0.3121, 0.2362, 0.462, 0.3733, 0.2746, 0.5422, 0.5929, 0.3528, 0.6492, 0.624, 0.6417, 0.447, 0.2665, 0.3132, 0.526, 0.3224], [0.6239, 0.599, 0.607, 0.3589, 0.4692, 0.5685, 0.3661, 0.4067, 0.6562, 0.4632, 0.3578, 0.6877, 0.5225, 0.367, 0.2772, 0.656, 0.5581, 0.541, 0.6741, 0.2283, 0.6947, 0.2358, 0.6955, 0.2422, 0.5895, 0.2749, 0.462, 0.6106, 0.3341, 0.6425], [0.285, 0.2189, 0.5144, 0.2627, 0.4069, 0.4522, 0.3799, 0.6738, 0.2931, 0.6773, 0.247, 0.2893, 0.2567, 0.6905, 0.4421, 0.5418, 0.5413, 0.2358, 0.5841, 0.588, 0.4739, 0.2143, 0.5262, 0.391, 0.582, 0.6929, 0.2776, 0.6861, 0.6282, 0.5376], [0.4647, 0.4046, 0.6484, 0.4159, 0.5093, 0.3779, 0.3843, 0.4194, 0.4326, 0.6551, 0.4, 0.2145, 0.3142, 0.5483, 0.3895, 0.4433, 0.6724, 0.3531, 0.6933, 0.4167, 0.2774, 0.2666, 0.3734, 0.3141, 0.6112, 0.3169, 0.5449, 0.4047, 0.4872, 0.6291], [0.3661, 0.4142, 0.5365, 0.6695, 0.2515, 0.5665, 0.4854, 0.4552, 0.3954, 0.4659, 0.3607, 0.2866, 0.2703, 0.5219, 0.3246, 0.5104, 0.2709, 0.5048, 0.2246, 0.5422, 0.4361, 0.5303, 0.6534, 0.2261, 0.6299, 0.2393, 0.6746, 0.5449, 0.5798, 0.314], [0.6427, 0.3702, 0.3669, 0.2236, 0.5299, 0.4001, 0.57, 0.3648, 0.303, 0.6055, 0.2124, 0.5603, 0.5073, 0.4669, 0.3081, 0.383, 0.5511, 0.4076, 0.6302, 0.5678, 0.4353, 0.3366, 0.487, 0.3068, 0.6014, 0.562, 0.4089, 0.6037, 0.5492, 0.4749], [0.3109, 0.4607, 0.2349, 0.6124, 0.6758, 0.2183, 0.6602, 0.6378, 0.5848, 0.6145, 0.5596, 0.667, 0.5417, 0.2701, 0.3624, 0.6605, 0.3752, 0.3158, 0.6889, 0.2753, 0.6966, 0.4448, 0.342, 0.572, 0.4603, 0.3029, 0.5026, 0.5656, 0.6161, 0.4715], [0.2435, 0.3125, 0.4553, 0.6321, 0.3598, 0.3291, 0.3302, 0.2526, 0.2647, 0.5625, 0.419, 0.3022, 0.469, 0.6786, 0.3931, 0.5615, 0.4818, 0.5085, 0.2031, 0.2481, 0.5779, 0.2849, 0.6805, 0.2976, 0.5726, 0.6571, 0.2217, 0.2946, 0.2931, 0.5724], [0.2532, 0.3588, 0.447, 0.3765, 0.6864, 0.2869, 0.6896, 0.3461, 0.6233, 0.5106, 0.4723, 0.3111, 0.3791, 0.3787, 0.3333, 0.3012, 0.4282, 0.3039, 0.5615, 0.2274, 0.3145, 0.6598, 0.2743, 0.2298, 0.544, 0.5654, 0.2929, 0.4227, 0.506, 0.3956], [0.4834, 0.6931, 0.6668, 0.6795, 0.5278, 0.374, 0.2929, 0.2898, 0.4638, 0.4633, 0.491, 0.426, 0.2382, 0.6128, 0.2065, 0.3229, 0.5784, 0.4761, 0.2072, 0.2704, 0.59, 0.4404, 0.3091, 0.2118, 0.4977, 0.5894, 0.6123, 0.2416, 0.6559, 0.3012], [0.2784, 0.5101, 0.4087, 0.4548, 0.6274, 0.5131, 0.6544, 0.4658, 0.6225, 0.6013, 0.5311, 0.2187, 0.6632, 0.5379, 0.3173, 0.5332, 0.4857, 0.5204, 0.5974, 0.674, 0.6575, 0.3834, 0.4189, 0.2002, 0.2852, 0.5136, 0.6686, 0.551, 0.536, 0.5288]]</t>
+          <t>[[0.6045, 0.421, 0.4858, 0.3111, 0.2255, 0.5787, 0.6358, 0.2317, 0.4174, 0.2865, 0.495, 0.3654, 0.6176, 0.4571, 0.4801, 0.5036, 0.2925, 0.6101, 0.5811, 0.3319, 0.6453, 0.538, 0.3766, 0.433, 0.4356, 0.3405, 0.4586, 0.2918, 0.3274, 0.5252, 0.4968, 0.2185, 0.5017, 0.4068, 0.4273, 0.4951, 0.6247, 0.6399, 0.4327, 0.4815], [0.215, 0.2661, 0.2208, 0.6233, 0.5662, 0.59, 0.5291, 0.5238, 0.5728, 0.3663, 0.2153, 0.4763, 0.2788, 0.3275, 0.2788, 0.6758, 0.5854, 0.2407, 0.2761, 0.2039, 0.5119, 0.3749, 0.4255, 0.2183, 0.3233, 0.2041, 0.6762, 0.3502, 0.5743, 0.3029, 0.2579, 0.2678, 0.2961, 0.3623, 0.5154, 0.6158, 0.2901, 0.2222, 0.3636, 0.6979], [0.2072, 0.5285, 0.3297, 0.4599, 0.2259, 0.417, 0.2855, 0.3324, 0.3251, 0.3711, 0.2608, 0.3715, 0.3722, 0.3706, 0.2715, 0.4263, 0.5051, 0.4462, 0.6114, 0.6146, 0.4289, 0.2731, 0.357, 0.6402, 0.6804, 0.3571, 0.3846, 0.531, 0.5138, 0.2391, 0.4992, 0.3754, 0.6925, 0.6308, 0.5636, 0.528, 0.293, 0.4373, 0.4618, 0.514], [0.2516, 0.6139, 0.5679, 0.5702, 0.2902, 0.3728, 0.5207, 0.2419, 0.2347, 0.6578, 0.256, 0.2874, 0.6443, 0.2693, 0.6681, 0.368, 0.3008, 0.4294, 0.3453, 0.3834, 0.6239, 0.4689, 0.2164, 0.4843, 0.3954, 0.5286, 0.518, 0.5146, 0.6921, 0.259, 0.6205, 0.2881, 0.5253, 0.3905, 0.3083, 0.5901, 0.3485, 0.6281, 0.5483, 0.6665], [0.4104, 0.3035, 0.302, 0.2796, 0.6263, 0.2864, 0.3272, 0.5194, 0.6684, 0.4692, 0.3712, 0.379, 0.5802, 0.289, 0.2839, 0.3589, 0.2556, 0.6013, 0.4212, 0.2225, 0.4064, 0.6085, 0.4394, 0.3875, 0.4616, 0.5496, 0.5499, 0.5792, 0.4327, 0.2674, 0.5233, 0.5895, 0.5257, 0.5019, 0.5898, 0.6927, 0.3316, 0.5965, 0.6582, 0.3778], [0.5864, 0.4485, 0.6797, 0.2119, 0.2063, 0.2643, 0.2203, 0.674, 0.5524, 0.5201, 0.3758, 0.4961, 0.3976, 0.316, 0.493, 0.4312, 0.3535, 0.5051, 0.3159, 0.2885, 0.6576, 0.6564, 0.5103, 0.458, 0.5051, 0.4137, 0.4206, 0.6028, 0.5208, 0.4594, 0.2152, 0.6851, 0.2594, 0.3107, 0.5947, 0.609, 0.3419, 0.3811, 0.6969, 0.6038], [0.4956, 0.5242, 0.4395, 0.5449, 0.2236, 0.355, 0.6219, 0.2584, 0.6302, 0.5791, 0.5311, 0.584, 0.6865, 0.6077, 0.6479, 0.591, 0.4411, 0.3771, 0.6883, 0.543, 0.6106, 0.6161, 0.4876, 0.2044, 0.6212, 0.6628, 0.6513, 0.3062, 0.3798, 0.4069, 0.4955, 0.2724, 0.6046, 0.525, 0.5758, 0.4451, 0.4756, 0.3839, 0.4112, 0.331], [0.6464, 0.6543, 0.4702, 0.4413, 0.2388, 0.4354, 0.264, 0.4371, 0.6947, 0.5674, 0.2011, 0.2798, 0.4303, 0.2747, 0.6676, 0.3876, 0.3217, 0.529, 0.6364, 0.2643, 0.5332, 0.313, 0.4394, 0.3875, 0.4683, 0.5348, 0.6851, 0.2097, 0.2593, 0.2739, 0.5538, 0.6497, 0.3274, 0.5096, 0.5212, 0.3891, 0.3137, 0.219, 0.58, 0.557], [0.2547, 0.5839, 0.2964, 0.6165, 0.2095, 0.5191, 0.245, 0.2622, 0.369, 0.2873, 0.5214, 0.373, 0.3644, 0.2454, 0.218, 0.3925, 0.6127, 0.2642, 0.2624, 0.4401, 0.2492, 0.6097, 0.6492, 0.5821, 0.5607, 0.3156, 0.4352, 0.2291, 0.378, 0.2544, 0.2905, 0.2983, 0.6314, 0.5121, 0.4323, 0.396, 0.4753, 0.4789, 0.3931, 0.3825], [0.6119, 0.2084, 0.3646, 0.4535, 0.4316, 0.6016, 0.2818, 0.5637, 0.4412, 0.2302, 0.6873, 0.5124, 0.5891, 0.3601, 0.2093, 0.6891, 0.6245, 0.3009, 0.5554, 0.3335, 0.5709, 0.2578, 0.6365, 0.5552, 0.6858, 0.3052, 0.5724, 0.4346, 0.2934, 0.3477, 0.6804, 0.5014, 0.6232, 0.4558, 0.5807, 0.6133, 0.4346, 0.4183, 0.2036, 0.616], [0.5912, 0.3102, 0.6921, 0.2619, 0.6324, 0.3783, 0.2325, 0.5006, 0.3236, 0.4566, 0.5, 0.4466, 0.388, 0.3816, 0.2774, 0.5564, 0.4479, 0.6953, 0.2419, 0.2334, 0.2021, 0.6933, 0.3999, 0.5447, 0.6204, 0.4423, 0.3489, 0.236, 0.3715, 0.4666, 0.577, 0.4549, 0.4787, 0.2543, 0.2263, 0.4621, 0.361, 0.5801, 0.6847, 0.491], [0.5611, 0.6096, 0.4382, 0.5949, 0.5348, 0.2948, 0.3928, 0.4565, 0.2935, 0.2707, 0.3838, 0.4477, 0.4892, 0.6486, 0.6272, 0.328, 0.6928, 0.2764, 0.4872, 0.2989, 0.406, 0.5199, 0.6143, 0.5746, 0.2099, 0.5275, 0.5526, 0.2707, 0.472, 0.3722, 0.4822, 0.3584, 0.4619, 0.2408, 0.6271, 0.6621, 0.2441, 0.2396, 0.6486, 0.4244], [0.3944, 0.6329, 0.6555, 0.3371, 0.3352, 0.3781, 0.2542, 0.508, 0.3618, 0.3528, 0.2836, 0.2318, 0.6163, 0.313, 0.3344, 0.3017, 0.366, 0.292, 0.5988, 0.5118, 0.452, 0.6778, 0.583, 0.3307, 0.4569, 0.6994, 0.539, 0.536, 0.392, 0.2003, 0.6512, 0.6932, 0.2216, 0.2146, 0.3108, 0.3108, 0.2561, 0.2235, 0.6977, 0.2849], [0.33, 0.5907, 0.675, 0.6912, 0.6213, 0.4185, 0.4429, 0.3571, 0.4868, 0.374, 0.5775, 0.4063, 0.547, 0.3996, 0.4386, 0.5096, 0.5192, 0.3372, 0.6072, 0.3383, 0.6539, 0.6659, 0.6541, 0.5489, 0.2314, 0.6768, 0.3751, 0.6289, 0.4745, 0.6647, 0.4204, 0.6556, 0.2669, 0.4454, 0.2242, 0.2509, 0.2239, 0.4568, 0.5399, 0.4094], [0.2241, 0.3286, 0.6354, 0.4782, 0.2017, 0.4859, 0.5264, 0.4806, 0.4279, 0.3092, 0.5436, 0.4672, 0.617, 0.3261, 0.2179, 0.3133, 0.466, 0.2703, 0.6176, 0.2692, 0.6599, 0.2545, 0.4644, 0.6378, 0.5361, 0.621, 0.6634, 0.512, 0.5075, 0.3015, 0.3231, 0.4224, 0.6822, 0.3792, 0.4254, 0.6875, 0.3761, 0.3633, 0.6514, 0.4407], [0.318, 0.3271, 0.4206, 0.5144, 0.2961, 0.2757, 0.5998, 0.5461, 0.5575, 0.6657, 0.3464, 0.6112, 0.678, 0.3487, 0.2696, 0.3383, 0.6235, 0.4391, 0.4533, 0.6022, 0.2535, 0.4933, 0.2809, 0.6443, 0.3178, 0.3768, 0.3733, 0.5321, 0.6336, 0.5777, 0.5214, 0.2527, 0.4785, 0.5575, 0.5091, 0.5512, 0.5323, 0.5197, 0.6717, 0.552], [0.6907, 0.2996, 0.6569, 0.3977, 0.5268, 0.4618, 0.6717, 0.6213, 0.4479, 0.6529, 0.4173, 0.3785, 0.2008, 0.3314, 0.5128, 0.5132, 0.6249, 0.5828, 0.5183, 0.2466, 0.4847, 0.5454, 0.2509, 0.5354, 0.671, 0.4735, 0.3313, 0.2033, 0.4536, 0.2108, 0.4903, 0.5021, 0.6878, 0.4784, 0.3156, 0.5601, 0.3243, 0.3058, 0.6607, 0.2592], [0.4969, 0.699, 0.5093, 0.3933, 0.5748, 0.2294, 0.2489, 0.236, 0.3784, 0.2643, 0.5348, 0.2512, 0.6913, 0.6267, 0.3347, 0.4377, 0.238, 0.6555, 0.6554, 0.6432, 0.4787, 0.2033, 0.4021, 0.3394, 0.4354, 0.6125, 0.672, 0.6237, 0.3196, 0.5296, 0.611, 0.4622, 0.356, 0.3724, 0.2282, 0.3708, 0.6584, 0.5548, 0.3436, 0.6303], [0.6956, 0.393, 0.6314, 0.4849, 0.2279, 0.5042, 0.2467, 0.3311, 0.6423, 0.2852, 0.6034, 0.3008, 0.454, 0.504, 0.2903, 0.5452, 0.3731, 0.3709, 0.3646, 0.307, 0.2357, 0.3338, 0.3424, 0.5517, 0.2931, 0.4826, 0.4728, 0.6033, 0.3935, 0.3162, 0.3262, 0.5615, 0.4256, 0.5766, 0.6496, 0.589, 0.2442, 0.5282, 0.4842, 0.6844], [0.6376, 0.6404, 0.4361, 0.5097, 0.2875, 0.2921, 0.4852, 0.5288, 0.4646, 0.2919, 0.4919, 0.55, 0.6309, 0.332, 0.594, 0.6599, 0.6277, 0.3576, 0.2208, 0.6352, 0.6167, 0.6305, 0.444, 0.4538, 0.3568, 0.6284, 0.567, 0.2261, 0.578, 0.3279, 0.4858, 0.3305, 0.2698, 0.5884, 0.6306, 0.2582, 0.6031, 0.6262, 0.6728, 0.4498], [0.4868, 0.4382, 0.6127, 0.3988, 0.4465, 0.5611, 0.4456, 0.5661, 0.5133, 0.4275, 0.6265, 0.4873, 0.3992, 0.2175, 0.6641, 0.6467, 0.2575, 0.6811, 0.2357, 0.5159, 0.2844, 0.5341, 0.5301, 0.4519, 0.3038, 0.2497, 0.4081, 0.4616, 0.3106, 0.3681, 0.3643, 0.2347, 0.3955, 0.4762, 0.6382, 0.3703, 0.2617, 0.64, 0.6724, 0.633], [0.567, 0.6393, 0.283, 0.3756, 0.4222, 0.6774, 0.4016, 0.5907, 0.3035, 0.6906, 0.4026, 0.2144, 0.3594, 0.6262, 0.2752, 0.3672, 0.5524, 0.5283, 0.3486, 0.2111, 0.653, 0.2084, 0.6748, 0.5665, 0.237, 0.2141, 0.3353, 0.5691, 0.6662, 0.5491, 0.2681, 0.217, 0.636, 0.3493, 0.2926, 0.2358, 0.4459, 0.6332, 0.2721, 0.6561], [0.268, 0.5803, 0.2391, 0.4974, 0.3318, 0.4326, 0.2869, 0.5494, 0.4327, 0.2233, 0.4108, 0.611, 0.6238, 0.6847, 0.3761, 0.3337, 0.6729, 0.3783, 0.3008, 0.575, 0.2166, 0.5753, 0.5136, 0.6889, 0.2452, 0.6712, 0.4654, 0.4573, 0.5802, 0.6266, 0.3036, 0.6931, 0.2956, 0.6357, 0.2103, 0.413, 0.2904, 0.4271, 0.5072, 0.5371], [0.2303, 0.6831, 0.6697, 0.5859, 0.4971, 0.6545, 0.4662, 0.6827, 0.3732, 0.574, 0.5913, 0.4257, 0.3318, 0.3948, 0.3901, 0.5972, 0.5409, 0.2052, 0.4652, 0.259, 0.2388, 0.4807, 0.5541, 0.65, 0.4685, 0.406, 0.5648, 0.4761, 0.2752, 0.3642, 0.6754, 0.35, 0.583, 0.5566, 0.2024, 0.4507, 0.5622, 0.3675, 0.2765, 0.6124], [0.5518, 0.4866, 0.5633, 0.5984, 0.5477, 0.3638, 0.4139, 0.2848, 0.5478, 0.2965, 0.3676, 0.6198, 0.4226, 0.689, 0.2102, 0.4361, 0.616, 0.6874, 0.2002, 0.5733, 0.656, 0.3413, 0.5199, 0.4171, 0.3342, 0.2669, 0.4624, 0.3756, 0.6366, 0.2005, 0.6923, 0.4822, 0.2276, 0.5006, 0.4052, 0.4246, 0.4774, 0.4543, 0.2678, 0.4253], [0.3437, 0.4146, 0.2524, 0.5178, 0.2205, 0.6099, 0.246, 0.5899, 0.4605, 0.3218, 0.366, 0.2279, 0.696, 0.2733, 0.4904, 0.2261, 0.6438, 0.5755, 0.2829, 0.2273, 0.4776, 0.6291, 0.3955, 0.6413, 0.3432, 0.6922, 0.3132, 0.3665, 0.3452, 0.6153, 0.2641, 0.4701, 0.2136, 0.6954, 0.6581, 0.2966, 0.4648, 0.4243, 0.6045, 0.4169], [0.4058, 0.5376, 0.479, 0.4457, 0.6648, 0.4865, 0.6366, 0.4697, 0.6395, 0.2354, 0.6934, 0.5787, 0.2063, 0.4173, 0.3221, 0.4508, 0.2004, 0.6163, 0.3125, 0.2141, 0.6244, 0.2827, 0.2501, 0.4553, 0.675, 0.2224, 0.2545, 0.5287, 0.4745, 0.4451, 0.4381, 0.3643, 0.4928, 0.503, 0.634, 0.3047, 0.5141, 0.4669, 0.5939, 0.6311], [0.2164, 0.606, 0.4401, 0.2943, 0.3483, 0.5253, 0.5124, 0.3201, 0.5564, 0.3804, 0.625, 0.3091, 0.3734, 0.6916, 0.6921, 0.6425, 0.434, 0.534, 0.238, 0.296, 0.239, 0.6642, 0.3208, 0.2421, 0.2574, 0.5402, 0.6957, 0.4299, 0.6913, 0.5349, 0.4133, 0.2751, 0.5562, 0.6108, 0.6618, 0.209, 0.3021, 0.4379, 0.5702, 0.266], [0.5642, 0.2218, 0.4459, 0.4789, 0.2377, 0.5365, 0.4188, 0.5387, 0.4958, 0.5149, 0.5481, 0.6143, 0.6249, 0.2511, 0.3764, 0.2563, 0.6534, 0.6425, 0.2265, 0.6848, 0.3881, 0.645, 0.3723, 0.2167, 0.3323, 0.2536, 0.4168, 0.6385, 0.5935, 0.5812, 0.339, 0.4891, 0.4264, 0.2523, 0.5197, 0.5266, 0.4669, 0.3863, 0.616, 0.4571], [0.5712, 0.6564, 0.2564, 0.2426, 0.6346, 0.6025, 0.4783, 0.2734, 0.4192, 0.6272, 0.6085, 0.3552, 0.476, 0.3563, 0.5781, 0.3386, 0.5179, 0.4334, 0.3586, 0.3911, 0.6516, 0.3092, 0.2076, 0.4354, 0.2306, 0.625, 0.433, 0.2898, 0.3168, 0.6306, 0.6296, 0.2276, 0.4293, 0.2961, 0.442, 0.4364, 0.6143, 0.4778, 0.2878, 0.3517], [0.2349, 0.678, 0.3224, 0.6164, 0.4243, 0.3192, 0.5792, 0.5933, 0.3147, 0.4058, 0.3839, 0.2515, 0.2179, 0.2583, 0.3842, 0.5546, 0.2125, 0.3631, 0.4172, 0.4267, 0.4996, 0.4821, 0.2115, 0.5505, 0.4506, 0.2559, 0.6831, 0.3586, 0.3593, 0.448, 0.2214, 0.2414, 0.2699, 0.4139, 0.4928, 0.5434, 0.3304, 0.5231, 0.2538, 0.3987], [0.6773, 0.2681, 0.5075, 0.3812, 0.5825, 0.2434, 0.4941, 0.6169, 0.636, 0.4536, 0.5216, 0.4639, 0.6492, 0.4209, 0.2997, 0.3651, 0.5546, 0.3941, 0.3036, 0.231, 0.4837, 0.3537, 0.5984, 0.2111, 0.5521, 0.299, 0.2019, 0.4396, 0.6075, 0.2181, 0.6933, 0.4144, 0.4109, 0.4286, 0.2394, 0.3095, 0.2901, 0.651, 0.2157, 0.6435], [0.4198, 0.6226, 0.3568, 0.3276, 0.6435, 0.4628, 0.2098, 0.3845, 0.6495, 0.2439, 0.6309, 0.5892, 0.555, 0.3303, 0.5145, 0.263, 0.4975, 0.5423, 0.2238, 0.3321, 0.5671, 0.6896, 0.6821, 0.6709, 0.2953, 0.3334, 0.5898, 0.2849, 0.5804, 0.668, 0.6026, 0.6897, 0.3558, 0.6641, 0.6015, 0.4353, 0.2502, 0.3619, 0.5269, 0.4969], [0.5328, 0.428, 0.4858, 0.3718, 0.4222, 0.3778, 0.6667, 0.6759, 0.2812, 0.5356, 0.2219, 0.5398, 0.3318, 0.4516, 0.3349, 0.409, 0.6257, 0.5117, 0.6231, 0.5783, 0.4477, 0.556, 0.3029, 0.5377, 0.4325, 0.3894, 0.4785, 0.5147, 0.5154, 0.5462, 0.5903, 0.4394, 0.4342, 0.3929, 0.3156, 0.5983, 0.5059, 0.6722, 0.4325, 0.6727], [0.6614, 0.541, 0.6637, 0.3133, 0.3301, 0.5094, 0.3714, 0.3177, 0.4694, 0.3129, 0.5109, 0.3537, 0.2172, 0.6566, 0.3284, 0.4949, 0.573, 0.2673, 0.2641, 0.4663, 0.5534, 0.5694, 0.5679, 0.2316, 0.6502, 0.5105, 0.3451, 0.4724, 0.2438, 0.5358, 0.2434, 0.423, 0.311, 0.5822, 0.6144, 0.4808, 0.5646, 0.4749, 0.4084, 0.6809], [0.4937, 0.2385, 0.2708, 0.2767, 0.468, 0.3983, 0.596, 0.4664, 0.6915, 0.2848, 0.2644, 0.2183, 0.2327, 0.2386, 0.6923, 0.6869, 0.2874, 0.3983, 0.3335, 0.4935, 0.2852, 0.6503, 0.5494, 0.5821, 0.6757, 0.2189, 0.6892, 0.4504, 0.5737, 0.5886, 0.6505, 0.3815, 0.2352, 0.2966, 0.2191, 0.5153, 0.5057, 0.4187, 0.4389, 0.2267], [0.4575, 0.5671, 0.4666, 0.3276, 0.5123, 0.5804, 0.6259, 0.2519, 0.4164, 0.2398, 0.2064, 0.2277, 0.2426, 0.5638, 0.6399, 0.6701, 0.2371, 0.3414, 0.533, 0.6353, 0.4217, 0.2757, 0.4081, 0.5321, 0.5187, 0.3348, 0.3368, 0.5369, 0.4864, 0.2616, 0.4369, 0.4527, 0.2217, 0.5723, 0.4476, 0.2236, 0.4669, 0.5578, 0.2306, 0.2979], [0.4193, 0.6161, 0.4992, 0.6165, 0.2849, 0.6627, 0.3652, 0.5565, 0.3755, 0.3852, 0.3454, 0.6623, 0.4119, 0.3508, 0.5049, 0.3273, 0.2998, 0.414, 0.2907, 0.6929, 0.2445, 0.2341, 0.3567, 0.6932, 0.295, 0.3682, 0.6872, 0.281, 0.5011, 0.21, 0.3164, 0.6047, 0.2095, 0.2434, 0.2967, 0.5787, 0.6038, 0.5956, 0.2246, 0.2479], [0.3611, 0.4514, 0.2058, 0.5176, 0.6907, 0.2021, 0.3907, 0.3991, 0.2278, 0.4036, 0.6903, 0.5385, 0.6255, 0.3056, 0.2676, 0.5237, 0.4898, 0.4014, 0.5174, 0.6972, 0.4601, 0.232, 0.4526, 0.5645, 0.2961, 0.4624, 0.3037, 0.2811, 0.5538, 0.4277, 0.4422, 0.2196, 0.5405, 0.5625, 0.6929, 0.4533, 0.3562, 0.6758, 0.392, 0.4085], [0.4774, 0.5182, 0.3889, 0.5632, 0.3413, 0.2785, 0.6669, 0.5221, 0.6447, 0.4696, 0.6304, 0.5271, 0.4214, 0.6031, 0.227, 0.587, 0.5858, 0.6883, 0.3136, 0.6753, 0.4503, 0.6881, 0.4988, 0.2868, 0.6355, 0.3133, 0.4987, 0.6978, 0.5194, 0.3188, 0.6875, 0.3103, 0.4005, 0.4517, 0.6684, 0.2547, 0.6416, 0.5928, 0.5, 0.2196]]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[[2, 10], [3, 10], [3, 10], [4, 10], [1, 10], [4, 10], [2, 10], [2, 10], [2, 10], [3, 10], [3, 10], [1, 10], [0, 10], [3, 10], [3, 10], [2, 10], [3, 10], [0, 10], [3, 10], [3, 10], [0, 10], [0, 10], [1, 10], [1, 10], [1, 10], [5, 10], [0, 10], [3, 10], [3, 10], [1, 10]]</t>
+          <t>[[3, 10], [0, 10], [0, 10], [4, 10], [5, 10], [3, 10], [1, 10], [2, 10], [4, 10], [4, 10], [5, 10], [3, 10], [5, 10], [2, 10], [4, 10], [3, 10], [4, 10], [4, 10], [2, 10], [5, 10], [0, 10], [1, 10], [2, 10], [1, 10], [0, 10], [2, 10], [2, 10], [5, 10], [0, 10], [2, 10], [2, 10], [4, 10], [1, 10], [3, 10], [2, 10], [1, 10], [3, 10], [1, 10], [3, 10], [0, 10]]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[5, 3, 9, 7, 3, 2, 8, 4, 2, 7, 9, 8, 8, 1, 9, 1, 9, 5, 5, 2, 8, 7, 2, 4, 8, 5, 8, 8, 3, 1]</t>
+          <t>[9, 3, 7, 8, 7, 8, 6, 2, 10, 8, 2, 4, 4, 1, 9, 9, 1, 4, 6, 9, 9, 2, 6, 9, 6, 10, 9, 5, 8, 9, 10, 6, 4, 5, 2, 1, 5, 5, 1, 6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[[0.217, 0.3153, 0.6965, 0.2818, 0.6173, 0.473, 0.2854, 0.447, 0.317, 0.3485, 0.4425, 0.2126, 0.6474, 0.6684, 0.5162, 0.3589, 0.3774, 0.5437, 0.603, 0.2309, 0.6614, 0.477, 0.52, 0.6464, 0.526, 0.2305, 0.5174, 0.631, 0.307, 0.3942], [0.6778, 0.5108, 0.517, 0.3716, 0.6593, 0.4782, 0.5558, 0.3179, 0.3771, 0.2245, 0.3377, 0.302, 0.6088, 0.6194, 0.4533, 0.5792, 0.3167, 0.2839, 0.2974, 0.3073, 0.2733, 0.4826, 0.4215, 0.5392, 0.3368, 0.4437, 0.5795, 0.3527, 0.2163, 0.5832], [0.6924, 0.3609, 0.4549, 0.5513, 0.6481, 0.4777, 0.5275, 0.2139, 0.5079, 0.6176, 0.4077, 0.3591, 0.4713, 0.662, 0.323, 0.5629, 0.2333, 0.4772, 0.3789, 0.4327, 0.3654, 0.6678, 0.4696, 0.6656, 0.6549, 0.5242, 0.2553, 0.3813, 0.3393, 0.6194], [0.2898, 0.275, 0.6476, 0.3468, 0.3749, 0.51, 0.3384, 0.6919, 0.2103, 0.55, 0.2378, 0.3768, 0.2508, 0.662, 0.3287, 0.5102, 0.5326, 0.6134, 0.6664, 0.3235, 0.5277, 0.6063, 0.2029, 0.6473, 0.5114, 0.2622, 0.4757, 0.3791, 0.528, 0.225], [0.2115, 0.3198, 0.532, 0.2322, 0.45, 0.6069, 0.3608, 0.5362, 0.5264, 0.4905, 0.3213, 0.5836, 0.5262, 0.3799, 0.6158, 0.3284, 0.3941, 0.2132, 0.553, 0.411, 0.2156, 0.515, 0.6925, 0.4851, 0.5104, 0.3156, 0.5994, 0.2449, 0.6793, 0.5515], [0.3353, 0.4392, 0.2205, 0.3379, 0.6205, 0.4733, 0.375, 0.3295, 0.3292, 0.6865, 0.6942, 0.5802, 0.5131, 0.5334, 0.6575, 0.6079, 0.4139, 0.5212, 0.6657, 0.3463, 0.4797, 0.2637, 0.604, 0.2983, 0.3806, 0.6717, 0.3432, 0.5669, 0.6739, 0.3691], [0.5097, 0.4283, 0.3046, 0.397, 0.5163, 0.593, 0.4215, 0.2702, 0.6299, 0.3482, 0.2621, 0.249, 0.6144, 0.5951, 0.3115, 0.3739, 0.4234, 0.4586, 0.4863, 0.3391, 0.4783, 0.6761, 0.3629, 0.6954, 0.6867, 0.3893, 0.5072, 0.6242, 0.4155, 0.5164], [0.4854, 0.6376, 0.5178, 0.5269, 0.3506, 0.2092, 0.4619, 0.341, 0.3959, 0.5556, 0.3141, 0.3129, 0.3921, 0.2094, 0.2741, 0.3716, 0.3835, 0.3943, 0.6428, 0.4195, 0.413, 0.6858, 0.6662, 0.5243, 0.687, 0.2889, 0.5466, 0.6658, 0.6129, 0.5305], [0.2081, 0.2446, 0.2646, 0.6151, 0.2294, 0.5657, 0.4674, 0.6878, 0.4249, 0.5361, 0.6263, 0.65, 0.2364, 0.5975, 0.5278, 0.4421, 0.5036, 0.4729, 0.2415, 0.5464, 0.5596, 0.6211, 0.6468, 0.4613, 0.503, 0.264, 0.4677, 0.5107, 0.2916, 0.5135], [0.5836, 0.5387, 0.2524, 0.6482, 0.5561, 0.3254, 0.4509, 0.6311, 0.3971, 0.2087, 0.6004, 0.6692, 0.6706, 0.5411, 0.5849, 0.3909, 0.6817, 0.4518, 0.5619, 0.6906, 0.3166, 0.4751, 0.2839, 0.314, 0.6389, 0.2377, 0.3921, 0.6949, 0.2524, 0.5002], [0.2656, 0.208, 0.5639, 0.6662, 0.5706, 0.5961, 0.6995, 0.3457, 0.6581, 0.4036, 0.5728, 0.385, 0.5521, 0.6679, 0.4089, 0.6759, 0.4423, 0.652, 0.6246, 0.4161, 0.6995, 0.5585, 0.6939, 0.5026, 0.5618, 0.3449, 0.3199, 0.3264, 0.3501, 0.579], [0.5863, 0.4149, 0.3168, 0.3195, 0.2969, 0.4562, 0.3654, 0.3248, 0.2221, 0.3161, 0.4584, 0.5171, 0.4813, 0.2362, 0.4403, 0.6691, 0.3321, 0.4007, 0.5391, 0.5812, 0.5435, 0.6573, 0.235, 0.5387, 0.3551, 0.6594, 0.6655, 0.5107, 0.6982, 0.5117], [0.4109, 0.3666, 0.6308, 0.2446, 0.3968, 0.4045, 0.6311, 0.4896, 0.6694, 0.3142, 0.3196, 0.2322, 0.4717, 0.386, 0.5055, 0.5144, 0.6357, 0.4767, 0.5903, 0.5053, 0.4814, 0.4759, 0.4667, 0.6545, 0.2403, 0.6497, 0.4793, 0.6445, 0.2391, 0.3056], [0.5382, 0.3529, 0.346, 0.6624, 0.6037, 0.4188, 0.428, 0.5847, 0.6894, 0.357, 0.6041, 0.6625, 0.5845, 0.4006, 0.632, 0.6434, 0.4485, 0.2347, 0.5978, 0.5321, 0.5043, 0.5536, 0.6732, 0.5489, 0.2428, 0.4242, 0.6755, 0.5328, 0.285, 0.4275], [0.6208, 0.4779, 0.4374, 0.339, 0.3654, 0.3649, 0.3858, 0.2114, 0.4826, 0.6281, 0.4336, 0.6513, 0.508, 0.6225, 0.4157, 0.3094, 0.3325, 0.2687, 0.407, 0.6124, 0.6859, 0.6228, 0.2224, 0.5235, 0.3049, 0.4901, 0.6344, 0.3382, 0.2177, 0.6043], [0.2416, 0.2658, 0.5259, 0.6075, 0.3616, 0.2394, 0.3024, 0.5078, 0.6912, 0.3849, 0.4296, 0.2251, 0.5505, 0.6668, 0.4522, 0.4254, 0.223, 0.5172, 0.3467, 0.3138, 0.5552, 0.2924, 0.5628, 0.2138, 0.5906, 0.4005, 0.5104, 0.5071, 0.5005, 0.5345], [0.2844, 0.52, 0.6293, 0.3393, 0.2415, 0.6908, 0.6395, 0.2559, 0.3314, 0.4342, 0.6351, 0.3474, 0.4459, 0.601, 0.6325, 0.5154, 0.6674, 0.263, 0.5373, 0.3157, 0.5133, 0.2129, 0.6398, 0.4949, 0.6774, 0.335, 0.2771, 0.2036, 0.2474, 0.6375], [0.6092, 0.2906, 0.5182, 0.5124, 0.5408, 0.3059, 0.4109, 0.2472, 0.3359, 0.6277, 0.6995, 0.6324, 0.3137, 0.4619, 0.3683, 0.2686, 0.5301, 0.22, 0.4726, 0.3991, 0.4689, 0.466, 0.6127, 0.5313, 0.501, 0.3935, 0.4181, 0.466, 0.5766, 0.5754], [0.2513, 0.4616, 0.6248, 0.5867, 0.4438, 0.6979, 0.3594, 0.3726, 0.6509, 0.3991, 0.6553, 0.2804, 0.5236, 0.6687, 0.5029, 0.6899, 0.5988, 0.2634, 0.6589, 0.5351, 0.3496, 0.5113, 0.2719, 0.4255, 0.3772, 0.3716, 0.3516, 0.367, 0.5628, 0.27], [0.356, 0.5992, 0.3565, 0.6579, 0.4214, 0.2896, 0.4715, 0.2688, 0.3451, 0.5128, 0.5641, 0.5242, 0.2656, 0.5398, 0.5391, 0.5951, 0.3073, 0.3525, 0.6782, 0.5262, 0.3864, 0.6133, 0.3713, 0.5995, 0.2152, 0.5209, 0.3671, 0.6167, 0.5366, 0.3293], [0.6434, 0.4147, 0.2239, 0.6039, 0.5245, 0.5708, 0.5177, 0.4278, 0.3173, 0.4664, 0.6123, 0.3095, 0.2812, 0.6052, 0.4951, 0.4401, 0.3423, 0.3067, 0.6451, 0.4467, 0.3708, 0.2643, 0.5428, 0.6277, 0.359, 0.3456, 0.3444, 0.5433, 0.2718, 0.5837], [0.6008, 0.6075, 0.2487, 0.2631, 0.4332, 0.477, 0.4399, 0.3039, 0.2001, 0.6173, 0.5318, 0.6338, 0.2313, 0.2098, 0.3648, 0.4373, 0.2763, 0.3748, 0.4455, 0.357, 0.3697, 0.4777, 0.3834, 0.3724, 0.6157, 0.4678, 0.3803, 0.4574, 0.2346, 0.3262], [0.6469, 0.4718, 0.6205, 0.3446, 0.4289, 0.4387, 0.3585, 0.3727, 0.6343, 0.6928, 0.5838, 0.2008, 0.5043, 0.2846, 0.5534, 0.2007, 0.5944, 0.2377, 0.5164, 0.3173, 0.4104, 0.3071, 0.57, 0.6493, 0.3368, 0.6355, 0.2152, 0.5499, 0.2081, 0.3768], [0.6916, 0.5148, 0.525, 0.3009, 0.5279, 0.4948, 0.4233, 0.519, 0.5115, 0.6548, 0.6191, 0.6377, 0.6418, 0.4646, 0.4398, 0.3501, 0.6243, 0.3497, 0.4892, 0.6754, 0.3638, 0.2763, 0.6387, 0.4885, 0.2168, 0.4627, 0.2001, 0.2823, 0.2641, 0.6795], [0.3898, 0.2705, 0.5743, 0.2171, 0.5105, 0.5524, 0.6058, 0.4212, 0.4311, 0.429, 0.2874, 0.4508, 0.3912, 0.3617, 0.3175, 0.284, 0.4885, 0.444, 0.545, 0.4666, 0.2724, 0.2122, 0.3674, 0.6461, 0.326, 0.4785, 0.5042, 0.389, 0.3817, 0.5649], [0.6105, 0.6545, 0.4161, 0.2047, 0.3408, 0.4105, 0.6262, 0.3296, 0.407, 0.5251, 0.2418, 0.6143, 0.2467, 0.6482, 0.6482, 0.6105, 0.6476, 0.3061, 0.5612, 0.6962, 0.6735, 0.4817, 0.5996, 0.4171, 0.6481, 0.257, 0.5216, 0.6282, 0.4754, 0.5809], [0.5191, 0.3053, 0.5853, 0.4226, 0.2816, 0.5385, 0.2111, 0.413, 0.5966, 0.4732, 0.6293, 0.6307, 0.4803, 0.6528, 0.2828, 0.4297, 0.3818, 0.3359, 0.6318, 0.5233, 0.5019, 0.6159, 0.664, 0.6042, 0.2349, 0.399, 0.6438, 0.4167, 0.2744, 0.6856], [0.6659, 0.3027, 0.3386, 0.4925, 0.2984, 0.2606, 0.686, 0.3514, 0.4074, 0.2667, 0.5433, 0.5319, 0.3394, 0.627, 0.307, 0.2232, 0.5819, 0.6767, 0.2962, 0.4129, 0.3551, 0.2402, 0.6935, 0.4424, 0.639, 0.6645, 0.3627, 0.5363, 0.5434, 0.4232], [0.6112, 0.5489, 0.6643, 0.6145, 0.4837, 0.4031, 0.6459, 0.4387, 0.5279, 0.6605, 0.6552, 0.2569, 0.5253, 0.2243, 0.2842, 0.2628, 0.6478, 0.6661, 0.2009, 0.2427, 0.2364, 0.6279, 0.6898, 0.5701, 0.6142, 0.55, 0.5666, 0.2758, 0.5978, 0.2612], [0.512, 0.2692, 0.3524, 0.3824, 0.6103, 0.3894, 0.6225, 0.2403, 0.5697, 0.4139, 0.3764, 0.2446, 0.3043, 0.3784, 0.3799, 0.6372, 0.3569, 0.676, 0.6808, 0.6531, 0.5409, 0.6889, 0.3977, 0.2563, 0.2309, 0.3712, 0.4988, 0.2411, 0.4736, 0.5815]]</t>
+          <t>[[0.5182, 0.376, 0.5257, 0.4078, 0.5394, 0.3523, 0.419, 0.5809, 0.6567, 0.6747, 0.4802, 0.2839, 0.5844, 0.2086, 0.529, 0.2045, 0.3122, 0.6434, 0.6434, 0.681, 0.5436, 0.3005, 0.3951, 0.444, 0.3921, 0.3724, 0.2615, 0.4881, 0.5462, 0.4624, 0.4191, 0.3233, 0.2899, 0.6169, 0.2936, 0.4715, 0.5518, 0.5961, 0.6153, 0.5435], [0.3522, 0.4958, 0.3302, 0.4605, 0.5575, 0.4584, 0.5306, 0.3432, 0.2209, 0.6913, 0.3855, 0.273, 0.51, 0.4371, 0.361, 0.5986, 0.6764, 0.6676, 0.3485, 0.5686, 0.5638, 0.4381, 0.5168, 0.2137, 0.4672, 0.4446, 0.3137, 0.4465, 0.3464, 0.5052, 0.4464, 0.4358, 0.2184, 0.6238, 0.5526, 0.5108, 0.3578, 0.6144, 0.4172, 0.3072], [0.4997, 0.2206, 0.5177, 0.453, 0.3247, 0.4268, 0.3421, 0.2382, 0.4176, 0.5201, 0.218, 0.4015, 0.2265, 0.6991, 0.3319, 0.4544, 0.5127, 0.3622, 0.5855, 0.4092, 0.2741, 0.4362, 0.3651, 0.408, 0.408, 0.324, 0.4218, 0.2481, 0.517, 0.6075, 0.5958, 0.333, 0.6554, 0.5052, 0.3424, 0.6992, 0.6605, 0.6868, 0.5817, 0.3291], [0.522, 0.5133, 0.5929, 0.6713, 0.4799, 0.6221, 0.2065, 0.3912, 0.6013, 0.4581, 0.4436, 0.2089, 0.6853, 0.5945, 0.6896, 0.5952, 0.3561, 0.6551, 0.2908, 0.5726, 0.3095, 0.444, 0.5434, 0.6286, 0.6991, 0.4883, 0.2201, 0.4466, 0.2067, 0.6159, 0.2035, 0.2064, 0.3893, 0.4701, 0.5934, 0.5969, 0.4338, 0.4459, 0.6975, 0.3917], [0.6034, 0.4779, 0.6405, 0.3887, 0.3766, 0.3261, 0.5435, 0.6528, 0.4852, 0.2541, 0.3316, 0.309, 0.3461, 0.5052, 0.3476, 0.3323, 0.5369, 0.6222, 0.312, 0.4823, 0.4799, 0.4554, 0.3329, 0.615, 0.2226, 0.4704, 0.4446, 0.3335, 0.2721, 0.2584, 0.2533, 0.6818, 0.494, 0.2921, 0.3356, 0.4504, 0.2621, 0.5988, 0.3276, 0.3031], [0.5848, 0.3723, 0.4603, 0.6864, 0.4707, 0.6384, 0.4777, 0.3673, 0.378, 0.3893, 0.6305, 0.5181, 0.4991, 0.5427, 0.5624, 0.4406, 0.2722, 0.5287, 0.6844, 0.3336, 0.2906, 0.3831, 0.4396, 0.6549, 0.2287, 0.2727, 0.3286, 0.3945, 0.4594, 0.6873, 0.2117, 0.6879, 0.5707, 0.3758, 0.6003, 0.2007, 0.2376, 0.3438, 0.5439, 0.6665], [0.6656, 0.4206, 0.5413, 0.6456, 0.5482, 0.4862, 0.2591, 0.5614, 0.2067, 0.5345, 0.267, 0.2237, 0.282, 0.5708, 0.4842, 0.5066, 0.3166, 0.293, 0.5335, 0.5298, 0.2168, 0.4004, 0.5437, 0.4262, 0.2874, 0.4843, 0.6096, 0.5346, 0.5474, 0.2849, 0.3821, 0.5568, 0.3395, 0.3641, 0.2305, 0.5044, 0.4901, 0.4976, 0.4904, 0.3748], [0.696, 0.6443, 0.3256, 0.4797, 0.6543, 0.5845, 0.6899, 0.6774, 0.2207, 0.6294, 0.6332, 0.6978, 0.4892, 0.4343, 0.5597, 0.3727, 0.2425, 0.6792, 0.3149, 0.2265, 0.4335, 0.3946, 0.3616, 0.3409, 0.5889, 0.3943, 0.5352, 0.2254, 0.5499, 0.2802, 0.5145, 0.5461, 0.2458, 0.3082, 0.4149, 0.6575, 0.4372, 0.6581, 0.5273, 0.2782], [0.4352, 0.5528, 0.5741, 0.5831, 0.4935, 0.4535, 0.3566, 0.3047, 0.3241, 0.289, 0.6478, 0.2758, 0.4166, 0.4556, 0.2504, 0.3242, 0.4626, 0.4969, 0.4532, 0.2306, 0.6249, 0.621, 0.2135, 0.5081, 0.6694, 0.4234, 0.2957, 0.5435, 0.4867, 0.6754, 0.5148, 0.6948, 0.2092, 0.4803, 0.6755, 0.3991, 0.4933, 0.4692, 0.3831, 0.5435], [0.3425, 0.2014, 0.4394, 0.2858, 0.3555, 0.3824, 0.6391, 0.6578, 0.4586, 0.2698, 0.3747, 0.4883, 0.2871, 0.4069, 0.3876, 0.6516, 0.5428, 0.2179, 0.3268, 0.3381, 0.2811, 0.3451, 0.6923, 0.2583, 0.4463, 0.4039, 0.3151, 0.3613, 0.5011, 0.2612, 0.5146, 0.5052, 0.6116, 0.3355, 0.4481, 0.2032, 0.3953, 0.3406, 0.4778, 0.3704], [0.4136, 0.671, 0.3068, 0.4864, 0.3069, 0.2343, 0.4816, 0.2981, 0.3873, 0.2741, 0.6219, 0.5194, 0.3529, 0.5873, 0.3072, 0.2198, 0.6184, 0.6647, 0.3689, 0.3753, 0.6218, 0.4173, 0.5518, 0.4875, 0.3783, 0.449, 0.2818, 0.3809, 0.5452, 0.6043, 0.5129, 0.518, 0.4537, 0.2034, 0.6954, 0.2532, 0.652, 0.67, 0.6594, 0.2752], [0.5816, 0.4443, 0.6092, 0.5496, 0.6263, 0.3242, 0.5371, 0.4639, 0.5552, 0.4026, 0.6845, 0.5195, 0.2749, 0.575, 0.4583, 0.6797, 0.2385, 0.2552, 0.4418, 0.623, 0.2367, 0.3764, 0.2605, 0.3799, 0.4609, 0.5772, 0.4869, 0.2137, 0.6835, 0.6532, 0.2502, 0.4511, 0.4155, 0.4924, 0.6499, 0.5308, 0.4911, 0.3947, 0.2442, 0.6102], [0.4675, 0.5486, 0.5315, 0.6859, 0.3577, 0.5288, 0.3573, 0.4498, 0.4864, 0.4896, 0.6943, 0.2212, 0.5977, 0.2091, 0.4141, 0.2083, 0.4011, 0.4888, 0.6807, 0.2242, 0.316, 0.6592, 0.6447, 0.2959, 0.5726, 0.3259, 0.5082, 0.4531, 0.2297, 0.3018, 0.5643, 0.5268, 0.3616, 0.501, 0.2213, 0.5401, 0.6868, 0.6369, 0.5235, 0.5377], [0.6822, 0.5904, 0.6732, 0.2885, 0.3964, 0.3221, 0.5905, 0.2762, 0.3755, 0.3589, 0.5282, 0.6237, 0.2076, 0.2315, 0.4471, 0.3014, 0.2318, 0.696, 0.6586, 0.4551, 0.283, 0.4258, 0.4938, 0.2484, 0.2646, 0.3558, 0.3253, 0.6728, 0.3462, 0.6665, 0.2952, 0.5969, 0.5893, 0.3526, 0.249, 0.4888, 0.4981, 0.6711, 0.6055, 0.458], [0.5979, 0.4342, 0.552, 0.3168, 0.3635, 0.6468, 0.3607, 0.4545, 0.4535, 0.6739, 0.264, 0.6954, 0.2156, 0.5635, 0.5513, 0.2141, 0.3156, 0.5774, 0.3385, 0.3972, 0.3353, 0.3135, 0.4892, 0.5058, 0.3025, 0.2004, 0.5658, 0.4962, 0.6124, 0.443, 0.2499, 0.2616, 0.3785, 0.2881, 0.5984, 0.41, 0.2634, 0.4904, 0.3018, 0.6297], [0.509, 0.5313, 0.292, 0.4989, 0.2135, 0.2786, 0.5142, 0.626, 0.6398, 0.6518, 0.5804, 0.3346, 0.5667, 0.3208, 0.2421, 0.3092, 0.2037, 0.4401, 0.599, 0.221, 0.2277, 0.5663, 0.3714, 0.5208, 0.2567, 0.4689, 0.2191, 0.2242, 0.619, 0.688, 0.405, 0.4629, 0.2091, 0.2716, 0.3833, 0.3183, 0.3919, 0.624, 0.511, 0.3968], [0.5837, 0.6172, 0.2977, 0.3072, 0.2934, 0.6129, 0.5172, 0.2968, 0.223, 0.6318, 0.5313, 0.2246, 0.2737, 0.3217, 0.3151, 0.511, 0.4357, 0.4007, 0.3264, 0.419, 0.6155, 0.2128, 0.4744, 0.6129, 0.5233, 0.3548, 0.5477, 0.4987, 0.5179, 0.6696, 0.6181, 0.4082, 0.407, 0.3484, 0.3117, 0.3066, 0.2138, 0.428, 0.3052, 0.4811], [0.6407, 0.3943, 0.3607, 0.5775, 0.413, 0.3833, 0.5928, 0.3619, 0.5373, 0.3497, 0.348, 0.3626, 0.2668, 0.2366, 0.3521, 0.629, 0.5089, 0.3831, 0.4161, 0.2018, 0.393, 0.432, 0.525, 0.5027, 0.2978, 0.3243, 0.2081, 0.2545, 0.2151, 0.368, 0.5493, 0.6114, 0.4028, 0.4448, 0.531, 0.3591, 0.2304, 0.3941, 0.3779, 0.423], [0.2704, 0.2937, 0.3535, 0.5056, 0.5782, 0.6337, 0.247, 0.5899, 0.6754, 0.5369, 0.2031, 0.454, 0.6038, 0.3722, 0.6224, 0.3288, 0.2362, 0.209, 0.314, 0.6684, 0.5266, 0.6559, 0.6076, 0.4384, 0.6379, 0.4206, 0.6677, 0.3361, 0.2168, 0.6258, 0.6399, 0.6339, 0.2166, 0.4329, 0.2121, 0.3761, 0.6668, 0.3104, 0.2085, 0.5664], [0.3806, 0.2688, 0.2293, 0.3758, 0.2093, 0.3518, 0.4597, 0.552, 0.2695, 0.5768, 0.69, 0.3153, 0.4282, 0.2815, 0.6944, 0.49, 0.5772, 0.3522, 0.2318, 0.3811, 0.4254, 0.3012, 0.3397, 0.5372, 0.5823, 0.5704, 0.4635, 0.4322, 0.2685, 0.2096, 0.4423, 0.3999, 0.6449, 0.391, 0.3446, 0.6298, 0.3146, 0.3936, 0.4596, 0.698], [0.6695, 0.5527, 0.5694, 0.5469, 0.6981, 0.299, 0.6329, 0.5363, 0.6473, 0.397, 0.3365, 0.376, 0.3974, 0.334, 0.5837, 0.4434, 0.3048, 0.3955, 0.5254, 0.4229, 0.2281, 0.3828, 0.2643, 0.5529, 0.6825, 0.5995, 0.222, 0.6672, 0.6948, 0.6325, 0.4987, 0.2982, 0.6049, 0.2496, 0.2983, 0.5455, 0.2952, 0.4307, 0.4327, 0.6954], [0.6729, 0.4304, 0.6773, 0.6746, 0.4623, 0.211, 0.2964, 0.4471, 0.3164, 0.2239, 0.4534, 0.6806, 0.2257, 0.4159, 0.5727, 0.4479, 0.5776, 0.4542, 0.4988, 0.2152, 0.4222, 0.2879, 0.3539, 0.2491, 0.2661, 0.5997, 0.6537, 0.2455, 0.2955, 0.5376, 0.6196, 0.2071, 0.3556, 0.6813, 0.6279, 0.2183, 0.3812, 0.6944, 0.5378, 0.4752], [0.3771, 0.5795, 0.3591, 0.6874, 0.4287, 0.2278, 0.245, 0.2165, 0.6006, 0.2195, 0.5197, 0.6905, 0.2434, 0.5918, 0.2841, 0.591, 0.3897, 0.2476, 0.4788, 0.3858, 0.6207, 0.404, 0.4484, 0.2245, 0.3709, 0.5862, 0.6412, 0.6501, 0.6854, 0.5828, 0.3648, 0.6272, 0.5458, 0.246, 0.5731, 0.4224, 0.5673, 0.4797, 0.5527, 0.2358], [0.691, 0.4079, 0.3003, 0.4618, 0.446, 0.4164, 0.2905, 0.3504, 0.206, 0.6221, 0.632, 0.454, 0.3046, 0.5962, 0.5859, 0.4033, 0.2765, 0.5489, 0.3842, 0.3862, 0.3093, 0.4309, 0.5519, 0.6151, 0.581, 0.2623, 0.6202, 0.4847, 0.4884, 0.2197, 0.3024, 0.5679, 0.6497, 0.5911, 0.3512, 0.2501, 0.6889, 0.4566, 0.309, 0.2936], [0.6711, 0.4016, 0.3003, 0.6717, 0.4605, 0.5659, 0.3681, 0.2917, 0.3787, 0.2015, 0.2054, 0.4191, 0.296, 0.5886, 0.3161, 0.5546, 0.6352, 0.5005, 0.6441, 0.5958, 0.3633, 0.6378, 0.271, 0.6551, 0.6678, 0.5681, 0.6854, 0.352, 0.2194, 0.5059, 0.4315, 0.6223, 0.6325, 0.2717, 0.4819, 0.448, 0.2764, 0.2563, 0.6638, 0.4313], [0.308, 0.4703, 0.4068, 0.3236, 0.4832, 0.6368, 0.2404, 0.5883, 0.3113, 0.5353, 0.5129, 0.4174, 0.5225, 0.3168, 0.5169, 0.3359, 0.5918, 0.2255, 0.6901, 0.3303, 0.5882, 0.4788, 0.5679, 0.5952, 0.4377, 0.6268, 0.2692, 0.3216, 0.6462, 0.3305, 0.3009, 0.6704, 0.6113, 0.253, 0.5507, 0.3875, 0.2403, 0.4142, 0.2021, 0.4922], [0.402, 0.4347, 0.6718, 0.2023, 0.5598, 0.6596, 0.3776, 0.2031, 0.4951, 0.2238, 0.4355, 0.3865, 0.4792, 0.2873, 0.2874, 0.6926, 0.543, 0.5967, 0.6798, 0.4458, 0.4058, 0.3268, 0.4661, 0.6153, 0.2988, 0.6662, 0.6212, 0.2843, 0.3038, 0.4558, 0.2412, 0.403, 0.5767, 0.3237, 0.3618, 0.5044, 0.4852, 0.5077, 0.7, 0.2247], [0.4748, 0.5596, 0.3447, 0.4732, 0.6982, 0.5306, 0.3022, 0.3457, 0.2887, 0.219, 0.4306, 0.4279, 0.4995, 0.4091, 0.4252, 0.3359, 0.4788, 0.2316, 0.6961, 0.4444, 0.6739, 0.4267, 0.6653, 0.3958, 0.2303, 0.4662, 0.6997, 0.3401, 0.5859, 0.6834, 0.4009, 0.6421, 0.6262, 0.4021, 0.234, 0.2846, 0.586, 0.5243, 0.4263, 0.3341], [0.414, 0.5429, 0.3363, 0.2983, 0.2358, 0.2557, 0.4702, 0.2912, 0.5225, 0.3527, 0.638, 0.358, 0.6655, 0.5665, 0.2484, 0.2581, 0.528, 0.3677, 0.6164, 0.4704, 0.5481, 0.3801, 0.241, 0.5338, 0.5792, 0.4892, 0.2011, 0.2852, 0.3655, 0.6845, 0.5055, 0.3643, 0.2641, 0.6934, 0.5446, 0.6408, 0.5461, 0.3958, 0.486, 0.626], [0.3724, 0.2665, 0.6729, 0.2386, 0.2242, 0.3158, 0.4495, 0.608, 0.2372, 0.6165, 0.339, 0.6878, 0.3438, 0.4019, 0.3055, 0.6367, 0.2859, 0.2346, 0.2647, 0.5599, 0.5769, 0.2274, 0.6492, 0.3782, 0.2318, 0.3845, 0.2603, 0.2237, 0.3525, 0.257, 0.676, 0.5346, 0.2291, 0.3349, 0.4344, 0.3055, 0.5401, 0.481, 0.419, 0.5889], [0.3204, 0.2555, 0.3015, 0.5098, 0.558, 0.6141, 0.4199, 0.422, 0.3164, 0.5591, 0.6215, 0.4105, 0.3671, 0.3718, 0.5611, 0.442, 0.5284, 0.6372, 0.6479, 0.585, 0.2811, 0.2975, 0.3937, 0.2796, 0.6943, 0.3185, 0.2325, 0.4237, 0.5306, 0.2475, 0.5675, 0.2078, 0.2681, 0.423, 0.5566, 0.677, 0.6267, 0.2916, 0.3958, 0.2586], [0.57, 0.6592, 0.4535, 0.3268, 0.4515, 0.3859, 0.4257, 0.3142, 0.2303, 0.6345, 0.2349, 0.3782, 0.3533, 0.3429, 0.4139, 0.3178, 0.6832, 0.369, 0.4271, 0.2866, 0.315, 0.3977, 0.5385, 0.6412, 0.4662, 0.361, 0.4613, 0.3618, 0.2358, 0.4417, 0.2114, 0.3314, 0.4687, 0.2259, 0.6953, 0.3862, 0.3278, 0.5819, 0.561, 0.3989], [0.2324, 0.4634, 0.2846, 0.6374, 0.391, 0.6614, 0.3327, 0.6494, 0.636, 0.33, 0.455, 0.296, 0.5372, 0.2871, 0.5572, 0.5001, 0.3045, 0.6827, 0.6625, 0.2707, 0.5024, 0.6698, 0.3148, 0.5261, 0.4899, 0.2323, 0.5927, 0.4695, 0.6913, 0.632, 0.5827, 0.4243, 0.2705, 0.5666, 0.2783, 0.23, 0.5373, 0.2249, 0.6945, 0.4899], [0.5352, 0.2974, 0.5911, 0.6666, 0.5727, 0.3122, 0.2584, 0.685, 0.2002, 0.4569, 0.3827, 0.2457, 0.6157, 0.4277, 0.2797, 0.3065, 0.423, 0.4807, 0.3916, 0.4547, 0.2932, 0.3016, 0.2309, 0.5867, 0.5781, 0.6342, 0.417, 0.2234, 0.6119, 0.3789, 0.6939, 0.5814, 0.3297, 0.2498, 0.4723, 0.3042, 0.5527, 0.6683, 0.375, 0.4067], [0.2976, 0.5735, 0.4748, 0.5216, 0.416, 0.6069, 0.3164, 0.2613, 0.5027, 0.2965, 0.595, 0.3858, 0.219, 0.4592, 0.2586, 0.4604, 0.5548, 0.2979, 0.6977, 0.4119, 0.4518, 0.3411, 0.6786, 0.5462, 0.4995, 0.6232, 0.3949, 0.6139, 0.6504, 0.5233, 0.5721, 0.2249, 0.3001, 0.285, 0.5934, 0.2168, 0.4304, 0.6042, 0.5626, 0.501], [0.3382, 0.248, 0.4975, 0.4594, 0.5698, 0.5236, 0.4237, 0.2778, 0.476, 0.5877, 0.315, 0.3431, 0.3622, 0.554, 0.6818, 0.6014, 0.545, 0.3055, 0.3, 0.6562, 0.2411, 0.3852, 0.2968, 0.5802, 0.5794, 0.2496, 0.2612, 0.512, 0.619, 0.4595, 0.4509, 0.2212, 0.3231, 0.3456, 0.4832, 0.3067, 0.2838, 0.2543, 0.5405, 0.3006], [0.3237, 0.695, 0.5885, 0.2789, 0.274, 0.6943, 0.3074, 0.5889, 0.432, 0.2121, 0.4027, 0.4629, 0.349, 0.4465, 0.3248, 0.5738, 0.6257, 0.4625, 0.4403, 0.6787, 0.3591, 0.4225, 0.5428, 0.2435, 0.4588, 0.3158, 0.6781, 0.422, 0.656, 0.3792, 0.316, 0.5397, 0.3848, 0.4264, 0.6209, 0.3007, 0.4817, 0.4218, 0.2865, 0.2605], [0.3284, 0.4575, 0.5163, 0.2921, 0.6379, 0.3869, 0.4473, 0.2026, 0.2947, 0.5796, 0.5628, 0.6794, 0.4633, 0.5775, 0.2798, 0.3338, 0.2277, 0.2542, 0.2731, 0.6952, 0.6239, 0.4958, 0.6867, 0.5933, 0.3865, 0.5365, 0.4412, 0.2321, 0.5249, 0.2565, 0.3044, 0.2123, 0.291, 0.3254, 0.414, 0.5966, 0.3868, 0.6899, 0.3479, 0.5081], [0.5218, 0.4467, 0.5781, 0.3172, 0.4851, 0.6648, 0.6014, 0.2913, 0.573, 0.679, 0.2441, 0.3155, 0.6759, 0.5003, 0.6507, 0.2526, 0.4592, 0.5214, 0.5908, 0.6503, 0.287, 0.5877, 0.369, 0.2808, 0.6708, 0.3885, 0.2035, 0.4639, 0.2061, 0.4366, 0.2998, 0.3369, 0.2667, 0.2916, 0.2746, 0.4484, 0.5923, 0.2961, 0.6651, 0.4923], [0.404, 0.5861, 0.6793, 0.2487, 0.6746, 0.2948, 0.5315, 0.5846, 0.3878, 0.6823, 0.5687, 0.3023, 0.3112, 0.4703, 0.551, 0.457, 0.5405, 0.567, 0.6974, 0.414, 0.4218, 0.6591, 0.4448, 0.3595, 0.443, 0.5436, 0.3812, 0.6881, 0.613, 0.6231, 0.5655, 0.5885, 0.6248, 0.3692, 0.3742, 0.3774, 0.266, 0.6253, 0.4376, 0.617]]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[[1, 10], [2, 10], [5, 10], [1, 10], [2, 10], [4, 10], [0, 10], [5, 10], [4, 10], [1, 10], [3, 10], [1, 10], [0, 10], [0, 10], [3, 10], [0, 10], [5, 10], [0, 10], [0, 10], [0, 10], [0, 10], [0, 10], [3, 10], [4, 10], [3, 10], [5, 10], [0, 10], [1, 10], [3, 10], [5, 10]]</t>
+          <t>[[1, 10], [1, 10], [0, 10], [4, 10], [5, 10], [1, 10], [3, 10], [0, 10], [2, 10], [1, 10], [3, 10], [4, 10], [0, 10], [1, 10], [2, 10], [2, 10], [1, 10], [2, 10], [0, 10], [0, 10], [5, 10], [1, 10], [5, 10], [4, 10], [3, 10], [5, 10], [1, 10], [1, 10], [5, 10], [2, 10], [2, 10], [1, 10], [1, 10], [2, 10], [4, 10], [5, 10], [4, 10], [5, 10], [5, 10], [0, 10]]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[3, 9, 3, 8, 10, 6, 10, 2, 9, 5, 2, 6, 3, 7, 6, 8, 8, 10, 2, 1, 9, 2, 10, 4, 4, 7, 4, 4, 6, 10]</t>
+          <t>[1, 1, 7, 9, 6, 10, 8, 7, 1, 2, 6, 10, 10, 4, 2, 4, 4, 5, 9, 7, 8, 9, 6, 4, 10, 4, 4, 10, 6, 5, 2, 6, 3, 10, 5, 6, 8, 4, 9, 2]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[[0.3397, 0.4321, 0.5955, 0.6598, 0.5486, 0.5747, 0.6778, 0.5844, 0.6444, 0.569, 0.3299, 0.4112, 0.6741, 0.4604, 0.5773, 0.5924, 0.3595, 0.6874, 0.5005, 0.6683, 0.6438, 0.4911, 0.3981, 0.203, 0.4356, 0.4907, 0.4327, 0.3756, 0.2538, 0.4152], [0.3171, 0.2093, 0.5299, 0.481, 0.5648, 0.4616, 0.6974, 0.3302, 0.3092, 0.2762, 0.2726, 0.4087, 0.6585, 0.2753, 0.6047, 0.4956, 0.2855, 0.2579, 0.4689, 0.2518, 0.2425, 0.3255, 0.2625, 0.549, 0.6179, 0.234, 0.3051, 0.6967, 0.3649, 0.2167], [0.4279, 0.2882, 0.2415, 0.2455, 0.6083, 0.6691, 0.3785, 0.4512, 0.5141, 0.4708, 0.3291, 0.4878, 0.6466, 0.4369, 0.6297, 0.4679, 0.6548, 0.4857, 0.4431, 0.4628, 0.2163, 0.2976, 0.5274, 0.3052, 0.6624, 0.2181, 0.6597, 0.5143, 0.2304, 0.5973], [0.367, 0.6875, 0.4681, 0.5945, 0.4194, 0.6644, 0.2665, 0.2901, 0.6619, 0.2202, 0.6649, 0.6172, 0.66, 0.5135, 0.2962, 0.4447, 0.3952, 0.6677, 0.5369, 0.3181, 0.382, 0.4383, 0.5603, 0.3059, 0.5191, 0.4371, 0.3753, 0.6661, 0.6313, 0.6714], [0.3623, 0.3193, 0.4789, 0.3127, 0.5324, 0.2532, 0.5722, 0.3889, 0.5274, 0.3171, 0.4427, 0.3025, 0.5731, 0.4538, 0.4868, 0.4618, 0.3938, 0.4122, 0.3442, 0.5876, 0.3093, 0.3003, 0.5374, 0.5206, 0.4436, 0.3373, 0.3176, 0.2956, 0.4544, 0.3813], [0.6496, 0.5284, 0.6202, 0.3782, 0.3036, 0.6774, 0.4776, 0.6466, 0.5693, 0.6723, 0.3134, 0.6881, 0.3055, 0.5963, 0.3505, 0.3479, 0.4944, 0.5454, 0.2813, 0.3683, 0.5591, 0.3551, 0.5709, 0.6854, 0.4322, 0.6679, 0.6753, 0.4684, 0.4551, 0.6809], [0.5781, 0.3204, 0.404, 0.5085, 0.3526, 0.6888, 0.4244, 0.3499, 0.4774, 0.5449, 0.5699, 0.5957, 0.2677, 0.206, 0.6668, 0.6867, 0.5349, 0.3219, 0.6199, 0.6719, 0.6728, 0.2516, 0.3806, 0.221, 0.3562, 0.2921, 0.2431, 0.2019, 0.6839, 0.4708], [0.6119, 0.4205, 0.4277, 0.3165, 0.4648, 0.2327, 0.2722, 0.3436, 0.2851, 0.4172, 0.4183, 0.5259, 0.3333, 0.2976, 0.353, 0.6514, 0.5761, 0.3999, 0.2019, 0.2187, 0.5743, 0.6654, 0.277, 0.4513, 0.251, 0.3298, 0.4426, 0.5104, 0.4041, 0.2686], [0.3209, 0.6358, 0.6292, 0.2639, 0.6864, 0.5993, 0.4064, 0.3716, 0.6218, 0.6557, 0.6388, 0.558, 0.4507, 0.5368, 0.3587, 0.3926, 0.5367, 0.5156, 0.5476, 0.245, 0.4061, 0.3621, 0.3351, 0.2417, 0.6004, 0.3517, 0.3415, 0.5058, 0.6061, 0.6188], [0.5605, 0.362, 0.4242, 0.45, 0.3673, 0.6324, 0.4496, 0.2464, 0.5195, 0.3948, 0.6005, 0.3062, 0.4433, 0.5912, 0.5578, 0.581, 0.4131, 0.5653, 0.6721, 0.3205, 0.2651, 0.3805, 0.4608, 0.3297, 0.2179, 0.4563, 0.2189, 0.563, 0.2187, 0.6701], [0.5949, 0.4787, 0.3344, 0.3566, 0.5648, 0.2011, 0.4826, 0.6866, 0.601, 0.3969, 0.4733, 0.2603, 0.3601, 0.4762, 0.3205, 0.266, 0.699, 0.2277, 0.5788, 0.2497, 0.3388, 0.2655, 0.4969, 0.5829, 0.3525, 0.2845, 0.5686, 0.5165, 0.3036, 0.464], [0.6356, 0.4626, 0.4931, 0.2779, 0.5821, 0.5762, 0.5768, 0.5388, 0.4396, 0.6953, 0.3833, 0.5053, 0.6055, 0.6925, 0.4052, 0.3002, 0.6976, 0.2537, 0.2847, 0.5134, 0.4349, 0.6386, 0.6567, 0.2203, 0.378, 0.2996, 0.6144, 0.3141, 0.6653, 0.5502], [0.5898, 0.3448, 0.356, 0.4298, 0.4922, 0.6744, 0.3031, 0.3002, 0.3682, 0.4408, 0.2925, 0.548, 0.4155, 0.5501, 0.3191, 0.4716, 0.3077, 0.3309, 0.3867, 0.3115, 0.3104, 0.3122, 0.2679, 0.3872, 0.477, 0.202, 0.2843, 0.3663, 0.4975, 0.3258], [0.6537, 0.4619, 0.6631, 0.6044, 0.4545, 0.4291, 0.3517, 0.5352, 0.2463, 0.5185, 0.6368, 0.6156, 0.608, 0.6505, 0.5398, 0.541, 0.532, 0.6882, 0.3412, 0.5608, 0.6609, 0.228, 0.2241, 0.3301, 0.2713, 0.4261, 0.6415, 0.6977, 0.6565, 0.5537], [0.3772, 0.6035, 0.3034, 0.5403, 0.2991, 0.5305, 0.5144, 0.6791, 0.2443, 0.418, 0.5099, 0.3184, 0.6202, 0.2093, 0.407, 0.6222, 0.4449, 0.5477, 0.2008, 0.5953, 0.5453, 0.335, 0.6607, 0.3036, 0.5905, 0.3344, 0.4018, 0.3485, 0.2706, 0.6642], [0.6134, 0.2155, 0.2743, 0.2566, 0.3473, 0.5612, 0.5577, 0.2898, 0.3639, 0.4302, 0.6564, 0.464, 0.2764, 0.6339, 0.5178, 0.5682, 0.5059, 0.675, 0.2067, 0.5751, 0.3806, 0.2644, 0.4441, 0.4657, 0.281, 0.6896, 0.2751, 0.5102, 0.6047, 0.241], [0.6446, 0.6478, 0.4274, 0.3041, 0.4511, 0.653, 0.5038, 0.5524, 0.5641, 0.6742, 0.2709, 0.6506, 0.5276, 0.3798, 0.4248, 0.3962, 0.582, 0.3843, 0.4344, 0.2884, 0.2578, 0.4942, 0.3738, 0.455, 0.315, 0.4178, 0.6157, 0.4333, 0.3722, 0.6843], [0.5435, 0.2177, 0.2381, 0.3235, 0.2231, 0.4646, 0.3701, 0.4889, 0.6054, 0.4365, 0.29, 0.3895, 0.6277, 0.3171, 0.5584, 0.5203, 0.2535, 0.3295, 0.4385, 0.4975, 0.3434, 0.3361, 0.4404, 0.3653, 0.6882, 0.4693, 0.2873, 0.358, 0.3545, 0.6512], [0.3495, 0.6005, 0.2293, 0.6032, 0.3761, 0.2182, 0.5954, 0.6891, 0.6706, 0.3967, 0.3208, 0.4912, 0.3856, 0.3671, 0.5888, 0.5064, 0.4846, 0.5031, 0.2908, 0.6605, 0.6877, 0.2984, 0.2291, 0.226, 0.614, 0.4445, 0.369, 0.3171, 0.523, 0.5973], [0.6253, 0.3463, 0.492, 0.3457, 0.673, 0.4321, 0.6578, 0.5317, 0.6483, 0.2811, 0.3301, 0.3073, 0.6718, 0.6647, 0.2479, 0.6382, 0.613, 0.6594, 0.3538, 0.3303, 0.6724, 0.5422, 0.4203, 0.4649, 0.3886, 0.2248, 0.2678, 0.5155, 0.3058, 0.3954], [0.4703, 0.5928, 0.5316, 0.4267, 0.5945, 0.6059, 0.6068, 0.6477, 0.3208, 0.4709, 0.3449, 0.4437, 0.2154, 0.587, 0.6254, 0.2141, 0.3322, 0.5481, 0.3546, 0.6317, 0.3436, 0.2597, 0.2767, 0.4679, 0.4075, 0.3473, 0.6538, 0.3292, 0.4068, 0.6569], [0.2805, 0.5545, 0.3807, 0.2638, 0.6987, 0.6308, 0.5592, 0.6188, 0.2282, 0.2123, 0.3646, 0.5946, 0.4924, 0.376, 0.3843, 0.3465, 0.3871, 0.376, 0.2281, 0.3306, 0.5679, 0.2871, 0.3224, 0.6144, 0.3073, 0.5059, 0.4516, 0.6636, 0.544, 0.5488], [0.3353, 0.6585, 0.3934, 0.468, 0.4959, 0.4976, 0.3201, 0.6496, 0.6439, 0.2287, 0.6958, 0.5142, 0.6461, 0.399, 0.6652, 0.2097, 0.3304, 0.3776, 0.6193, 0.3844, 0.5474, 0.3401, 0.2431, 0.6541, 0.645, 0.416, 0.4842, 0.2574, 0.2458, 0.554], [0.286, 0.6452, 0.4315, 0.5077, 0.5815, 0.2191, 0.4055, 0.4305, 0.5244, 0.6386, 0.2787, 0.2012, 0.324, 0.3039, 0.2303, 0.2572, 0.4689, 0.4182, 0.3583, 0.6356, 0.307, 0.2466, 0.2537, 0.2284, 0.2705, 0.5444, 0.4276, 0.2388, 0.4523, 0.5242], [0.6217, 0.6063, 0.3252, 0.4719, 0.2671, 0.2423, 0.4985, 0.2778, 0.3692, 0.2538, 0.2553, 0.6378, 0.5085, 0.6468, 0.4945, 0.3174, 0.687, 0.3497, 0.3692, 0.4189, 0.6728, 0.5045, 0.533, 0.316, 0.4701, 0.2414, 0.5968, 0.6891, 0.671, 0.2349], [0.6283, 0.3066, 0.2323, 0.4202, 0.4735, 0.6809, 0.5476, 0.5536, 0.5147, 0.3416, 0.4878, 0.2919, 0.6893, 0.3696, 0.5697, 0.568, 0.2353, 0.2933, 0.4682, 0.6822, 0.4434, 0.338, 0.42, 0.5957, 0.6214, 0.657, 0.3948, 0.5037, 0.5925, 0.2847], [0.4799, 0.5919, 0.5853, 0.548, 0.6186, 0.2198, 0.5031, 0.3098, 0.3227, 0.379, 0.6187, 0.2928, 0.4931, 0.3736, 0.6323, 0.448, 0.4492, 0.6382, 0.4417, 0.6753, 0.3505, 0.5249, 0.3196, 0.2879, 0.372, 0.4636, 0.5561, 0.4097, 0.4017, 0.6587], [0.6161, 0.5065, 0.3559, 0.4675, 0.2069, 0.6074, 0.4004, 0.232, 0.3946, 0.5005, 0.3376, 0.2703, 0.6544, 0.389, 0.3038, 0.4114, 0.3971, 0.5572, 0.6305, 0.5886, 0.3698, 0.4942, 0.272, 0.6459, 0.4525, 0.3201, 0.4355, 0.4343, 0.4754, 0.462], [0.3964, 0.2161, 0.3142, 0.4204, 0.2751, 0.3178, 0.2743, 0.477, 0.6653, 0.2261, 0.2488, 0.5886, 0.6795, 0.3401, 0.6254, 0.5446, 0.3371, 0.3255, 0.3981, 0.3461, 0.4191, 0.6377, 0.6873, 0.2139, 0.3004, 0.2894, 0.5593, 0.2083, 0.3805, 0.4485], [0.3301, 0.5954, 0.445, 0.5201, 0.6916, 0.6315, 0.6346, 0.2032, 0.6751, 0.5075, 0.5146, 0.3623, 0.3353, 0.2296, 0.3439, 0.5749, 0.5006, 0.2083, 0.3919, 0.5238, 0.274, 0.5967, 0.31, 0.3936, 0.2754, 0.4838, 0.3593, 0.4709, 0.3075, 0.3593]]</t>
+          <t>[[0.6322, 0.3146, 0.3928, 0.3643, 0.3755, 0.4161, 0.6601, 0.5146, 0.5802, 0.2476, 0.6273, 0.4709, 0.4355, 0.4839, 0.5383, 0.3635, 0.4238, 0.5832, 0.6489, 0.3035, 0.5738, 0.3767, 0.3444, 0.4894, 0.2205, 0.6497, 0.3015, 0.5661, 0.2905, 0.3486, 0.3606, 0.3294, 0.416, 0.4607, 0.3442, 0.4512, 0.635, 0.5664, 0.2148, 0.2822], [0.6908, 0.5813, 0.5956, 0.227, 0.2925, 0.3477, 0.6456, 0.4612, 0.3741, 0.5163, 0.648, 0.5849, 0.2649, 0.2403, 0.5901, 0.6672, 0.2085, 0.5341, 0.5794, 0.5816, 0.4185, 0.2158, 0.5126, 0.3562, 0.3888, 0.2501, 0.28, 0.5086, 0.2568, 0.4424, 0.5302, 0.555, 0.4109, 0.3078, 0.5601, 0.4973, 0.4742, 0.5229, 0.213, 0.2204], [0.3966, 0.6902, 0.2789, 0.3459, 0.2093, 0.6447, 0.3197, 0.616, 0.481, 0.3875, 0.4241, 0.4778, 0.351, 0.6717, 0.4044, 0.6538, 0.3182, 0.4604, 0.6039, 0.3352, 0.2716, 0.3986, 0.4619, 0.2459, 0.5814, 0.238, 0.5204, 0.2133, 0.4148, 0.4441, 0.3407, 0.4239, 0.2195, 0.3102, 0.4081, 0.2853, 0.3415, 0.4553, 0.4055, 0.2447], [0.6601, 0.5533, 0.6559, 0.6138, 0.288, 0.4339, 0.4199, 0.6322, 0.5131, 0.5682, 0.3924, 0.3375, 0.4755, 0.2693, 0.6205, 0.5123, 0.4932, 0.4456, 0.5705, 0.2841, 0.4319, 0.4347, 0.2042, 0.2523, 0.5499, 0.5366, 0.3621, 0.6231, 0.5502, 0.2208, 0.2096, 0.3491, 0.5982, 0.5758, 0.3698, 0.6472, 0.5124, 0.273, 0.5165, 0.6828], [0.4597, 0.6869, 0.2836, 0.3554, 0.6957, 0.3988, 0.2786, 0.6967, 0.5495, 0.4453, 0.3604, 0.3493, 0.6902, 0.5168, 0.5827, 0.5759, 0.391, 0.2253, 0.6584, 0.2349, 0.5339, 0.6758, 0.3791, 0.3216, 0.3491, 0.2358, 0.2962, 0.2668, 0.5868, 0.2309, 0.3582, 0.5476, 0.2354, 0.5025, 0.4782, 0.6567, 0.314, 0.4554, 0.5466, 0.3425], [0.5428, 0.6788, 0.3193, 0.4207, 0.2983, 0.5055, 0.6571, 0.6722, 0.6784, 0.377, 0.3147, 0.2735, 0.6664, 0.593, 0.4365, 0.3727, 0.3368, 0.3253, 0.66, 0.4921, 0.2004, 0.5574, 0.4687, 0.2315, 0.4262, 0.4569, 0.4668, 0.6026, 0.2636, 0.4289, 0.363, 0.3761, 0.4893, 0.2385, 0.3587, 0.5974, 0.5961, 0.5817, 0.4936, 0.389], [0.2361, 0.3273, 0.4696, 0.5887, 0.6279, 0.2338, 0.2651, 0.5148, 0.4144, 0.2405, 0.4073, 0.6486, 0.2704, 0.2313, 0.5717, 0.4226, 0.6857, 0.6057, 0.2696, 0.6253, 0.2974, 0.6118, 0.2301, 0.3192, 0.255, 0.5199, 0.5617, 0.5392, 0.4735, 0.4033, 0.6061, 0.6848, 0.2198, 0.5888, 0.5835, 0.5136, 0.5371, 0.2091, 0.4953, 0.345], [0.5188, 0.6072, 0.5604, 0.2784, 0.6646, 0.6473, 0.5398, 0.5706, 0.3382, 0.6882, 0.4278, 0.4891, 0.5334, 0.4867, 0.6366, 0.424, 0.4092, 0.4913, 0.5575, 0.681, 0.4068, 0.2215, 0.2474, 0.5146, 0.3576, 0.2242, 0.2052, 0.4013, 0.6322, 0.5426, 0.295, 0.3893, 0.4744, 0.4279, 0.5739, 0.2524, 0.6785, 0.3114, 0.3718, 0.5248], [0.6785, 0.4151, 0.2841, 0.4203, 0.6657, 0.6912, 0.295, 0.284, 0.4424, 0.4285, 0.4486, 0.6247, 0.4078, 0.3621, 0.34, 0.49, 0.3436, 0.6725, 0.6834, 0.2169, 0.5702, 0.6223, 0.505, 0.2738, 0.2047, 0.5078, 0.5134, 0.2528, 0.54, 0.6282, 0.4146, 0.6673, 0.5869, 0.6629, 0.5623, 0.6061, 0.579, 0.5003, 0.5409, 0.6288], [0.4125, 0.6962, 0.3746, 0.224, 0.6403, 0.6072, 0.3898, 0.3518, 0.5876, 0.2332, 0.2804, 0.2299, 0.2633, 0.295, 0.3358, 0.321, 0.258, 0.3723, 0.3853, 0.6805, 0.6184, 0.2761, 0.417, 0.2214, 0.2114, 0.3882, 0.4715, 0.5753, 0.6245, 0.6876, 0.2979, 0.2203, 0.4735, 0.4304, 0.3476, 0.2434, 0.2275, 0.3341, 0.2106, 0.5907], [0.2513, 0.6836, 0.6212, 0.2913, 0.4409, 0.3284, 0.3838, 0.32, 0.6322, 0.6681, 0.44, 0.2427, 0.2518, 0.2715, 0.4332, 0.2686, 0.6917, 0.3222, 0.2308, 0.2434, 0.4017, 0.4182, 0.5657, 0.2168, 0.5524, 0.4117, 0.5172, 0.5892, 0.3497, 0.2535, 0.2431, 0.4438, 0.5956, 0.682, 0.4859, 0.5956, 0.581, 0.4667, 0.3345, 0.2832], [0.4246, 0.6813, 0.212, 0.6403, 0.6607, 0.684, 0.4033, 0.6407, 0.6827, 0.6099, 0.3637, 0.2006, 0.3299, 0.6897, 0.5669, 0.2962, 0.2874, 0.6535, 0.2593, 0.5075, 0.6004, 0.4294, 0.2654, 0.2485, 0.3482, 0.3439, 0.5179, 0.5341, 0.2982, 0.3775, 0.6975, 0.5527, 0.2831, 0.556, 0.4237, 0.5597, 0.529, 0.4256, 0.6054, 0.4106], [0.4284, 0.5991, 0.4465, 0.2015, 0.5811, 0.6508, 0.464, 0.5925, 0.3425, 0.5562, 0.6815, 0.4668, 0.3398, 0.6273, 0.5572, 0.2584, 0.5503, 0.2092, 0.2546, 0.4821, 0.2883, 0.4532, 0.4831, 0.2122, 0.3985, 0.2028, 0.4219, 0.6958, 0.4665, 0.5767, 0.6572, 0.4101, 0.2582, 0.4858, 0.6986, 0.4579, 0.3798, 0.6681, 0.4431, 0.478], [0.4092, 0.3631, 0.3569, 0.2719, 0.2103, 0.5545, 0.4658, 0.4778, 0.5, 0.6577, 0.5289, 0.6027, 0.6198, 0.3063, 0.2156, 0.233, 0.4499, 0.2373, 0.665, 0.4248, 0.3275, 0.4192, 0.6152, 0.6589, 0.5579, 0.3863, 0.583, 0.5835, 0.4069, 0.27, 0.4292, 0.4021, 0.3301, 0.4516, 0.3667, 0.6058, 0.6763, 0.641, 0.4852, 0.282], [0.2727, 0.2408, 0.5078, 0.4845, 0.5698, 0.2502, 0.441, 0.2163, 0.6135, 0.2797, 0.212, 0.4138, 0.3701, 0.3292, 0.5397, 0.5248, 0.5953, 0.3415, 0.5537, 0.2985, 0.6729, 0.4795, 0.2724, 0.2463, 0.2007, 0.4668, 0.2872, 0.4601, 0.4115, 0.2258, 0.6479, 0.3789, 0.3152, 0.396, 0.6251, 0.507, 0.6203, 0.3065, 0.6658, 0.2021], [0.4156, 0.4234, 0.6385, 0.3237, 0.6617, 0.5301, 0.2114, 0.3568, 0.417, 0.4332, 0.2482, 0.6797, 0.2264, 0.2368, 0.6272, 0.5643, 0.4898, 0.5197, 0.3214, 0.4334, 0.223, 0.4584, 0.3066, 0.4079, 0.6007, 0.278, 0.2041, 0.2525, 0.4748, 0.6404, 0.4455, 0.2902, 0.6174, 0.2536, 0.5108, 0.5747, 0.4063, 0.2085, 0.2456, 0.2932], [0.3037, 0.6489, 0.4763, 0.4839, 0.2205, 0.5191, 0.4801, 0.4601, 0.6416, 0.6104, 0.3829, 0.5517, 0.653, 0.3838, 0.4733, 0.5524, 0.5096, 0.2577, 0.5934, 0.3975, 0.506, 0.5124, 0.2252, 0.3976, 0.3172, 0.4813, 0.656, 0.3273, 0.6639, 0.4251, 0.6114, 0.4997, 0.2569, 0.4154, 0.559, 0.533, 0.6633, 0.6935, 0.2487, 0.3607], [0.5391, 0.5462, 0.2543, 0.5948, 0.3224, 0.3638, 0.6317, 0.29, 0.6993, 0.3307, 0.6601, 0.4454, 0.6811, 0.4193, 0.6891, 0.2904, 0.6669, 0.668, 0.3468, 0.573, 0.4086, 0.6719, 0.3506, 0.4004, 0.5685, 0.2794, 0.6488, 0.5317, 0.5419, 0.3233, 0.4134, 0.3682, 0.5948, 0.4159, 0.5098, 0.4162, 0.2852, 0.3364, 0.305, 0.6985], [0.3355, 0.6263, 0.2961, 0.2352, 0.3273, 0.315, 0.3614, 0.2803, 0.6266, 0.6575, 0.4522, 0.6248, 0.6878, 0.4646, 0.5567, 0.3154, 0.5276, 0.4506, 0.2063, 0.2184, 0.2342, 0.3707, 0.3892, 0.269, 0.3872, 0.4073, 0.2965, 0.4946, 0.6863, 0.6687, 0.2255, 0.6799, 0.2398, 0.5992, 0.5725, 0.5523, 0.2899, 0.3141, 0.2962, 0.5188], [0.5131, 0.6159, 0.2087, 0.326, 0.6228, 0.5923, 0.2732, 0.2968, 0.666, 0.6597, 0.475, 0.4066, 0.4793, 0.4374, 0.566, 0.2669, 0.257, 0.4659, 0.5873, 0.3369, 0.4275, 0.2927, 0.4079, 0.6678, 0.5626, 0.3725, 0.3461, 0.261, 0.3981, 0.3391, 0.2426, 0.2833, 0.2223, 0.5868, 0.5039, 0.6461, 0.5981, 0.403, 0.563, 0.313], [0.3545, 0.479, 0.3983, 0.5745, 0.452, 0.3851, 0.3656, 0.3496, 0.4738, 0.3624, 0.5248, 0.2869, 0.5105, 0.2649, 0.2878, 0.2508, 0.4492, 0.3512, 0.3112, 0.2936, 0.5367, 0.3152, 0.2126, 0.5516, 0.4024, 0.3938, 0.3995, 0.2576, 0.2542, 0.4685, 0.3243, 0.2005, 0.6502, 0.4406, 0.5748, 0.5844, 0.3087, 0.2811, 0.504, 0.4888], [0.2056, 0.2442, 0.2207, 0.4344, 0.6964, 0.3635, 0.6533, 0.6274, 0.2156, 0.2729, 0.4658, 0.4702, 0.352, 0.5992, 0.2281, 0.4058, 0.5731, 0.6903, 0.2343, 0.5101, 0.577, 0.6919, 0.6697, 0.6799, 0.287, 0.2964, 0.6212, 0.4779, 0.4204, 0.5286, 0.6175, 0.4975, 0.6843, 0.5467, 0.2676, 0.5345, 0.3003, 0.2253, 0.547, 0.6376], [0.6055, 0.2511, 0.5346, 0.3312, 0.5428, 0.2146, 0.5947, 0.2233, 0.4634, 0.4256, 0.2087, 0.568, 0.2766, 0.4487, 0.2574, 0.3647, 0.5869, 0.453, 0.6573, 0.4313, 0.6204, 0.2163, 0.673, 0.4836, 0.614, 0.2951, 0.4415, 0.6282, 0.386, 0.2605, 0.5088, 0.5365, 0.561, 0.447, 0.5865, 0.5516, 0.2093, 0.2467, 0.569, 0.2548], [0.2938, 0.6048, 0.6862, 0.303, 0.2266, 0.2489, 0.3608, 0.2055, 0.5044, 0.6445, 0.2869, 0.6541, 0.3437, 0.3734, 0.5732, 0.5652, 0.3532, 0.4933, 0.2714, 0.4821, 0.3329, 0.54, 0.535, 0.2819, 0.6137, 0.4542, 0.6198, 0.5383, 0.207, 0.2135, 0.6906, 0.6174, 0.3813, 0.3182, 0.3938, 0.6595, 0.4368, 0.3052, 0.3007, 0.4175], [0.6577, 0.5165, 0.2034, 0.3053, 0.3766, 0.4189, 0.3978, 0.6954, 0.4581, 0.3343, 0.5881, 0.4376, 0.6891, 0.6785, 0.3075, 0.2075, 0.5599, 0.4459, 0.5995, 0.5211, 0.5648, 0.2889, 0.5942, 0.3423, 0.5937, 0.4293, 0.362, 0.4769, 0.3557, 0.4584, 0.6478, 0.6648, 0.5182, 0.2071, 0.3261, 0.622, 0.4698, 0.5199, 0.5357, 0.2774], [0.6588, 0.4624, 0.4385, 0.3018, 0.6199, 0.4227, 0.3682, 0.3486, 0.4743, 0.2121, 0.674, 0.6241, 0.49, 0.4833, 0.5902, 0.2645, 0.6164, 0.395, 0.4329, 0.2189, 0.205, 0.54, 0.446, 0.3597, 0.2801, 0.2574, 0.6632, 0.2387, 0.2967, 0.4025, 0.2702, 0.316, 0.531, 0.2009, 0.2614, 0.2983, 0.3366, 0.4011, 0.3115, 0.4146], [0.2282, 0.2456, 0.6962, 0.5212, 0.6688, 0.6578, 0.3718, 0.6997, 0.2703, 0.4784, 0.5678, 0.6423, 0.4544, 0.6802, 0.3091, 0.4323, 0.3134, 0.6537, 0.3668, 0.2746, 0.6953, 0.6419, 0.5491, 0.2109, 0.6868, 0.2703, 0.6612, 0.5002, 0.4971, 0.2693, 0.6425, 0.5622, 0.5309, 0.586, 0.2708, 0.6194, 0.5226, 0.6226, 0.3223, 0.2746], [0.4746, 0.2237, 0.6495, 0.3638, 0.6887, 0.6138, 0.5862, 0.6519, 0.3385, 0.3908, 0.547, 0.2841, 0.4386, 0.2683, 0.5369, 0.5456, 0.4935, 0.4149, 0.6547, 0.3695, 0.5517, 0.6406, 0.3269, 0.5887, 0.6223, 0.414, 0.3017, 0.2125, 0.3672, 0.6099, 0.247, 0.5793, 0.6062, 0.3868, 0.3248, 0.4814, 0.4288, 0.5526, 0.5656, 0.681], [0.602, 0.3473, 0.3458, 0.5961, 0.2937, 0.4213, 0.5155, 0.2406, 0.6848, 0.6936, 0.6503, 0.5528, 0.3905, 0.6617, 0.5013, 0.4384, 0.6186, 0.5035, 0.4856, 0.2846, 0.5004, 0.2024, 0.6452, 0.2466, 0.6939, 0.3425, 0.3951, 0.6808, 0.5784, 0.509, 0.5956, 0.6307, 0.566, 0.4339, 0.6117, 0.6732, 0.3203, 0.6975, 0.6229, 0.6528], [0.2489, 0.4193, 0.593, 0.6287, 0.5815, 0.3089, 0.2583, 0.2127, 0.6476, 0.287, 0.277, 0.6294, 0.6884, 0.6065, 0.533, 0.5154, 0.5231, 0.2705, 0.627, 0.5077, 0.4118, 0.4672, 0.2355, 0.5459, 0.4024, 0.3709, 0.3277, 0.4636, 0.42, 0.2099, 0.5695, 0.6656, 0.3804, 0.4733, 0.6348, 0.3867, 0.4994, 0.6295, 0.6975, 0.3719], [0.3379, 0.6105, 0.354, 0.5601, 0.3189, 0.668, 0.2313, 0.6128, 0.4514, 0.4631, 0.4348, 0.5491, 0.51, 0.6648, 0.693, 0.5622, 0.6841, 0.4213, 0.2401, 0.4281, 0.5193, 0.6325, 0.4108, 0.6663, 0.6339, 0.6259, 0.3966, 0.3588, 0.6725, 0.5622, 0.4208, 0.6012, 0.3234, 0.4205, 0.3823, 0.2648, 0.3764, 0.501, 0.403, 0.3691], [0.5922, 0.4919, 0.3853, 0.2152, 0.4516, 0.2177, 0.6424, 0.6951, 0.4411, 0.4473, 0.6634, 0.3901, 0.3151, 0.3213, 0.3712, 0.2786, 0.4739, 0.6394, 0.6448, 0.3689, 0.6236, 0.2422, 0.4619, 0.6353, 0.3368, 0.2374, 0.4946, 0.3125, 0.329, 0.5205, 0.5028, 0.2873, 0.284, 0.6315, 0.66, 0.2038, 0.438, 0.372, 0.4156, 0.5219], [0.6902, 0.2491, 0.6214, 0.2101, 0.5826, 0.4743, 0.3901, 0.6329, 0.2046, 0.3093, 0.3293, 0.5066, 0.3642, 0.6805, 0.3056, 0.3075, 0.6405, 0.4341, 0.2673, 0.3399, 0.5166, 0.6958, 0.2688, 0.4612, 0.375, 0.4009, 0.2441, 0.4585, 0.3414, 0.6289, 0.6045, 0.2128, 0.5956, 0.6449, 0.2228, 0.4157, 0.4263, 0.2174, 0.658, 0.3261], [0.204, 0.4925, 0.3999, 0.6138, 0.6626, 0.5348, 0.3792, 0.445, 0.5429, 0.3622, 0.4343, 0.2759, 0.6129, 0.6335, 0.5118, 0.372, 0.5426, 0.4465, 0.2937, 0.2427, 0.2557, 0.2978, 0.4384, 0.2834, 0.3784, 0.5823, 0.6977, 0.564, 0.4833, 0.5065, 0.4936, 0.4494, 0.4167, 0.4832, 0.5816, 0.4521, 0.4293, 0.2974, 0.6518, 0.2265], [0.6965, 0.6733, 0.372, 0.377, 0.5287, 0.4889, 0.4549, 0.5808, 0.6471, 0.2585, 0.2782, 0.6767, 0.2067, 0.4799, 0.6433, 0.3357, 0.5354, 0.5108, 0.6724, 0.5195, 0.3566, 0.385, 0.5894, 0.3134, 0.3045, 0.2821, 0.2404, 0.4183, 0.2529, 0.4851, 0.3019, 0.3792, 0.3132, 0.5695, 0.2481, 0.5877, 0.2965, 0.4715, 0.2699, 0.2879], [0.6488, 0.2338, 0.2119, 0.4757, 0.6132, 0.3669, 0.5745, 0.4946, 0.4277, 0.2161, 0.5711, 0.2582, 0.3916, 0.516, 0.4419, 0.6087, 0.5232, 0.6161, 0.5153, 0.3862, 0.3621, 0.2761, 0.2821, 0.2535, 0.4548, 0.3802, 0.3493, 0.4977, 0.6263, 0.2273, 0.4153, 0.2247, 0.2559, 0.2532, 0.4104, 0.2129, 0.3397, 0.5801, 0.271, 0.3889], [0.4683, 0.6265, 0.3545, 0.5652, 0.5714, 0.484, 0.3214, 0.34, 0.6891, 0.6431, 0.5678, 0.6622, 0.4292, 0.5586, 0.3767, 0.5364, 0.4837, 0.2121, 0.3567, 0.5751, 0.5582, 0.4839, 0.237, 0.2388, 0.2232, 0.4778, 0.6296, 0.4601, 0.2383, 0.3215, 0.2282, 0.659, 0.3589, 0.2668, 0.3786, 0.555, 0.3235, 0.3389, 0.2298, 0.274], [0.6231, 0.5194, 0.3927, 0.4788, 0.6461, 0.5371, 0.2154, 0.3026, 0.6143, 0.3704, 0.3878, 0.4211, 0.5842, 0.6072, 0.5708, 0.2773, 0.6444, 0.2842, 0.5443, 0.629, 0.2952, 0.6228, 0.4393, 0.2651, 0.2774, 0.3284, 0.3908, 0.6649, 0.3003, 0.5245, 0.6514, 0.6101, 0.6206, 0.585, 0.5403, 0.4283, 0.2704, 0.6411, 0.6865, 0.2857], [0.4695, 0.693, 0.5574, 0.2318, 0.3943, 0.234, 0.2005, 0.4531, 0.582, 0.6496, 0.6251, 0.3063, 0.3968, 0.3677, 0.263, 0.3924, 0.4671, 0.5533, 0.6021, 0.5141, 0.3767, 0.5878, 0.3289, 0.4008, 0.4897, 0.3112, 0.2073, 0.2796, 0.5487, 0.3356, 0.4789, 0.681, 0.3597, 0.527, 0.2006, 0.2029, 0.6759, 0.641, 0.5828, 0.4632], [0.6222, 0.2882, 0.4342, 0.3997, 0.6544, 0.5934, 0.2452, 0.5884, 0.4716, 0.5679, 0.4698, 0.2583, 0.6461, 0.6979, 0.4237, 0.4647, 0.2495, 0.3477, 0.3197, 0.6843, 0.29, 0.4226, 0.6835, 0.3538, 0.5076, 0.5, 0.4559, 0.5061, 0.3543, 0.6238, 0.4411, 0.4506, 0.5846, 0.4376, 0.638, 0.6309, 0.6524, 0.6675, 0.5867, 0.5152]]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[[4, 10], [0, 10], [4, 10], [0, 10], [0, 10], [4, 10], [3, 10], [1, 10], [0, 10], [0, 10], [3, 10], [0, 10], [1, 10], [2, 10], [0, 10], [0, 10], [3, 10], [4, 10], [0, 10], [0, 10], [1, 10], [5, 10], [0, 10], [0, 10], [2, 10], [2, 10], [5, 10], [3, 10], [4, 10], [2, 10]]</t>
+          <t>[[2, 10], [1, 10], [4, 10], [4, 10], [1, 10], [3, 10], [3, 10], [5, 10], [1, 10], [0, 10], [4, 10], [1, 10], [5, 10], [0, 10], [4, 10], [1, 10], [1, 10], [0, 10], [5, 10], [4, 10], [3, 10], [3, 10], [4, 10], [5, 10], [4, 10], [0, 10], [0, 10], [1, 10], [2, 10], [0, 10], [2, 10], [1, 10], [5, 10], [4, 10], [1, 10], [1, 10], [3, 10], [2, 10], [5, 10], [0, 10]]</t>
         </is>
       </c>
     </row>
